--- a/modules-local/fast-library/src/OutListParameters.xlsx
+++ b/modules-local/fast-library/src/OutListParameters.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="60" windowWidth="21390" windowHeight="9630" activeTab="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4918" uniqueCount="2201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4918" uniqueCount="2204">
   <si>
     <t>Category</t>
   </si>
@@ -6481,9 +6481,6 @@
     <t>.NOT. CompAero</t>
   </si>
   <si>
-    <t>It is compatible with FAST v7.00.03a</t>
-  </si>
-  <si>
     <t>unique available output channels (not including alternate names)</t>
   </si>
   <si>
@@ -6623,6 +6620,18 @@
   </si>
   <si>
     <t>Blade 3 local axial force at span station 1</t>
+  </si>
+  <si>
+    <t>Directed along the zb1-axis</t>
+  </si>
+  <si>
+    <t>Directed along the zb2-axis</t>
+  </si>
+  <si>
+    <t>Directed along the zb3-axis</t>
+  </si>
+  <si>
+    <t>It is compatible with FAST v7.01.01a</t>
   </si>
 </sst>
 </file>
@@ -7015,7 +7024,7 @@
   <dimension ref="A3:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7030,7 +7039,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>2153</v>
+        <v>2203</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -7047,7 +7056,7 @@
         <v>986</v>
       </c>
       <c r="E8" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -7134,10 +7143,8 @@
   <dimension ref="A1:G1023"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D696" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D701" sqref="D701"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8438,7 +8445,7 @@
         <v>1788</v>
       </c>
       <c r="E77" s="9" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="F77" s="8" t="s">
         <v>273</v>
@@ -8455,7 +8462,7 @@
         <v>1789</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="F78" s="4" t="s">
         <v>273</v>
@@ -8472,7 +8479,7 @@
         <v>1787</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>657</v>
+        <v>2200</v>
       </c>
       <c r="F79" s="4" t="s">
         <v>273</v>
@@ -8490,7 +8497,7 @@
         <v>1786</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="F80" s="8" t="s">
         <v>273</v>
@@ -8507,7 +8514,7 @@
         <v>1790</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="F81" s="4" t="s">
         <v>273</v>
@@ -8524,7 +8531,7 @@
         <v>1791</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>657</v>
+        <v>2200</v>
       </c>
       <c r="F82" s="4" t="s">
         <v>273</v>
@@ -8542,7 +8549,7 @@
         <v>1792</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="F83" s="8" t="s">
         <v>273</v>
@@ -8559,7 +8566,7 @@
         <v>1793</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="F84" s="4" t="s">
         <v>273</v>
@@ -8576,7 +8583,7 @@
         <v>1794</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>657</v>
+        <v>2200</v>
       </c>
       <c r="F85" s="4" t="s">
         <v>273</v>
@@ -8594,7 +8601,7 @@
         <v>1795</v>
       </c>
       <c r="E86" s="9" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="F86" s="8" t="s">
         <v>273</v>
@@ -8611,7 +8618,7 @@
         <v>1796</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="F87" s="4" t="s">
         <v>273</v>
@@ -8628,7 +8635,7 @@
         <v>1797</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>657</v>
+        <v>2200</v>
       </c>
       <c r="F88" s="4" t="s">
         <v>273</v>
@@ -8646,7 +8653,7 @@
         <v>1798</v>
       </c>
       <c r="E89" s="9" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="F89" s="8" t="s">
         <v>273</v>
@@ -8663,7 +8670,7 @@
         <v>1799</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="F90" s="4" t="s">
         <v>273</v>
@@ -8680,7 +8687,7 @@
         <v>1800</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>657</v>
+        <v>2200</v>
       </c>
       <c r="F91" s="4" t="s">
         <v>273</v>
@@ -8698,7 +8705,7 @@
         <v>1801</v>
       </c>
       <c r="E92" s="9" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="F92" s="8" t="s">
         <v>273</v>
@@ -8715,7 +8722,7 @@
         <v>1802</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="F93" s="4" t="s">
         <v>273</v>
@@ -8732,7 +8739,7 @@
         <v>1803</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>657</v>
+        <v>2200</v>
       </c>
       <c r="F94" s="4" t="s">
         <v>273</v>
@@ -8750,7 +8757,7 @@
         <v>1804</v>
       </c>
       <c r="E95" s="9" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="F95" s="8" t="s">
         <v>273</v>
@@ -8767,7 +8774,7 @@
         <v>1805</v>
       </c>
       <c r="E96" s="7" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="F96" s="4" t="s">
         <v>273</v>
@@ -8784,7 +8791,7 @@
         <v>1806</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>657</v>
+        <v>2200</v>
       </c>
       <c r="F97" s="4" t="s">
         <v>273</v>
@@ -8802,7 +8809,7 @@
         <v>1807</v>
       </c>
       <c r="E98" s="9" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="F98" s="8" t="s">
         <v>273</v>
@@ -8819,7 +8826,7 @@
         <v>1808</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="F99" s="4" t="s">
         <v>273</v>
@@ -8836,7 +8843,7 @@
         <v>1809</v>
       </c>
       <c r="E100" s="7" t="s">
-        <v>657</v>
+        <v>2200</v>
       </c>
       <c r="F100" s="4" t="s">
         <v>273</v>
@@ -8854,7 +8861,7 @@
         <v>1810</v>
       </c>
       <c r="E101" s="9" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="F101" s="8" t="s">
         <v>273</v>
@@ -8871,7 +8878,7 @@
         <v>1811</v>
       </c>
       <c r="E102" s="7" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="F102" s="4" t="s">
         <v>273</v>
@@ -8888,7 +8895,7 @@
         <v>1812</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>657</v>
+        <v>2200</v>
       </c>
       <c r="F103" s="4" t="s">
         <v>273</v>
@@ -9841,7 +9848,7 @@
         <v>2064</v>
       </c>
       <c r="E159" s="9" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F159" s="8" t="s">
         <v>273</v>
@@ -9858,7 +9865,7 @@
         <v>2065</v>
       </c>
       <c r="E160" s="7" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="F160" s="4" t="s">
         <v>273</v>
@@ -9875,7 +9882,7 @@
         <v>2066</v>
       </c>
       <c r="E161" s="7" t="s">
-        <v>684</v>
+        <v>2201</v>
       </c>
       <c r="F161" s="4" t="s">
         <v>273</v>
@@ -9893,7 +9900,7 @@
         <v>2067</v>
       </c>
       <c r="E162" s="9" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F162" s="8" t="s">
         <v>273</v>
@@ -9910,7 +9917,7 @@
         <v>2068</v>
       </c>
       <c r="E163" s="7" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="F163" s="4" t="s">
         <v>273</v>
@@ -9927,7 +9934,7 @@
         <v>2069</v>
       </c>
       <c r="E164" s="7" t="s">
-        <v>684</v>
+        <v>2201</v>
       </c>
       <c r="F164" s="4" t="s">
         <v>273</v>
@@ -9945,7 +9952,7 @@
         <v>2070</v>
       </c>
       <c r="E165" s="9" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F165" s="8" t="s">
         <v>273</v>
@@ -9962,7 +9969,7 @@
         <v>2071</v>
       </c>
       <c r="E166" s="7" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="F166" s="4" t="s">
         <v>273</v>
@@ -9979,7 +9986,7 @@
         <v>2072</v>
       </c>
       <c r="E167" s="7" t="s">
-        <v>684</v>
+        <v>2201</v>
       </c>
       <c r="F167" s="4" t="s">
         <v>273</v>
@@ -9997,7 +10004,7 @@
         <v>2073</v>
       </c>
       <c r="E168" s="9" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F168" s="8" t="s">
         <v>273</v>
@@ -10014,7 +10021,7 @@
         <v>2074</v>
       </c>
       <c r="E169" s="7" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="F169" s="4" t="s">
         <v>273</v>
@@ -10031,7 +10038,7 @@
         <v>2075</v>
       </c>
       <c r="E170" s="7" t="s">
-        <v>684</v>
+        <v>2201</v>
       </c>
       <c r="F170" s="4" t="s">
         <v>273</v>
@@ -10049,7 +10056,7 @@
         <v>2076</v>
       </c>
       <c r="E171" s="9" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F171" s="8" t="s">
         <v>273</v>
@@ -10066,7 +10073,7 @@
         <v>2077</v>
       </c>
       <c r="E172" s="7" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="F172" s="4" t="s">
         <v>273</v>
@@ -10083,7 +10090,7 @@
         <v>2078</v>
       </c>
       <c r="E173" s="7" t="s">
-        <v>684</v>
+        <v>2201</v>
       </c>
       <c r="F173" s="4" t="s">
         <v>273</v>
@@ -10101,7 +10108,7 @@
         <v>2079</v>
       </c>
       <c r="E174" s="9" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F174" s="8" t="s">
         <v>273</v>
@@ -10118,7 +10125,7 @@
         <v>2080</v>
       </c>
       <c r="E175" s="7" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="F175" s="4" t="s">
         <v>273</v>
@@ -10135,7 +10142,7 @@
         <v>2081</v>
       </c>
       <c r="E176" s="7" t="s">
-        <v>684</v>
+        <v>2201</v>
       </c>
       <c r="F176" s="4" t="s">
         <v>273</v>
@@ -10153,7 +10160,7 @@
         <v>2082</v>
       </c>
       <c r="E177" s="9" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F177" s="8" t="s">
         <v>273</v>
@@ -10170,7 +10177,7 @@
         <v>2083</v>
       </c>
       <c r="E178" s="7" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="F178" s="4" t="s">
         <v>273</v>
@@ -10187,7 +10194,7 @@
         <v>2084</v>
       </c>
       <c r="E179" s="7" t="s">
-        <v>684</v>
+        <v>2201</v>
       </c>
       <c r="F179" s="4" t="s">
         <v>273</v>
@@ -10205,7 +10212,7 @@
         <v>2085</v>
       </c>
       <c r="E180" s="9" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F180" s="8" t="s">
         <v>273</v>
@@ -10222,7 +10229,7 @@
         <v>2086</v>
       </c>
       <c r="E181" s="7" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="F181" s="4" t="s">
         <v>273</v>
@@ -10239,7 +10246,7 @@
         <v>2087</v>
       </c>
       <c r="E182" s="7" t="s">
-        <v>684</v>
+        <v>2201</v>
       </c>
       <c r="F182" s="4" t="s">
         <v>273</v>
@@ -10257,7 +10264,7 @@
         <v>2088</v>
       </c>
       <c r="E183" s="9" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F183" s="8" t="s">
         <v>273</v>
@@ -10274,7 +10281,7 @@
         <v>2089</v>
       </c>
       <c r="E184" s="7" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="F184" s="4" t="s">
         <v>273</v>
@@ -10291,7 +10298,7 @@
         <v>2090</v>
       </c>
       <c r="E185" s="7" t="s">
-        <v>684</v>
+        <v>2201</v>
       </c>
       <c r="F185" s="4" t="s">
         <v>273</v>
@@ -11244,7 +11251,7 @@
         <v>1956</v>
       </c>
       <c r="E241" s="9" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="F241" s="8" t="s">
         <v>273</v>
@@ -11261,7 +11268,7 @@
         <v>1957</v>
       </c>
       <c r="E242" s="7" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="F242" s="4" t="s">
         <v>273</v>
@@ -11278,7 +11285,7 @@
         <v>1958</v>
       </c>
       <c r="E243" s="7" t="s">
-        <v>710</v>
+        <v>2202</v>
       </c>
       <c r="F243" s="4" t="s">
         <v>273</v>
@@ -11296,7 +11303,7 @@
         <v>1959</v>
       </c>
       <c r="E244" s="9" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="F244" s="8" t="s">
         <v>273</v>
@@ -11313,7 +11320,7 @@
         <v>1960</v>
       </c>
       <c r="E245" s="7" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="F245" s="4" t="s">
         <v>273</v>
@@ -11330,7 +11337,7 @@
         <v>1961</v>
       </c>
       <c r="E246" s="7" t="s">
-        <v>710</v>
+        <v>2202</v>
       </c>
       <c r="F246" s="4" t="s">
         <v>273</v>
@@ -11348,7 +11355,7 @@
         <v>1962</v>
       </c>
       <c r="E247" s="9" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="F247" s="8" t="s">
         <v>273</v>
@@ -11365,7 +11372,7 @@
         <v>1963</v>
       </c>
       <c r="E248" s="7" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="F248" s="4" t="s">
         <v>273</v>
@@ -11382,7 +11389,7 @@
         <v>1964</v>
       </c>
       <c r="E249" s="7" t="s">
-        <v>710</v>
+        <v>2202</v>
       </c>
       <c r="F249" s="4" t="s">
         <v>273</v>
@@ -11400,7 +11407,7 @@
         <v>1965</v>
       </c>
       <c r="E250" s="9" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="F250" s="8" t="s">
         <v>273</v>
@@ -11417,7 +11424,7 @@
         <v>1966</v>
       </c>
       <c r="E251" s="7" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="F251" s="4" t="s">
         <v>273</v>
@@ -11434,7 +11441,7 @@
         <v>1967</v>
       </c>
       <c r="E252" s="7" t="s">
-        <v>710</v>
+        <v>2202</v>
       </c>
       <c r="F252" s="4" t="s">
         <v>273</v>
@@ -11452,7 +11459,7 @@
         <v>1968</v>
       </c>
       <c r="E253" s="9" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="F253" s="8" t="s">
         <v>273</v>
@@ -11469,7 +11476,7 @@
         <v>1969</v>
       </c>
       <c r="E254" s="7" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="F254" s="4" t="s">
         <v>273</v>
@@ -11486,7 +11493,7 @@
         <v>1970</v>
       </c>
       <c r="E255" s="7" t="s">
-        <v>710</v>
+        <v>2202</v>
       </c>
       <c r="F255" s="4" t="s">
         <v>273</v>
@@ -11504,7 +11511,7 @@
         <v>1971</v>
       </c>
       <c r="E256" s="9" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="F256" s="8" t="s">
         <v>273</v>
@@ -11521,7 +11528,7 @@
         <v>1972</v>
       </c>
       <c r="E257" s="7" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="F257" s="4" t="s">
         <v>273</v>
@@ -11538,7 +11545,7 @@
         <v>1973</v>
       </c>
       <c r="E258" s="7" t="s">
-        <v>710</v>
+        <v>2202</v>
       </c>
       <c r="F258" s="4" t="s">
         <v>273</v>
@@ -11556,7 +11563,7 @@
         <v>1974</v>
       </c>
       <c r="E259" s="9" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="F259" s="8" t="s">
         <v>273</v>
@@ -11573,7 +11580,7 @@
         <v>1975</v>
       </c>
       <c r="E260" s="7" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="F260" s="4" t="s">
         <v>273</v>
@@ -11590,7 +11597,7 @@
         <v>1976</v>
       </c>
       <c r="E261" s="7" t="s">
-        <v>710</v>
+        <v>2202</v>
       </c>
       <c r="F261" s="4" t="s">
         <v>273</v>
@@ -11608,7 +11615,7 @@
         <v>1977</v>
       </c>
       <c r="E262" s="9" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="F262" s="8" t="s">
         <v>273</v>
@@ -11625,7 +11632,7 @@
         <v>1978</v>
       </c>
       <c r="E263" s="7" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="F263" s="4" t="s">
         <v>273</v>
@@ -11642,7 +11649,7 @@
         <v>1979</v>
       </c>
       <c r="E264" s="7" t="s">
-        <v>710</v>
+        <v>2202</v>
       </c>
       <c r="F264" s="4" t="s">
         <v>273</v>
@@ -11660,7 +11667,7 @@
         <v>1980</v>
       </c>
       <c r="E265" s="9" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="F265" s="8" t="s">
         <v>273</v>
@@ -11677,7 +11684,7 @@
         <v>1981</v>
       </c>
       <c r="E266" s="7" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="F266" s="4" t="s">
         <v>273</v>
@@ -11694,7 +11701,7 @@
         <v>1982</v>
       </c>
       <c r="E267" s="7" t="s">
-        <v>710</v>
+        <v>2202</v>
       </c>
       <c r="F267" s="4" t="s">
         <v>273</v>
@@ -17011,7 +17018,7 @@
         <v>1254</v>
       </c>
       <c r="D591" s="7" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
       <c r="E591" s="7" t="s">
         <v>657</v>
@@ -17062,7 +17069,7 @@
         <v>1257</v>
       </c>
       <c r="D594" s="7" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
       <c r="E594" s="7" t="s">
         <v>657</v>
@@ -17113,7 +17120,7 @@
         <v>1260</v>
       </c>
       <c r="D597" s="7" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
       <c r="E597" s="7" t="s">
         <v>657</v>
@@ -17164,7 +17171,7 @@
         <v>1263</v>
       </c>
       <c r="D600" s="7" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
       <c r="E600" s="7" t="s">
         <v>657</v>
@@ -17215,7 +17222,7 @@
         <v>1266</v>
       </c>
       <c r="D603" s="7" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="E603" s="7" t="s">
         <v>657</v>
@@ -17266,7 +17273,7 @@
         <v>1269</v>
       </c>
       <c r="D606" s="7" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="E606" s="7" t="s">
         <v>657</v>
@@ -17317,7 +17324,7 @@
         <v>1272</v>
       </c>
       <c r="D609" s="7" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
       <c r="E609" s="7" t="s">
         <v>657</v>
@@ -17368,7 +17375,7 @@
         <v>1275</v>
       </c>
       <c r="D612" s="7" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="E612" s="7" t="s">
         <v>657</v>
@@ -17419,7 +17426,7 @@
         <v>1278</v>
       </c>
       <c r="D615" s="7" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
       <c r="E615" s="7" t="s">
         <v>657</v>
@@ -17937,7 +17944,7 @@
         <v>1299</v>
       </c>
       <c r="D646" s="7" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
       <c r="E646" s="7" t="s">
         <v>684</v>
@@ -17988,7 +17995,7 @@
         <v>1302</v>
       </c>
       <c r="D649" s="7" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
       <c r="E649" s="7" t="s">
         <v>684</v>
@@ -18039,7 +18046,7 @@
         <v>1305</v>
       </c>
       <c r="D652" s="7" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
       <c r="E652" s="7" t="s">
         <v>684</v>
@@ -18090,7 +18097,7 @@
         <v>1308</v>
       </c>
       <c r="D655" s="7" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
       <c r="E655" s="7" t="s">
         <v>684</v>
@@ -18141,7 +18148,7 @@
         <v>1311</v>
       </c>
       <c r="D658" s="7" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="E658" s="7" t="s">
         <v>684</v>
@@ -18192,7 +18199,7 @@
         <v>1314</v>
       </c>
       <c r="D661" s="7" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
       <c r="E661" s="7" t="s">
         <v>684</v>
@@ -18243,7 +18250,7 @@
         <v>1317</v>
       </c>
       <c r="D664" s="7" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
       <c r="E664" s="7" t="s">
         <v>684</v>
@@ -18294,7 +18301,7 @@
         <v>1320</v>
       </c>
       <c r="D667" s="7" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="E667" s="7" t="s">
         <v>684</v>
@@ -18345,7 +18352,7 @@
         <v>1323</v>
       </c>
       <c r="D670" s="7" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="E670" s="7" t="s">
         <v>684</v>
@@ -18863,7 +18870,7 @@
         <v>1344</v>
       </c>
       <c r="D701" s="7" t="s">
-        <v>2200</v>
+        <v>2199</v>
       </c>
       <c r="E701" s="7" t="s">
         <v>710</v>
@@ -18914,7 +18921,7 @@
         <v>1347</v>
       </c>
       <c r="D704" s="7" t="s">
-        <v>2199</v>
+        <v>2198</v>
       </c>
       <c r="E704" s="7" t="s">
         <v>710</v>
@@ -18965,7 +18972,7 @@
         <v>1350</v>
       </c>
       <c r="D707" s="7" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
       <c r="E707" s="7" t="s">
         <v>710</v>
@@ -19016,7 +19023,7 @@
         <v>1353</v>
       </c>
       <c r="D710" s="7" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
       <c r="E710" s="7" t="s">
         <v>710</v>
@@ -19067,7 +19074,7 @@
         <v>1356</v>
       </c>
       <c r="D713" s="7" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
       <c r="E713" s="7" t="s">
         <v>710</v>
@@ -19118,7 +19125,7 @@
         <v>1359</v>
       </c>
       <c r="D716" s="7" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
       <c r="E716" s="7" t="s">
         <v>710</v>
@@ -19169,7 +19176,7 @@
         <v>1362</v>
       </c>
       <c r="D719" s="7" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
       <c r="E719" s="7" t="s">
         <v>710</v>
@@ -19220,7 +19227,7 @@
         <v>1365</v>
       </c>
       <c r="D722" s="7" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
       <c r="E722" s="7" t="s">
         <v>710</v>
@@ -19271,7 +19278,7 @@
         <v>1368</v>
       </c>
       <c r="D725" s="7" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
       <c r="E725" s="7" t="s">
         <v>710</v>
@@ -21417,7 +21424,7 @@
         <v>1</v>
       </c>
       <c r="G856" s="4" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
     </row>
     <row r="857" spans="1:7">
@@ -21428,7 +21435,7 @@
         <v>269</v>
       </c>
       <c r="G857" s="4" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
     </row>
     <row r="858" spans="1:7">
@@ -21439,7 +21446,7 @@
         <v>1</v>
       </c>
       <c r="G858" s="4" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
     </row>
     <row r="859" spans="1:7">
@@ -21450,7 +21457,7 @@
         <v>269</v>
       </c>
       <c r="G859" s="4" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
     </row>
     <row r="860" spans="1:7">
@@ -21461,7 +21468,7 @@
         <v>1</v>
       </c>
       <c r="G860" s="4" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="861" spans="1:7">
@@ -21472,7 +21479,7 @@
         <v>269</v>
       </c>
       <c r="G861" s="4" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="862" spans="1:7">
@@ -21483,7 +21490,7 @@
         <v>1</v>
       </c>
       <c r="G862" s="4" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="863" spans="1:7">
@@ -21494,7 +21501,7 @@
         <v>269</v>
       </c>
       <c r="G863" s="4" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="864" spans="1:7">
@@ -21505,7 +21512,7 @@
         <v>1</v>
       </c>
       <c r="G864" s="4" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="865" spans="2:7">
@@ -21516,7 +21523,7 @@
         <v>269</v>
       </c>
       <c r="G865" s="4" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="866" spans="2:7">
@@ -21527,7 +21534,7 @@
         <v>1</v>
       </c>
       <c r="G866" s="4" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="867" spans="2:7">
@@ -21538,7 +21545,7 @@
         <v>269</v>
       </c>
       <c r="G867" s="4" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="868" spans="2:7">
@@ -21549,7 +21556,7 @@
         <v>1</v>
       </c>
       <c r="G868" s="4" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="869" spans="2:7">
@@ -21560,7 +21567,7 @@
         <v>269</v>
       </c>
       <c r="G869" s="4" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="870" spans="2:7">
@@ -21571,7 +21578,7 @@
         <v>1</v>
       </c>
       <c r="G870" s="4" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="871" spans="2:7">
@@ -21582,7 +21589,7 @@
         <v>269</v>
       </c>
       <c r="G871" s="4" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="872" spans="2:7">
@@ -21593,7 +21600,7 @@
         <v>1</v>
       </c>
       <c r="G872" s="4" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
     </row>
     <row r="873" spans="2:7">
@@ -21604,7 +21611,7 @@
         <v>269</v>
       </c>
       <c r="G873" s="4" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
     </row>
     <row r="874" spans="2:7">
@@ -21615,7 +21622,7 @@
         <v>1</v>
       </c>
       <c r="G874" s="4" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
     </row>
     <row r="875" spans="2:7">
@@ -21626,7 +21633,7 @@
         <v>269</v>
       </c>
       <c r="G875" s="4" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
     </row>
     <row r="876" spans="2:7">
@@ -21637,7 +21644,7 @@
         <v>1</v>
       </c>
       <c r="G876" s="4" t="s">
-        <v>2160</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="877" spans="2:7">
@@ -21648,7 +21655,7 @@
         <v>269</v>
       </c>
       <c r="G877" s="4" t="s">
-        <v>2160</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="878" spans="2:7">
@@ -21659,7 +21666,7 @@
         <v>1</v>
       </c>
       <c r="G878" s="4" t="s">
-        <v>2160</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="879" spans="2:7">
@@ -21670,7 +21677,7 @@
         <v>269</v>
       </c>
       <c r="G879" s="4" t="s">
-        <v>2160</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="880" spans="2:7">
@@ -21681,7 +21688,7 @@
         <v>1</v>
       </c>
       <c r="G880" s="4" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="881" spans="1:7">
@@ -21692,7 +21699,7 @@
         <v>269</v>
       </c>
       <c r="G881" s="4" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="882" spans="1:7">
@@ -21703,7 +21710,7 @@
         <v>1</v>
       </c>
       <c r="G882" s="4" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="883" spans="1:7">
@@ -21714,7 +21721,7 @@
         <v>269</v>
       </c>
       <c r="G883" s="4" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="884" spans="1:7">
@@ -21725,7 +21732,7 @@
         <v>1</v>
       </c>
       <c r="G884" s="4" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="885" spans="1:7">
@@ -21736,7 +21743,7 @@
         <v>269</v>
       </c>
       <c r="G885" s="4" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="886" spans="1:7">
@@ -21747,7 +21754,7 @@
         <v>1</v>
       </c>
       <c r="G886" s="4" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="887" spans="1:7">
@@ -21758,7 +21765,7 @@
         <v>269</v>
       </c>
       <c r="G887" s="4" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="888" spans="1:7">
@@ -21769,7 +21776,7 @@
         <v>1</v>
       </c>
       <c r="G888" s="4" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
     </row>
     <row r="889" spans="1:7">
@@ -21780,7 +21787,7 @@
         <v>269</v>
       </c>
       <c r="G889" s="4" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
     </row>
     <row r="890" spans="1:7">
@@ -21791,7 +21798,7 @@
         <v>1</v>
       </c>
       <c r="G890" s="4" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
     </row>
     <row r="891" spans="1:7">
@@ -21802,7 +21809,7 @@
         <v>269</v>
       </c>
       <c r="G891" s="4" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
     </row>
     <row r="892" spans="1:7">
@@ -21824,7 +21831,7 @@
         <v>273</v>
       </c>
       <c r="G893" s="4" t="s">
-        <v>2164</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="894" spans="1:7">
@@ -21835,7 +21842,7 @@
         <v>541</v>
       </c>
       <c r="G894" s="4" t="s">
-        <v>2165</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="895" spans="1:7">
@@ -21846,7 +21853,7 @@
         <v>541</v>
       </c>
       <c r="G895" s="4" t="s">
-        <v>2165</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="896" spans="1:7">
@@ -21857,7 +21864,7 @@
         <v>541</v>
       </c>
       <c r="G896" s="4" t="s">
-        <v>2165</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="897" spans="2:7">
@@ -21868,7 +21875,7 @@
         <v>542</v>
       </c>
       <c r="G897" s="4" t="s">
-        <v>2165</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="898" spans="2:7">
@@ -21879,7 +21886,7 @@
         <v>542</v>
       </c>
       <c r="G898" s="4" t="s">
-        <v>2165</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="899" spans="2:7">
@@ -21890,7 +21897,7 @@
         <v>542</v>
       </c>
       <c r="G899" s="4" t="s">
-        <v>2165</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="900" spans="2:7">
@@ -21901,7 +21908,7 @@
         <v>541</v>
       </c>
       <c r="G900" s="4" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="901" spans="2:7">
@@ -21912,7 +21919,7 @@
         <v>541</v>
       </c>
       <c r="G901" s="4" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="902" spans="2:7">
@@ -21923,7 +21930,7 @@
         <v>541</v>
       </c>
       <c r="G902" s="4" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="903" spans="2:7">
@@ -21934,7 +21941,7 @@
         <v>542</v>
       </c>
       <c r="G903" s="4" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="904" spans="2:7">
@@ -21945,7 +21952,7 @@
         <v>542</v>
       </c>
       <c r="G904" s="4" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="905" spans="2:7">
@@ -21956,7 +21963,7 @@
         <v>542</v>
       </c>
       <c r="G905" s="4" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="906" spans="2:7">
@@ -21967,7 +21974,7 @@
         <v>541</v>
       </c>
       <c r="G906" s="4" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
     </row>
     <row r="907" spans="2:7">
@@ -21978,7 +21985,7 @@
         <v>541</v>
       </c>
       <c r="G907" s="4" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
     </row>
     <row r="908" spans="2:7">
@@ -21989,7 +21996,7 @@
         <v>541</v>
       </c>
       <c r="G908" s="4" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
     </row>
     <row r="909" spans="2:7">
@@ -22000,7 +22007,7 @@
         <v>542</v>
       </c>
       <c r="G909" s="4" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
     </row>
     <row r="910" spans="2:7">
@@ -22011,7 +22018,7 @@
         <v>542</v>
       </c>
       <c r="G910" s="4" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
     </row>
     <row r="911" spans="2:7">
@@ -22022,7 +22029,7 @@
         <v>542</v>
       </c>
       <c r="G911" s="4" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
     </row>
     <row r="912" spans="2:7">
@@ -22033,7 +22040,7 @@
         <v>541</v>
       </c>
       <c r="G912" s="4" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="913" spans="2:7">
@@ -22044,7 +22051,7 @@
         <v>541</v>
       </c>
       <c r="G913" s="4" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="914" spans="2:7">
@@ -22055,7 +22062,7 @@
         <v>541</v>
       </c>
       <c r="G914" s="4" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="915" spans="2:7">
@@ -22066,7 +22073,7 @@
         <v>542</v>
       </c>
       <c r="G915" s="4" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="916" spans="2:7">
@@ -22077,7 +22084,7 @@
         <v>542</v>
       </c>
       <c r="G916" s="4" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="917" spans="2:7">
@@ -22088,7 +22095,7 @@
         <v>542</v>
       </c>
       <c r="G917" s="4" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="918" spans="2:7">
@@ -22099,7 +22106,7 @@
         <v>541</v>
       </c>
       <c r="G918" s="4" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="919" spans="2:7">
@@ -22110,7 +22117,7 @@
         <v>541</v>
       </c>
       <c r="G919" s="4" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="920" spans="2:7">
@@ -22121,7 +22128,7 @@
         <v>541</v>
       </c>
       <c r="G920" s="4" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="921" spans="2:7">
@@ -22132,7 +22139,7 @@
         <v>542</v>
       </c>
       <c r="G921" s="4" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="922" spans="2:7">
@@ -22143,7 +22150,7 @@
         <v>542</v>
       </c>
       <c r="G922" s="4" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="923" spans="2:7">
@@ -22154,7 +22161,7 @@
         <v>542</v>
       </c>
       <c r="G923" s="4" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="924" spans="2:7">
@@ -22165,7 +22172,7 @@
         <v>541</v>
       </c>
       <c r="G924" s="4" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
     </row>
     <row r="925" spans="2:7">
@@ -22176,7 +22183,7 @@
         <v>541</v>
       </c>
       <c r="G925" s="4" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
     </row>
     <row r="926" spans="2:7">
@@ -22187,7 +22194,7 @@
         <v>541</v>
       </c>
       <c r="G926" s="4" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
     </row>
     <row r="927" spans="2:7">
@@ -22198,7 +22205,7 @@
         <v>542</v>
       </c>
       <c r="G927" s="4" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
     </row>
     <row r="928" spans="2:7">
@@ -22209,7 +22216,7 @@
         <v>542</v>
       </c>
       <c r="G928" s="4" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
     </row>
     <row r="929" spans="2:7">
@@ -22220,7 +22227,7 @@
         <v>542</v>
       </c>
       <c r="G929" s="4" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
     </row>
     <row r="930" spans="2:7">
@@ -22231,7 +22238,7 @@
         <v>541</v>
       </c>
       <c r="G930" s="4" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="931" spans="2:7">
@@ -22242,7 +22249,7 @@
         <v>541</v>
       </c>
       <c r="G931" s="4" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="932" spans="2:7">
@@ -22253,7 +22260,7 @@
         <v>541</v>
       </c>
       <c r="G932" s="4" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="933" spans="2:7">
@@ -22264,7 +22271,7 @@
         <v>542</v>
       </c>
       <c r="G933" s="4" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="934" spans="2:7">
@@ -22275,7 +22282,7 @@
         <v>542</v>
       </c>
       <c r="G934" s="4" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="935" spans="2:7">
@@ -22286,7 +22293,7 @@
         <v>542</v>
       </c>
       <c r="G935" s="4" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="936" spans="2:7">
@@ -22297,7 +22304,7 @@
         <v>541</v>
       </c>
       <c r="G936" s="4" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="937" spans="2:7">
@@ -22308,7 +22315,7 @@
         <v>541</v>
       </c>
       <c r="G937" s="4" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="938" spans="2:7">
@@ -22319,7 +22326,7 @@
         <v>541</v>
       </c>
       <c r="G938" s="4" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="939" spans="2:7">
@@ -22330,7 +22337,7 @@
         <v>542</v>
       </c>
       <c r="G939" s="4" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="940" spans="2:7">
@@ -22341,7 +22348,7 @@
         <v>542</v>
       </c>
       <c r="G940" s="4" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="941" spans="2:7">
@@ -22352,7 +22359,7 @@
         <v>542</v>
       </c>
       <c r="G941" s="4" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="942" spans="2:7">
@@ -22363,7 +22370,7 @@
         <v>541</v>
       </c>
       <c r="G942" s="4" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="943" spans="2:7">
@@ -22374,7 +22381,7 @@
         <v>541</v>
       </c>
       <c r="G943" s="4" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="944" spans="2:7">
@@ -22385,7 +22392,7 @@
         <v>541</v>
       </c>
       <c r="G944" s="4" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="945" spans="1:7">
@@ -22396,7 +22403,7 @@
         <v>542</v>
       </c>
       <c r="G945" s="4" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="946" spans="1:7">
@@ -22407,7 +22414,7 @@
         <v>542</v>
       </c>
       <c r="G946" s="4" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="947" spans="1:7">
@@ -22418,7 +22425,7 @@
         <v>542</v>
       </c>
       <c r="G947" s="4" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="948" spans="1:7" ht="30">

--- a/modules-local/fast-library/src/OutListParameters.xlsx
+++ b/modules-local/fast-library/src/OutListParameters.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="21390" windowHeight="9570" activeTab="7"/>
+    <workbookView xWindow="120" yWindow="180" windowWidth="15240" windowHeight="7965" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="8" r:id="rId1"/>
@@ -7038,9 +7038,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:B12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7157,9 +7155,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G930"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -22402,7 +22398,7 @@
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" spans="1:7" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
@@ -23013,7 +23009,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G888"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
@@ -37571,7 +37567,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/modules-local/fast-library/src/OutListParameters.xlsx
+++ b/modules-local/fast-library/src/OutListParameters.xlsx
@@ -21,6 +21,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="5">ElastoDyn!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 

--- a/modules-local/fast-library/src/OutListParameters.xlsx
+++ b/modules-local/fast-library/src/OutListParameters.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="180" windowWidth="15240" windowHeight="7965" activeTab="6"/>
+    <workbookView xWindow="120" yWindow="240" windowWidth="15240" windowHeight="7905"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="8" r:id="rId1"/>
@@ -6381,19 +6381,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <condense val="0"/>
@@ -6741,9 +6729,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:F27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6916,7 +6902,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22123,7 +22109,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>

--- a/modules-local/fast-library/src/OutListParameters.xlsx
+++ b/modules-local/fast-library/src/OutListParameters.xlsx
@@ -20,6 +20,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">ElastoDyn!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 

--- a/modules-local/fast-library/src/OutListParameters.xlsx
+++ b/modules-local/fast-library/src/OutListParameters.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="240" windowWidth="15240" windowHeight="7905"/>
+    <workbookView xWindow="120" yWindow="240" windowWidth="15240" windowHeight="7905" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="8" r:id="rId1"/>
@@ -20,12 +20,11 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">ElastoDyn!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4381" uniqueCount="2076">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4406" uniqueCount="2091">
   <si>
     <t>Category</t>
   </si>
@@ -6276,6 +6275,51 @@
   </si>
   <si>
     <t>(WindVxi and uWind will be interchangable names for this channel)</t>
+  </si>
+  <si>
+    <t>Nacelle Tuned Mass Damper (TMD)</t>
+  </si>
+  <si>
+    <t>Nacelle X TMD position (displacement)</t>
+  </si>
+  <si>
+    <t>Nacelle X TMD velocity</t>
+  </si>
+  <si>
+    <t>Nacelle X TMD acceleration</t>
+  </si>
+  <si>
+    <t>Nacelle Y TMD position (displacement)</t>
+  </si>
+  <si>
+    <t>Nacelle Y TMD velocity</t>
+  </si>
+  <si>
+    <t>Nacelle Y TMD acceleration</t>
+  </si>
+  <si>
+    <t>NTMD_XQ</t>
+  </si>
+  <si>
+    <t>NTMD_XQD</t>
+  </si>
+  <si>
+    <t>NTMD_XQD2</t>
+  </si>
+  <si>
+    <t>NTMD_YQ</t>
+  </si>
+  <si>
+    <t>NTMD_YQD</t>
+  </si>
+  <si>
+    <t>NTMD_YQD2</t>
+  </si>
+  <si>
+    <t>Relative to rest position</t>
+  </si>
+  <si>
+    <t>Relative to nacelle</t>
   </si>
 </sst>
 </file>
@@ -6730,7 +6774,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6771,7 +6815,7 @@
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D9">
         <f>COUNTA(ServoDyn!B:B)-1</f>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
         <v>2070</v>
@@ -21332,9 +21376,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17:E19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -21343,7 +21389,7 @@
     <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="52.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="56.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -21513,6 +21559,98 @@
       </c>
       <c r="G12" s="4" t="s">
         <v>518</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>2076</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>2083</v>
+      </c>
+      <c r="D14" t="s">
+        <v>2077</v>
+      </c>
+      <c r="E14" t="s">
+        <v>2089</v>
+      </c>
+      <c r="F14" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>2084</v>
+      </c>
+      <c r="D15" t="s">
+        <v>2078</v>
+      </c>
+      <c r="E15" t="s">
+        <v>2090</v>
+      </c>
+      <c r="F15" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>2085</v>
+      </c>
+      <c r="D16" t="s">
+        <v>2079</v>
+      </c>
+      <c r="E16" t="s">
+        <v>2090</v>
+      </c>
+      <c r="F16" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>2086</v>
+      </c>
+      <c r="D17" t="s">
+        <v>2080</v>
+      </c>
+      <c r="E17" t="s">
+        <v>2089</v>
+      </c>
+      <c r="F17" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>2087</v>
+      </c>
+      <c r="D18" t="s">
+        <v>2081</v>
+      </c>
+      <c r="E18" t="s">
+        <v>2090</v>
+      </c>
+      <c r="F18" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>2088</v>
+      </c>
+      <c r="D19" t="s">
+        <v>2082</v>
+      </c>
+      <c r="E19" t="s">
+        <v>2090</v>
+      </c>
+      <c r="F19" t="s">
+        <v>492</v>
       </c>
     </row>
   </sheetData>

--- a/modules-local/fast-library/src/OutListParameters.xlsx
+++ b/modules-local/fast-library/src/OutListParameters.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4406" uniqueCount="2091">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4398" uniqueCount="2087">
   <si>
     <t>Category</t>
   </si>
@@ -6286,34 +6286,22 @@
     <t>Nacelle X TMD velocity</t>
   </si>
   <si>
-    <t>Nacelle X TMD acceleration</t>
-  </si>
-  <si>
     <t>Nacelle Y TMD position (displacement)</t>
   </si>
   <si>
     <t>Nacelle Y TMD velocity</t>
   </si>
   <si>
-    <t>Nacelle Y TMD acceleration</t>
-  </si>
-  <si>
     <t>NTMD_XQ</t>
   </si>
   <si>
     <t>NTMD_XQD</t>
   </si>
   <si>
-    <t>NTMD_XQD2</t>
-  </si>
-  <si>
     <t>NTMD_YQ</t>
   </si>
   <si>
     <t>NTMD_YQD</t>
-  </si>
-  <si>
-    <t>NTMD_YQD2</t>
   </si>
   <si>
     <t>Relative to rest position</t>
@@ -6815,7 +6803,7 @@
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D9">
         <f>COUNTA(ServoDyn!B:B)-1</f>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
         <v>2070</v>
@@ -21376,10 +21364,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17:E19"/>
+      <selection activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21571,13 +21559,13 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>2083</v>
+        <v>2081</v>
       </c>
       <c r="D14" t="s">
         <v>2077</v>
       </c>
       <c r="E14" t="s">
-        <v>2089</v>
+        <v>2085</v>
       </c>
       <c r="F14" t="s">
         <v>261</v>
@@ -21585,13 +21573,13 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>2084</v>
+        <v>2082</v>
       </c>
       <c r="D15" t="s">
         <v>2078</v>
       </c>
       <c r="E15" t="s">
-        <v>2090</v>
+        <v>2086</v>
       </c>
       <c r="F15" t="s">
         <v>491</v>
@@ -21599,58 +21587,30 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>2085</v>
+        <v>2083</v>
       </c>
       <c r="D16" t="s">
         <v>2079</v>
       </c>
       <c r="E16" t="s">
-        <v>2090</v>
+        <v>2085</v>
       </c>
       <c r="F16" t="s">
-        <v>492</v>
+        <v>261</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>2086</v>
+        <v>2084</v>
       </c>
       <c r="D17" t="s">
         <v>2080</v>
       </c>
       <c r="E17" t="s">
-        <v>2089</v>
+        <v>2086</v>
       </c>
       <c r="F17" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>2087</v>
-      </c>
-      <c r="D18" t="s">
-        <v>2081</v>
-      </c>
-      <c r="E18" t="s">
-        <v>2090</v>
-      </c>
-      <c r="F18" t="s">
         <v>491</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>2088</v>
-      </c>
-      <c r="D19" t="s">
-        <v>2082</v>
-      </c>
-      <c r="E19" t="s">
-        <v>2090</v>
-      </c>
-      <c r="F19" t="s">
-        <v>492</v>
       </c>
     </row>
   </sheetData>

--- a/modules-local/fast-library/src/OutListParameters.xlsx
+++ b/modules-local/fast-library/src/OutListParameters.xlsx
@@ -21367,7 +21367,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD18"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21879,7 +21879,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="49.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/modules-local/fast-library/src/OutListParameters.xlsx
+++ b/modules-local/fast-library/src/OutListParameters.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="240" windowWidth="15240" windowHeight="7905" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="300" windowWidth="15240" windowHeight="7845" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="8" r:id="rId1"/>
@@ -6934,8 +6934,8 @@
   <dimension ref="A1:G888"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A303" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D324" sqref="D324"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21367,7 +21367,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21879,7 +21879,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="49.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/modules-local/fast-library/src/OutListParameters.xlsx
+++ b/modules-local/fast-library/src/OutListParameters.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4398" uniqueCount="2087">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4402" uniqueCount="2088">
   <si>
     <t>Category</t>
   </si>
@@ -6308,6 +6308,9 @@
   </si>
   <si>
     <t>Relative to nacelle</t>
+  </si>
+  <si>
+    <t>.not. p%CompNTMD</t>
   </si>
 </sst>
 </file>
@@ -21367,7 +21370,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="G14" sqref="G14:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21570,6 +21573,9 @@
       <c r="F14" t="s">
         <v>261</v>
       </c>
+      <c r="G14" t="s">
+        <v>2087</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
@@ -21584,6 +21590,9 @@
       <c r="F15" t="s">
         <v>491</v>
       </c>
+      <c r="G15" t="s">
+        <v>2087</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
@@ -21598,8 +21607,11 @@
       <c r="F16" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G16" t="s">
+        <v>2087</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>2084</v>
       </c>
@@ -21611,6 +21623,9 @@
       </c>
       <c r="F17" t="s">
         <v>491</v>
+      </c>
+      <c r="G17" t="s">
+        <v>2087</v>
       </c>
     </row>
   </sheetData>

--- a/modules-local/fast-library/src/OutListParameters.xlsx
+++ b/modules-local/fast-library/src/OutListParameters.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="300" windowWidth="15240" windowHeight="7845" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="300" windowWidth="15240" windowHeight="7845"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="8" r:id="rId1"/>
@@ -6765,7 +6765,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:F27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6937,8 +6937,8 @@
   <dimension ref="A1:G888"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A303" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D324" sqref="D324"/>
+      <pane ySplit="1" topLeftCell="A723" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B734" sqref="B734"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21369,8 +21369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14:G17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/modules-local/fast-library/src/OutListParameters.xlsx
+++ b/modules-local/fast-library/src/OutListParameters.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4406" uniqueCount="2090">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4407" uniqueCount="2091">
   <si>
     <t>Category</t>
   </si>
@@ -6317,6 +6317,9 @@
   </si>
   <si>
     <t>High-speed shaft brake torque (i.e., the actual moment applied to the high-speed shaft by the brake)</t>
+  </si>
+  <si>
+    <t>p%method == method_RK4</t>
   </si>
 </sst>
 </file>
@@ -6880,7 +6883,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>996</v>
       </c>
@@ -6943,8 +6946,8 @@
   <dimension ref="A1:G889"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A727" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G736" sqref="G736"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7145,7 +7148,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B13" s="4" t="s">
         <v>419</v>
       </c>
@@ -7165,7 +7168,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B14" s="4" t="s">
         <v>430</v>
       </c>
@@ -7182,7 +7185,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>452</v>
       </c>
@@ -7190,7 +7193,7 @@
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
     </row>
-    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B16" s="4" t="s">
         <v>376</v>
       </c>
@@ -7207,7 +7210,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B17" s="4" t="s">
         <v>357</v>
       </c>
@@ -7224,7 +7227,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B18" s="4" t="s">
         <v>417</v>
       </c>
@@ -7241,7 +7244,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B19" s="4" t="s">
         <v>265</v>
       </c>
@@ -7255,7 +7258,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B20" s="4" t="s">
         <v>268</v>
       </c>
@@ -7269,7 +7272,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B21" s="4" t="s">
         <v>250</v>
       </c>
@@ -7283,7 +7286,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B22" s="4" t="s">
         <v>253</v>
       </c>
@@ -7297,7 +7300,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B23" s="4" t="s">
         <v>256</v>
       </c>
@@ -7311,7 +7314,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="B24" s="4" t="s">
         <v>391</v>
       </c>
@@ -7328,7 +7331,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="B25" s="4" t="s">
         <v>379</v>
       </c>
@@ -7348,7 +7351,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
       <c r="B26" s="4" t="s">
         <v>420</v>
       </c>
@@ -7368,7 +7371,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B27" s="4" t="s">
         <v>431</v>
       </c>
@@ -7388,7 +7391,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>454</v>
       </c>
@@ -7396,7 +7399,7 @@
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
     </row>
-    <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B29" s="4" t="s">
         <v>377</v>
       </c>
@@ -7416,7 +7419,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B30" s="4" t="s">
         <v>358</v>
       </c>
@@ -7436,7 +7439,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B31" s="4" t="s">
         <v>418</v>
       </c>
@@ -7456,7 +7459,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B32" s="4" t="s">
         <v>266</v>
       </c>
@@ -7473,7 +7476,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B33" s="4" t="s">
         <v>269</v>
       </c>
@@ -7490,7 +7493,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B34" s="4" t="s">
         <v>251</v>
       </c>
@@ -7507,7 +7510,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B35" s="4" t="s">
         <v>254</v>
       </c>
@@ -7524,7 +7527,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B36" s="4" t="s">
         <v>263</v>
       </c>
@@ -7541,7 +7544,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="B37" s="4" t="s">
         <v>392</v>
       </c>
@@ -7561,7 +7564,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="B38" s="4" t="s">
         <v>380</v>
       </c>
@@ -7581,7 +7584,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B39" s="4" t="s">
         <v>421</v>
       </c>
@@ -7601,7 +7604,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B40" s="4" t="s">
         <v>432</v>
       </c>
@@ -7621,7 +7624,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="41" spans="1:7" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>442</v>
       </c>
@@ -7629,7 +7632,7 @@
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
     </row>
-    <row r="42" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B42" s="4" t="s">
         <v>78</v>
       </c>
@@ -7646,7 +7649,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B43" s="4" t="s">
         <v>81</v>
       </c>
@@ -7663,7 +7666,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B44" s="4" t="s">
         <v>84</v>
       </c>
@@ -7680,7 +7683,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B45" s="4" t="s">
         <v>96</v>
       </c>
@@ -7697,7 +7700,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B46" s="4" t="s">
         <v>99</v>
       </c>
@@ -7714,7 +7717,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B47" s="4" t="s">
         <v>102</v>
       </c>
@@ -7731,7 +7734,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B48" s="4" t="s">
         <v>114</v>
       </c>
@@ -7748,7 +7751,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="49" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B49" s="4" t="s">
         <v>117</v>
       </c>
@@ -7765,7 +7768,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="50" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B50" s="4" t="s">
         <v>120</v>
       </c>
@@ -7782,7 +7785,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="51" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B51" s="4" t="s">
         <v>132</v>
       </c>
@@ -7799,7 +7802,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="52" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B52" s="4" t="s">
         <v>135</v>
       </c>
@@ -7816,7 +7819,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="53" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B53" s="4" t="s">
         <v>138</v>
       </c>
@@ -7833,7 +7836,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="54" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B54" s="4" t="s">
         <v>150</v>
       </c>
@@ -7850,7 +7853,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="55" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B55" s="4" t="s">
         <v>153</v>
       </c>
@@ -7867,7 +7870,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="56" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B56" s="4" t="s">
         <v>156</v>
       </c>
@@ -7884,7 +7887,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="57" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B57" s="4" t="s">
         <v>168</v>
       </c>
@@ -7901,7 +7904,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="58" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B58" s="4" t="s">
         <v>171</v>
       </c>
@@ -7918,7 +7921,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="59" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B59" s="4" t="s">
         <v>174</v>
       </c>
@@ -7935,7 +7938,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="60" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B60" s="4" t="s">
         <v>186</v>
       </c>
@@ -7952,7 +7955,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="61" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B61" s="4" t="s">
         <v>189</v>
       </c>
@@ -7969,7 +7972,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="62" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B62" s="4" t="s">
         <v>192</v>
       </c>
@@ -7986,7 +7989,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="63" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B63" s="4" t="s">
         <v>204</v>
       </c>
@@ -8003,7 +8006,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="64" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B64" s="4" t="s">
         <v>207</v>
       </c>
@@ -8020,7 +8023,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="65" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B65" s="4" t="s">
         <v>210</v>
       </c>
@@ -8037,7 +8040,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="66" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B66" s="4" t="s">
         <v>222</v>
       </c>
@@ -8054,7 +8057,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="67" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B67" s="4" t="s">
         <v>225</v>
       </c>
@@ -8071,7 +8074,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="68" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B68" s="4" t="s">
         <v>228</v>
       </c>
@@ -8088,7 +8091,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="69" spans="2:7" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:7" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B69" s="8" t="s">
         <v>1414</v>
       </c>
@@ -8106,7 +8109,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="70" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B70" s="4" t="s">
         <v>1572</v>
       </c>
@@ -8123,7 +8126,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="71" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B71" s="4" t="s">
         <v>1573</v>
       </c>
@@ -8140,7 +8143,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="72" spans="2:7" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:7" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B72" s="8" t="s">
         <v>1574</v>
       </c>
@@ -8158,7 +8161,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="73" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B73" s="4" t="s">
         <v>1575</v>
       </c>
@@ -8175,7 +8178,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="74" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B74" s="4" t="s">
         <v>1576</v>
       </c>
@@ -8192,7 +8195,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="75" spans="2:7" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:7" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B75" s="8" t="s">
         <v>1577</v>
       </c>
@@ -8210,7 +8213,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="76" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B76" s="4" t="s">
         <v>1578</v>
       </c>
@@ -8227,7 +8230,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="77" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B77" s="4" t="s">
         <v>1579</v>
       </c>
@@ -8244,7 +8247,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="78" spans="2:7" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:7" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B78" s="8" t="s">
         <v>1580</v>
       </c>
@@ -8262,7 +8265,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="79" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B79" s="4" t="s">
         <v>1581</v>
       </c>
@@ -8279,7 +8282,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="80" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B80" s="4" t="s">
         <v>1582</v>
       </c>
@@ -8296,7 +8299,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="81" spans="2:7" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:7" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B81" s="8" t="s">
         <v>1583</v>
       </c>
@@ -8314,7 +8317,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="82" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B82" s="4" t="s">
         <v>1584</v>
       </c>
@@ -8331,7 +8334,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="83" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B83" s="4" t="s">
         <v>1585</v>
       </c>
@@ -8348,7 +8351,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="84" spans="2:7" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:7" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B84" s="8" t="s">
         <v>1586</v>
       </c>
@@ -8366,7 +8369,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="85" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B85" s="4" t="s">
         <v>1587</v>
       </c>
@@ -8383,7 +8386,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="86" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B86" s="4" t="s">
         <v>1588</v>
       </c>
@@ -8400,7 +8403,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="87" spans="2:7" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:7" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B87" s="8" t="s">
         <v>1591</v>
       </c>
@@ -8418,7 +8421,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="88" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B88" s="4" t="s">
         <v>1589</v>
       </c>
@@ -8435,7 +8438,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="89" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B89" s="4" t="s">
         <v>1590</v>
       </c>
@@ -8452,7 +8455,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="90" spans="2:7" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:7" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B90" s="8" t="s">
         <v>1592</v>
       </c>
@@ -8470,7 +8473,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="91" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B91" s="4" t="s">
         <v>1593</v>
       </c>
@@ -8487,7 +8490,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="92" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B92" s="4" t="s">
         <v>1594</v>
       </c>
@@ -8504,7 +8507,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="93" spans="2:7" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:7" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B93" s="8" t="s">
         <v>1595</v>
       </c>
@@ -8522,7 +8525,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="94" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B94" s="4" t="s">
         <v>1596</v>
       </c>
@@ -8539,7 +8542,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="95" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B95" s="4" t="s">
         <v>1597</v>
       </c>
@@ -8556,7 +8559,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="96" spans="2:7" s="8" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:7" s="8" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="B96" s="8" t="s">
         <v>1625</v>
       </c>
@@ -8574,7 +8577,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="97" spans="2:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:7" ht="72" x14ac:dyDescent="0.3">
       <c r="B97" s="4" t="s">
         <v>1626</v>
       </c>
@@ -8591,7 +8594,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="98" spans="2:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:7" ht="115.2" x14ac:dyDescent="0.3">
       <c r="B98" s="4" t="s">
         <v>1627</v>
       </c>
@@ -8608,7 +8611,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="99" spans="2:7" s="8" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:7" s="8" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="B99" s="8" t="s">
         <v>1628</v>
       </c>
@@ -8626,7 +8629,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="100" spans="2:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:7" ht="72" x14ac:dyDescent="0.3">
       <c r="B100" s="4" t="s">
         <v>1629</v>
       </c>
@@ -8643,7 +8646,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="101" spans="2:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:7" ht="115.2" x14ac:dyDescent="0.3">
       <c r="B101" s="4" t="s">
         <v>1630</v>
       </c>
@@ -8660,7 +8663,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="102" spans="2:7" s="8" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:7" s="8" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="B102" s="8" t="s">
         <v>1631</v>
       </c>
@@ -8678,7 +8681,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="103" spans="2:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:7" ht="72" x14ac:dyDescent="0.3">
       <c r="B103" s="4" t="s">
         <v>1632</v>
       </c>
@@ -8695,7 +8698,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="104" spans="2:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:7" ht="115.2" x14ac:dyDescent="0.3">
       <c r="B104" s="4" t="s">
         <v>1633</v>
       </c>
@@ -8712,7 +8715,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="105" spans="2:7" s="8" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:7" s="8" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="B105" s="8" t="s">
         <v>1634</v>
       </c>
@@ -8730,7 +8733,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="106" spans="2:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:7" ht="72" x14ac:dyDescent="0.3">
       <c r="B106" s="4" t="s">
         <v>1635</v>
       </c>
@@ -8747,7 +8750,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="107" spans="2:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:7" ht="115.2" x14ac:dyDescent="0.3">
       <c r="B107" s="4" t="s">
         <v>1636</v>
       </c>
@@ -8764,7 +8767,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="108" spans="2:7" s="8" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:7" s="8" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="B108" s="8" t="s">
         <v>1637</v>
       </c>
@@ -8782,7 +8785,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="109" spans="2:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:7" ht="72" x14ac:dyDescent="0.3">
       <c r="B109" s="4" t="s">
         <v>1638</v>
       </c>
@@ -8799,7 +8802,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="110" spans="2:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:7" ht="115.2" x14ac:dyDescent="0.3">
       <c r="B110" s="4" t="s">
         <v>1639</v>
       </c>
@@ -8816,7 +8819,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="111" spans="2:7" s="8" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:7" s="8" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="B111" s="8" t="s">
         <v>1640</v>
       </c>
@@ -8834,7 +8837,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="112" spans="2:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:7" ht="72" x14ac:dyDescent="0.3">
       <c r="B112" s="4" t="s">
         <v>1641</v>
       </c>
@@ -8851,7 +8854,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
       <c r="B113" s="4" t="s">
         <v>1642</v>
       </c>
@@ -8868,7 +8871,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="114" spans="1:7" s="8" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" s="8" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="B114" s="8" t="s">
         <v>1643</v>
       </c>
@@ -8886,7 +8889,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="B115" s="4" t="s">
         <v>1644</v>
       </c>
@@ -8903,7 +8906,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
       <c r="B116" s="4" t="s">
         <v>1645</v>
       </c>
@@ -8920,7 +8923,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="117" spans="1:7" s="8" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" s="8" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="B117" s="8" t="s">
         <v>1646</v>
       </c>
@@ -8938,7 +8941,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="B118" s="4" t="s">
         <v>1647</v>
       </c>
@@ -8955,7 +8958,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="119" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
       <c r="B119" s="4" t="s">
         <v>1648</v>
       </c>
@@ -8972,7 +8975,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="120" spans="1:7" s="8" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" s="8" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="B120" s="8" t="s">
         <v>1649</v>
       </c>
@@ -8990,7 +8993,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="B121" s="4" t="s">
         <v>1650</v>
       </c>
@@ -9007,7 +9010,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="122" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
       <c r="B122" s="4" t="s">
         <v>1651</v>
       </c>
@@ -9024,7 +9027,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="123" spans="1:7" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
         <v>453</v>
       </c>
@@ -9032,7 +9035,7 @@
       <c r="D123" s="6"/>
       <c r="E123" s="6"/>
     </row>
-    <row r="124" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B124" s="4" t="s">
         <v>79</v>
       </c>
@@ -9049,7 +9052,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="125" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B125" s="4" t="s">
         <v>82</v>
       </c>
@@ -9066,7 +9069,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="126" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B126" s="4" t="s">
         <v>85</v>
       </c>
@@ -9083,7 +9086,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="127" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B127" s="4" t="s">
         <v>97</v>
       </c>
@@ -9100,7 +9103,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="128" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B128" s="4" t="s">
         <v>100</v>
       </c>
@@ -9117,7 +9120,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="129" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B129" s="4" t="s">
         <v>103</v>
       </c>
@@ -9134,7 +9137,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="130" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B130" s="4" t="s">
         <v>115</v>
       </c>
@@ -9151,7 +9154,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="131" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B131" s="4" t="s">
         <v>118</v>
       </c>
@@ -9168,7 +9171,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="132" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B132" s="4" t="s">
         <v>121</v>
       </c>
@@ -9185,7 +9188,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="133" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B133" s="4" t="s">
         <v>133</v>
       </c>
@@ -9202,7 +9205,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="134" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B134" s="4" t="s">
         <v>136</v>
       </c>
@@ -9219,7 +9222,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="135" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B135" s="4" t="s">
         <v>139</v>
       </c>
@@ -9236,7 +9239,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="136" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B136" s="4" t="s">
         <v>151</v>
       </c>
@@ -9253,7 +9256,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="137" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B137" s="4" t="s">
         <v>154</v>
       </c>
@@ -9270,7 +9273,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="138" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B138" s="4" t="s">
         <v>157</v>
       </c>
@@ -9287,7 +9290,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="139" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B139" s="4" t="s">
         <v>169</v>
       </c>
@@ -9304,7 +9307,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="140" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B140" s="4" t="s">
         <v>172</v>
       </c>
@@ -9321,7 +9324,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="141" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B141" s="4" t="s">
         <v>175</v>
       </c>
@@ -9338,7 +9341,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="142" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B142" s="4" t="s">
         <v>187</v>
       </c>
@@ -9355,7 +9358,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="143" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B143" s="4" t="s">
         <v>190</v>
       </c>
@@ -9372,7 +9375,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="144" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B144" s="4" t="s">
         <v>193</v>
       </c>
@@ -9389,7 +9392,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="145" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B145" s="4" t="s">
         <v>205</v>
       </c>
@@ -9406,7 +9409,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="146" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B146" s="4" t="s">
         <v>208</v>
       </c>
@@ -9423,7 +9426,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="147" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B147" s="4" t="s">
         <v>211</v>
       </c>
@@ -9440,7 +9443,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="148" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B148" s="4" t="s">
         <v>223</v>
       </c>
@@ -9457,7 +9460,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="149" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B149" s="4" t="s">
         <v>226</v>
       </c>
@@ -9474,7 +9477,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="150" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B150" s="4" t="s">
         <v>229</v>
       </c>
@@ -9491,7 +9494,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="151" spans="2:7" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:7" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B151" s="8" t="s">
         <v>1822</v>
       </c>
@@ -9509,7 +9512,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="152" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B152" s="4" t="s">
         <v>1823</v>
       </c>
@@ -9526,7 +9529,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="153" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B153" s="4" t="s">
         <v>1824</v>
       </c>
@@ -9543,7 +9546,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="154" spans="2:7" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:7" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B154" s="8" t="s">
         <v>1825</v>
       </c>
@@ -9561,7 +9564,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="155" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B155" s="4" t="s">
         <v>1826</v>
       </c>
@@ -9578,7 +9581,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="156" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B156" s="4" t="s">
         <v>1827</v>
       </c>
@@ -9595,7 +9598,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="157" spans="2:7" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:7" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B157" s="8" t="s">
         <v>1828</v>
       </c>
@@ -9613,7 +9616,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="158" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B158" s="4" t="s">
         <v>1829</v>
       </c>
@@ -9630,7 +9633,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="159" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B159" s="4" t="s">
         <v>1830</v>
       </c>
@@ -9647,7 +9650,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="160" spans="2:7" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:7" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B160" s="8" t="s">
         <v>1831</v>
       </c>
@@ -9665,7 +9668,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="161" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B161" s="4" t="s">
         <v>1832</v>
       </c>
@@ -9682,7 +9685,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="162" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B162" s="4" t="s">
         <v>1833</v>
       </c>
@@ -9699,7 +9702,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="163" spans="2:7" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:7" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B163" s="8" t="s">
         <v>1834</v>
       </c>
@@ -9717,7 +9720,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="164" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B164" s="4" t="s">
         <v>1835</v>
       </c>
@@ -9734,7 +9737,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="165" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B165" s="4" t="s">
         <v>1836</v>
       </c>
@@ -9751,7 +9754,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="166" spans="2:7" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:7" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B166" s="8" t="s">
         <v>1837</v>
       </c>
@@ -9769,7 +9772,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="167" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B167" s="4" t="s">
         <v>1838</v>
       </c>
@@ -9786,7 +9789,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="168" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B168" s="4" t="s">
         <v>1839</v>
       </c>
@@ -9803,7 +9806,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="169" spans="2:7" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:7" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B169" s="8" t="s">
         <v>1840</v>
       </c>
@@ -9821,7 +9824,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="170" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B170" s="4" t="s">
         <v>1841</v>
       </c>
@@ -9838,7 +9841,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="171" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B171" s="4" t="s">
         <v>1842</v>
       </c>
@@ -9855,7 +9858,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="172" spans="2:7" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:7" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B172" s="8" t="s">
         <v>1843</v>
       </c>
@@ -9873,7 +9876,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="173" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B173" s="4" t="s">
         <v>1844</v>
       </c>
@@ -9890,7 +9893,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="174" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B174" s="4" t="s">
         <v>1845</v>
       </c>
@@ -9907,7 +9910,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="175" spans="2:7" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:7" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B175" s="8" t="s">
         <v>1846</v>
       </c>
@@ -9925,7 +9928,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="176" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B176" s="4" t="s">
         <v>1847</v>
       </c>
@@ -9942,7 +9945,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="177" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B177" s="4" t="s">
         <v>1848</v>
       </c>
@@ -9959,7 +9962,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="178" spans="2:7" s="8" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:7" s="8" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="B178" s="8" t="s">
         <v>1849</v>
       </c>
@@ -9977,7 +9980,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="179" spans="2:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:7" ht="72" x14ac:dyDescent="0.3">
       <c r="B179" s="4" t="s">
         <v>1850</v>
       </c>
@@ -9994,7 +9997,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="180" spans="2:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:7" ht="115.2" x14ac:dyDescent="0.3">
       <c r="B180" s="4" t="s">
         <v>1851</v>
       </c>
@@ -10011,7 +10014,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="181" spans="2:7" s="8" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:7" s="8" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="B181" s="8" t="s">
         <v>1852</v>
       </c>
@@ -10029,7 +10032,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="182" spans="2:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:7" ht="72" x14ac:dyDescent="0.3">
       <c r="B182" s="4" t="s">
         <v>1853</v>
       </c>
@@ -10046,7 +10049,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="183" spans="2:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:7" ht="115.2" x14ac:dyDescent="0.3">
       <c r="B183" s="4" t="s">
         <v>1854</v>
       </c>
@@ -10063,7 +10066,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="184" spans="2:7" s="8" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:7" s="8" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="B184" s="8" t="s">
         <v>1855</v>
       </c>
@@ -10081,7 +10084,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="185" spans="2:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:7" ht="72" x14ac:dyDescent="0.3">
       <c r="B185" s="4" t="s">
         <v>1856</v>
       </c>
@@ -10098,7 +10101,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="186" spans="2:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:7" ht="115.2" x14ac:dyDescent="0.3">
       <c r="B186" s="4" t="s">
         <v>1857</v>
       </c>
@@ -10115,7 +10118,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="187" spans="2:7" s="8" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:7" s="8" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="B187" s="8" t="s">
         <v>1858</v>
       </c>
@@ -10133,7 +10136,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="188" spans="2:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:7" ht="72" x14ac:dyDescent="0.3">
       <c r="B188" s="4" t="s">
         <v>1859</v>
       </c>
@@ -10150,7 +10153,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="189" spans="2:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:7" ht="115.2" x14ac:dyDescent="0.3">
       <c r="B189" s="4" t="s">
         <v>1860</v>
       </c>
@@ -10167,7 +10170,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="190" spans="2:7" s="8" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:7" s="8" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="B190" s="8" t="s">
         <v>1861</v>
       </c>
@@ -10185,7 +10188,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="191" spans="2:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:7" ht="72" x14ac:dyDescent="0.3">
       <c r="B191" s="4" t="s">
         <v>1862</v>
       </c>
@@ -10202,7 +10205,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="192" spans="2:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:7" ht="115.2" x14ac:dyDescent="0.3">
       <c r="B192" s="4" t="s">
         <v>1863</v>
       </c>
@@ -10219,7 +10222,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="193" spans="1:7" s="8" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" s="8" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="B193" s="8" t="s">
         <v>1864</v>
       </c>
@@ -10237,7 +10240,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="194" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="B194" s="4" t="s">
         <v>1865</v>
       </c>
@@ -10254,7 +10257,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="195" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
       <c r="B195" s="4" t="s">
         <v>1866</v>
       </c>
@@ -10271,7 +10274,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="196" spans="1:7" s="8" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" s="8" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="B196" s="8" t="s">
         <v>1867</v>
       </c>
@@ -10289,7 +10292,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="197" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="B197" s="4" t="s">
         <v>1868</v>
       </c>
@@ -10306,7 +10309,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="198" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
       <c r="B198" s="4" t="s">
         <v>1869</v>
       </c>
@@ -10323,7 +10326,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="199" spans="1:7" s="8" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" s="8" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="B199" s="8" t="s">
         <v>1870</v>
       </c>
@@ -10341,7 +10344,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="200" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="B200" s="4" t="s">
         <v>1871</v>
       </c>
@@ -10358,7 +10361,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="201" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
       <c r="B201" s="4" t="s">
         <v>1872</v>
       </c>
@@ -10375,7 +10378,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="202" spans="1:7" s="8" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" s="8" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="B202" s="8" t="s">
         <v>1873</v>
       </c>
@@ -10393,7 +10396,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="203" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="B203" s="4" t="s">
         <v>1874</v>
       </c>
@@ -10410,7 +10413,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="204" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
       <c r="B204" s="4" t="s">
         <v>1875</v>
       </c>
@@ -10427,7 +10430,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="205" spans="1:7" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A205" s="3" t="s">
         <v>455</v>
       </c>
@@ -10435,7 +10438,7 @@
       <c r="D205" s="6"/>
       <c r="E205" s="6"/>
     </row>
-    <row r="206" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B206" s="4" t="s">
         <v>80</v>
       </c>
@@ -10452,7 +10455,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="207" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B207" s="4" t="s">
         <v>83</v>
       </c>
@@ -10469,7 +10472,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="208" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B208" s="4" t="s">
         <v>86</v>
       </c>
@@ -10486,7 +10489,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="209" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B209" s="4" t="s">
         <v>98</v>
       </c>
@@ -10503,7 +10506,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="210" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B210" s="4" t="s">
         <v>101</v>
       </c>
@@ -10520,7 +10523,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="211" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B211" s="4" t="s">
         <v>104</v>
       </c>
@@ -10537,7 +10540,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="212" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B212" s="4" t="s">
         <v>116</v>
       </c>
@@ -10554,7 +10557,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="213" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B213" s="4" t="s">
         <v>119</v>
       </c>
@@ -10571,7 +10574,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="214" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B214" s="4" t="s">
         <v>122</v>
       </c>
@@ -10588,7 +10591,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="215" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B215" s="4" t="s">
         <v>134</v>
       </c>
@@ -10605,7 +10608,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="216" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B216" s="4" t="s">
         <v>137</v>
       </c>
@@ -10622,7 +10625,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="217" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B217" s="4" t="s">
         <v>140</v>
       </c>
@@ -10639,7 +10642,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="218" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B218" s="4" t="s">
         <v>152</v>
       </c>
@@ -10656,7 +10659,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="219" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B219" s="4" t="s">
         <v>155</v>
       </c>
@@ -10673,7 +10676,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="220" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B220" s="4" t="s">
         <v>158</v>
       </c>
@@ -10690,7 +10693,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="221" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B221" s="4" t="s">
         <v>170</v>
       </c>
@@ -10707,7 +10710,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="222" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B222" s="4" t="s">
         <v>173</v>
       </c>
@@ -10724,7 +10727,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="223" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B223" s="4" t="s">
         <v>176</v>
       </c>
@@ -10741,7 +10744,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="224" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B224" s="4" t="s">
         <v>188</v>
       </c>
@@ -10758,7 +10761,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="225" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B225" s="4" t="s">
         <v>191</v>
       </c>
@@ -10775,7 +10778,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="226" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B226" s="4" t="s">
         <v>194</v>
       </c>
@@ -10792,7 +10795,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="227" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B227" s="4" t="s">
         <v>206</v>
       </c>
@@ -10809,7 +10812,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="228" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B228" s="4" t="s">
         <v>209</v>
       </c>
@@ -10826,7 +10829,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="229" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B229" s="4" t="s">
         <v>212</v>
       </c>
@@ -10843,7 +10846,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="230" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B230" s="4" t="s">
         <v>224</v>
       </c>
@@ -10860,7 +10863,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="231" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B231" s="4" t="s">
         <v>227</v>
       </c>
@@ -10877,7 +10880,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="232" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B232" s="4" t="s">
         <v>230</v>
       </c>
@@ -10894,7 +10897,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="233" spans="2:7" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:7" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B233" s="8" t="s">
         <v>1714</v>
       </c>
@@ -10912,7 +10915,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="234" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B234" s="4" t="s">
         <v>1715</v>
       </c>
@@ -10929,7 +10932,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="235" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B235" s="4" t="s">
         <v>1716</v>
       </c>
@@ -10946,7 +10949,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="236" spans="2:7" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:7" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B236" s="8" t="s">
         <v>1717</v>
       </c>
@@ -10964,7 +10967,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="237" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B237" s="4" t="s">
         <v>1718</v>
       </c>
@@ -10981,7 +10984,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="238" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B238" s="4" t="s">
         <v>1719</v>
       </c>
@@ -10998,7 +11001,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="239" spans="2:7" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:7" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B239" s="8" t="s">
         <v>1720</v>
       </c>
@@ -11016,7 +11019,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="240" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B240" s="4" t="s">
         <v>1721</v>
       </c>
@@ -11033,7 +11036,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="241" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B241" s="4" t="s">
         <v>1722</v>
       </c>
@@ -11050,7 +11053,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="242" spans="2:7" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:7" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B242" s="8" t="s">
         <v>1723</v>
       </c>
@@ -11068,7 +11071,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="243" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B243" s="4" t="s">
         <v>1724</v>
       </c>
@@ -11085,7 +11088,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="244" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B244" s="4" t="s">
         <v>1725</v>
       </c>
@@ -11102,7 +11105,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="245" spans="2:7" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:7" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B245" s="8" t="s">
         <v>1726</v>
       </c>
@@ -11120,7 +11123,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="246" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B246" s="4" t="s">
         <v>1727</v>
       </c>
@@ -11137,7 +11140,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="247" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B247" s="4" t="s">
         <v>1728</v>
       </c>
@@ -11154,7 +11157,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="248" spans="2:7" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:7" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B248" s="8" t="s">
         <v>1729</v>
       </c>
@@ -11172,7 +11175,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="249" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B249" s="4" t="s">
         <v>1730</v>
       </c>
@@ -11189,7 +11192,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="250" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B250" s="4" t="s">
         <v>1731</v>
       </c>
@@ -11206,7 +11209,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="251" spans="2:7" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:7" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B251" s="8" t="s">
         <v>1732</v>
       </c>
@@ -11224,7 +11227,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="252" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B252" s="4" t="s">
         <v>1733</v>
       </c>
@@ -11241,7 +11244,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="253" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B253" s="4" t="s">
         <v>1734</v>
       </c>
@@ -11258,7 +11261,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="254" spans="2:7" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:7" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B254" s="8" t="s">
         <v>1735</v>
       </c>
@@ -11276,7 +11279,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="255" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B255" s="4" t="s">
         <v>1736</v>
       </c>
@@ -11293,7 +11296,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="256" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B256" s="4" t="s">
         <v>1737</v>
       </c>
@@ -11310,7 +11313,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="257" spans="2:7" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:7" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B257" s="8" t="s">
         <v>1738</v>
       </c>
@@ -11328,7 +11331,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="258" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B258" s="4" t="s">
         <v>1739</v>
       </c>
@@ -11345,7 +11348,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="259" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B259" s="4" t="s">
         <v>1740</v>
       </c>
@@ -11362,7 +11365,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="260" spans="2:7" s="8" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:7" s="8" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="B260" s="8" t="s">
         <v>1741</v>
       </c>
@@ -11380,7 +11383,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="261" spans="2:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:7" ht="72" x14ac:dyDescent="0.3">
       <c r="B261" s="4" t="s">
         <v>1742</v>
       </c>
@@ -11397,7 +11400,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="262" spans="2:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:7" ht="115.2" x14ac:dyDescent="0.3">
       <c r="B262" s="4" t="s">
         <v>1743</v>
       </c>
@@ -11414,7 +11417,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="263" spans="2:7" s="8" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:7" s="8" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="B263" s="8" t="s">
         <v>1744</v>
       </c>
@@ -11432,7 +11435,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="264" spans="2:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:7" ht="72" x14ac:dyDescent="0.3">
       <c r="B264" s="4" t="s">
         <v>1745</v>
       </c>
@@ -11449,7 +11452,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="265" spans="2:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:7" ht="115.2" x14ac:dyDescent="0.3">
       <c r="B265" s="4" t="s">
         <v>1746</v>
       </c>
@@ -11466,7 +11469,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="266" spans="2:7" s="8" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:7" s="8" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="B266" s="8" t="s">
         <v>1747</v>
       </c>
@@ -11484,7 +11487,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="267" spans="2:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:7" ht="72" x14ac:dyDescent="0.3">
       <c r="B267" s="4" t="s">
         <v>1748</v>
       </c>
@@ -11501,7 +11504,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="268" spans="2:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:7" ht="115.2" x14ac:dyDescent="0.3">
       <c r="B268" s="4" t="s">
         <v>1749</v>
       </c>
@@ -11518,7 +11521,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="269" spans="2:7" s="8" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:7" s="8" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="B269" s="8" t="s">
         <v>1750</v>
       </c>
@@ -11536,7 +11539,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="270" spans="2:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:7" ht="72" x14ac:dyDescent="0.3">
       <c r="B270" s="4" t="s">
         <v>1751</v>
       </c>
@@ -11553,7 +11556,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="271" spans="2:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:7" ht="115.2" x14ac:dyDescent="0.3">
       <c r="B271" s="4" t="s">
         <v>1752</v>
       </c>
@@ -11570,7 +11573,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="272" spans="2:7" s="8" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:7" s="8" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="B272" s="8" t="s">
         <v>1753</v>
       </c>
@@ -11588,7 +11591,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="273" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="B273" s="4" t="s">
         <v>1754</v>
       </c>
@@ -11605,7 +11608,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="274" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
       <c r="B274" s="4" t="s">
         <v>1755</v>
       </c>
@@ -11622,7 +11625,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="275" spans="1:7" s="8" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7" s="8" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="B275" s="8" t="s">
         <v>1756</v>
       </c>
@@ -11640,7 +11643,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="276" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="B276" s="4" t="s">
         <v>1757</v>
       </c>
@@ -11657,7 +11660,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="277" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
       <c r="B277" s="4" t="s">
         <v>1758</v>
       </c>
@@ -11674,7 +11677,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="278" spans="1:7" s="8" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7" s="8" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="B278" s="8" t="s">
         <v>1759</v>
       </c>
@@ -11692,7 +11695,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="279" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="B279" s="4" t="s">
         <v>1760</v>
       </c>
@@ -11709,7 +11712,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="280" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
       <c r="B280" s="4" t="s">
         <v>1761</v>
       </c>
@@ -11726,7 +11729,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="281" spans="1:7" s="8" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7" s="8" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="B281" s="8" t="s">
         <v>1762</v>
       </c>
@@ -11744,7 +11747,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="282" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="B282" s="4" t="s">
         <v>1763</v>
       </c>
@@ -11761,7 +11764,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="283" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
       <c r="B283" s="4" t="s">
         <v>1764</v>
       </c>
@@ -11778,7 +11781,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="284" spans="1:7" s="8" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7" s="8" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="B284" s="8" t="s">
         <v>1765</v>
       </c>
@@ -11796,7 +11799,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="285" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="B285" s="4" t="s">
         <v>1766</v>
       </c>
@@ -11813,7 +11816,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="286" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
       <c r="B286" s="4" t="s">
         <v>1767</v>
       </c>
@@ -11830,7 +11833,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="287" spans="1:7" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A287" s="3" t="s">
         <v>457</v>
       </c>
@@ -11838,7 +11841,7 @@
       <c r="D287" s="6"/>
       <c r="E287" s="6"/>
     </row>
-    <row r="288" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B288" s="4" t="s">
         <v>381</v>
       </c>
@@ -11855,7 +11858,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="289" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B289" s="4" t="s">
         <v>382</v>
       </c>
@@ -11872,7 +11875,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="290" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B290" s="4" t="s">
         <v>383</v>
       </c>
@@ -11892,7 +11895,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="291" spans="1:7" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A291" s="3" t="s">
         <v>458</v>
       </c>
@@ -11900,7 +11903,7 @@
       <c r="D291" s="6"/>
       <c r="E291" s="6"/>
     </row>
-    <row r="292" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B292" s="4" t="s">
         <v>413</v>
       </c>
@@ -11920,7 +11923,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="293" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B293" s="4" t="s">
         <v>414</v>
       </c>
@@ -11940,7 +11943,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="294" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B294" s="4" t="s">
         <v>412</v>
       </c>
@@ -11960,7 +11963,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="295" spans="1:7" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A295" s="3" t="s">
         <v>460</v>
       </c>
@@ -11968,7 +11971,7 @@
       <c r="D295" s="6"/>
       <c r="E295" s="6"/>
     </row>
-    <row r="296" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B296" s="4" t="s">
         <v>373</v>
       </c>
@@ -11985,7 +11988,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="297" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B297" s="4" t="s">
         <v>374</v>
       </c>
@@ -12002,7 +12005,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="298" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B298" s="4" t="s">
         <v>372</v>
       </c>
@@ -12019,7 +12022,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="299" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B299" s="4" t="s">
         <v>364</v>
       </c>
@@ -12036,7 +12039,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="300" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B300" s="4" t="s">
         <v>365</v>
       </c>
@@ -12053,7 +12056,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="301" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B301" s="4" t="s">
         <v>359</v>
       </c>
@@ -12070,7 +12073,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="302" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B302" s="4" t="s">
         <v>354</v>
       </c>
@@ -12087,7 +12090,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="303" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B303" s="4" t="s">
         <v>353</v>
       </c>
@@ -12104,7 +12107,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="304" spans="1:7" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A304" s="3" t="s">
         <v>461</v>
       </c>
@@ -12112,7 +12115,7 @@
       <c r="D304" s="6"/>
       <c r="E304" s="6"/>
     </row>
-    <row r="305" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B305" s="4" t="s">
         <v>33</v>
       </c>
@@ -12126,7 +12129,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="306" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B306" s="4" t="s">
         <v>34</v>
       </c>
@@ -12140,7 +12143,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="307" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B307" s="4" t="s">
         <v>35</v>
       </c>
@@ -12154,7 +12157,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="308" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B308" s="4" t="s">
         <v>30</v>
       </c>
@@ -12168,7 +12171,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="309" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B309" s="4" t="s">
         <v>31</v>
       </c>
@@ -12182,7 +12185,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="310" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B310" s="4" t="s">
         <v>32</v>
       </c>
@@ -12196,7 +12199,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="311" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B311" s="4" t="s">
         <v>27</v>
       </c>
@@ -12210,7 +12213,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="312" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B312" s="4" t="s">
         <v>28</v>
       </c>
@@ -12224,7 +12227,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="313" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B313" s="4" t="s">
         <v>29</v>
       </c>
@@ -12238,7 +12241,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="314" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B314" s="4" t="s">
         <v>24</v>
       </c>
@@ -12252,7 +12255,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="315" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B315" s="4" t="s">
         <v>25</v>
       </c>
@@ -12266,7 +12269,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="316" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B316" s="4" t="s">
         <v>26</v>
       </c>
@@ -12280,7 +12283,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="317" spans="1:6" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A317" s="3" t="s">
         <v>462</v>
       </c>
@@ -12288,7 +12291,7 @@
       <c r="D317" s="6"/>
       <c r="E317" s="6"/>
     </row>
-    <row r="318" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B318" s="4" t="s">
         <v>411</v>
       </c>
@@ -12305,7 +12308,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="319" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B319" s="4" t="s">
         <v>77</v>
       </c>
@@ -12319,7 +12322,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="320" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B320" s="4" t="s">
         <v>76</v>
       </c>
@@ -12333,7 +12336,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="321" spans="1:6" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A321" s="3" t="s">
         <v>464</v>
       </c>
@@ -12341,7 +12344,7 @@
       <c r="D321" s="6"/>
       <c r="E321" s="6"/>
     </row>
-    <row r="322" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B322" s="4" t="s">
         <v>415</v>
       </c>
@@ -12358,7 +12361,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="323" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B323" s="4" t="s">
         <v>241</v>
       </c>
@@ -12372,7 +12375,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="324" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B324" s="4" t="s">
         <v>240</v>
       </c>
@@ -12386,7 +12389,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="325" spans="1:6" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A325" s="3" t="s">
         <v>516</v>
       </c>
@@ -12394,7 +12397,7 @@
       <c r="D325" s="6"/>
       <c r="E325" s="6"/>
     </row>
-    <row r="326" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B326" s="4" t="s">
         <v>439</v>
       </c>
@@ -12411,7 +12414,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="327" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B327" s="4" t="s">
         <v>440</v>
       </c>
@@ -12428,7 +12431,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="328" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B328" s="4" t="s">
         <v>436</v>
       </c>
@@ -12445,7 +12448,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="329" spans="1:6" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A329" s="3" t="s">
         <v>463</v>
       </c>
@@ -12453,7 +12456,7 @@
       <c r="D329" s="6"/>
       <c r="E329" s="6"/>
     </row>
-    <row r="330" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B330" s="4" t="s">
         <v>349</v>
       </c>
@@ -12467,7 +12470,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="331" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B331" s="4" t="s">
         <v>350</v>
       </c>
@@ -12481,7 +12484,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="332" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B332" s="4" t="s">
         <v>351</v>
       </c>
@@ -12495,7 +12498,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="333" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B333" s="4" t="s">
         <v>425</v>
       </c>
@@ -12512,7 +12515,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="334" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B334" s="4" t="s">
         <v>428</v>
       </c>
@@ -12529,7 +12532,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="335" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B335" s="4" t="s">
         <v>424</v>
       </c>
@@ -12546,7 +12549,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="336" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B336" s="4" t="s">
         <v>346</v>
       </c>
@@ -12560,7 +12563,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="337" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B337" s="4" t="s">
         <v>347</v>
       </c>
@@ -12574,7 +12577,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="338" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B338" s="4" t="s">
         <v>348</v>
       </c>
@@ -12588,7 +12591,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="339" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="B339" s="4" t="s">
         <v>427</v>
       </c>
@@ -12605,7 +12608,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="340" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="B340" s="4" t="s">
         <v>426</v>
       </c>
@@ -12622,7 +12625,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="341" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B341" s="4" t="s">
         <v>429</v>
       </c>
@@ -12639,7 +12642,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="342" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B342" s="4" t="s">
         <v>343</v>
       </c>
@@ -12653,7 +12656,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="343" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B343" s="4" t="s">
         <v>344</v>
       </c>
@@ -12667,7 +12670,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="344" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="B344" s="4" t="s">
         <v>345</v>
       </c>
@@ -12681,7 +12684,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="345" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B345" s="4" t="s">
         <v>340</v>
       </c>
@@ -12695,7 +12698,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="346" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B346" s="4" t="s">
         <v>341</v>
       </c>
@@ -12709,7 +12712,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="347" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="B347" s="4" t="s">
         <v>342</v>
       </c>
@@ -12723,7 +12726,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="348" spans="1:7" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A348" s="3" t="s">
         <v>465</v>
       </c>
@@ -12731,7 +12734,7 @@
       <c r="D348" s="6"/>
       <c r="E348" s="6"/>
     </row>
-    <row r="349" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B349" s="4" t="s">
         <v>271</v>
       </c>
@@ -12748,7 +12751,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="350" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B350" s="4" t="s">
         <v>272</v>
       </c>
@@ -12765,7 +12768,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="351" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B351" s="4" t="s">
         <v>273</v>
       </c>
@@ -12782,7 +12785,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="352" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B352" s="4" t="s">
         <v>277</v>
       </c>
@@ -12799,7 +12802,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="353" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="353" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B353" s="4" t="s">
         <v>278</v>
       </c>
@@ -12816,7 +12819,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="354" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="354" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B354" s="4" t="s">
         <v>279</v>
       </c>
@@ -12833,7 +12836,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="355" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="355" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B355" s="4" t="s">
         <v>283</v>
       </c>
@@ -12850,7 +12853,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="356" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="356" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B356" s="4" t="s">
         <v>284</v>
       </c>
@@ -12867,7 +12870,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="357" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="357" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B357" s="4" t="s">
         <v>285</v>
       </c>
@@ -12884,7 +12887,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="358" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="358" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B358" s="4" t="s">
         <v>289</v>
       </c>
@@ -12901,7 +12904,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="359" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="359" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B359" s="4" t="s">
         <v>290</v>
       </c>
@@ -12918,7 +12921,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="360" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="360" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B360" s="4" t="s">
         <v>291</v>
       </c>
@@ -12935,7 +12938,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="361" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="361" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B361" s="4" t="s">
         <v>295</v>
       </c>
@@ -12952,7 +12955,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="362" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="362" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B362" s="4" t="s">
         <v>296</v>
       </c>
@@ -12969,7 +12972,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="363" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="363" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B363" s="4" t="s">
         <v>297</v>
       </c>
@@ -12986,7 +12989,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="364" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="364" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B364" s="4" t="s">
         <v>301</v>
       </c>
@@ -13003,7 +13006,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="365" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="365" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B365" s="4" t="s">
         <v>302</v>
       </c>
@@ -13020,7 +13023,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="366" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="366" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B366" s="4" t="s">
         <v>303</v>
       </c>
@@ -13037,7 +13040,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="367" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="367" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B367" s="4" t="s">
         <v>307</v>
       </c>
@@ -13054,7 +13057,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="368" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="368" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B368" s="4" t="s">
         <v>308</v>
       </c>
@@ -13071,7 +13074,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="369" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="369" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B369" s="4" t="s">
         <v>309</v>
       </c>
@@ -13088,7 +13091,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="370" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="370" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B370" s="4" t="s">
         <v>313</v>
       </c>
@@ -13105,7 +13108,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="371" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="371" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B371" s="4" t="s">
         <v>314</v>
       </c>
@@ -13122,7 +13125,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="372" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="372" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B372" s="4" t="s">
         <v>315</v>
       </c>
@@ -13139,7 +13142,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="373" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="373" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B373" s="4" t="s">
         <v>319</v>
       </c>
@@ -13156,7 +13159,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="374" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="374" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B374" s="4" t="s">
         <v>320</v>
       </c>
@@ -13173,7 +13176,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="375" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="375" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B375" s="4" t="s">
         <v>321</v>
       </c>
@@ -13190,7 +13193,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="376" spans="2:7" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="376" spans="2:7" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B376" s="8" t="s">
         <v>1410</v>
       </c>
@@ -13208,7 +13211,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="377" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="377" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B377" s="4" t="s">
         <v>1420</v>
       </c>
@@ -13225,7 +13228,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="378" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="378" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B378" s="4" t="s">
         <v>1421</v>
       </c>
@@ -13242,7 +13245,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="379" spans="2:7" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="379" spans="2:7" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B379" s="8" t="s">
         <v>1422</v>
       </c>
@@ -13260,7 +13263,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="380" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="380" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B380" s="4" t="s">
         <v>1423</v>
       </c>
@@ -13277,7 +13280,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="381" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="381" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B381" s="4" t="s">
         <v>1424</v>
       </c>
@@ -13294,7 +13297,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="382" spans="2:7" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="382" spans="2:7" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B382" s="8" t="s">
         <v>1431</v>
       </c>
@@ -13312,7 +13315,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="383" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="383" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B383" s="4" t="s">
         <v>1432</v>
       </c>
@@ -13329,7 +13332,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="384" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="384" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B384" s="4" t="s">
         <v>1433</v>
       </c>
@@ -13346,7 +13349,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="385" spans="2:7" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="385" spans="2:7" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B385" s="8" t="s">
         <v>1434</v>
       </c>
@@ -13364,7 +13367,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="386" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="386" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B386" s="4" t="s">
         <v>1435</v>
       </c>
@@ -13381,7 +13384,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="387" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="387" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B387" s="4" t="s">
         <v>1436</v>
       </c>
@@ -13398,7 +13401,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="388" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="388" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B388" s="8" t="s">
         <v>1458</v>
       </c>
@@ -13415,7 +13418,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="389" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="389" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B389" s="4" t="s">
         <v>1459</v>
       </c>
@@ -13432,7 +13435,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="390" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="390" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B390" s="4" t="s">
         <v>1460</v>
       </c>
@@ -13449,7 +13452,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="391" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="391" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B391" s="8" t="s">
         <v>1461</v>
       </c>
@@ -13466,7 +13469,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="392" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="392" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B392" s="4" t="s">
         <v>1462</v>
       </c>
@@ -13483,7 +13486,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="393" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="393" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B393" s="4" t="s">
         <v>1463</v>
       </c>
@@ -13500,7 +13503,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="394" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="394" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B394" s="8" t="s">
         <v>1464</v>
       </c>
@@ -13517,7 +13520,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="395" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="395" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B395" s="4" t="s">
         <v>1465</v>
       </c>
@@ -13534,7 +13537,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="396" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="396" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B396" s="4" t="s">
         <v>1466</v>
       </c>
@@ -13551,7 +13554,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="397" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="397" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B397" s="8" t="s">
         <v>1467</v>
       </c>
@@ -13568,7 +13571,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="398" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="398" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B398" s="4" t="s">
         <v>1468</v>
       </c>
@@ -13585,7 +13588,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="399" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="399" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B399" s="4" t="s">
         <v>1469</v>
       </c>
@@ -13602,7 +13605,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="400" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="400" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B400" s="8" t="s">
         <v>1470</v>
       </c>
@@ -13619,7 +13622,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="401" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="401" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B401" s="4" t="s">
         <v>1471</v>
       </c>
@@ -13636,7 +13639,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="402" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="402" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B402" s="4" t="s">
         <v>1472</v>
       </c>
@@ -13653,7 +13656,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="403" spans="2:7" s="8" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="403" spans="2:7" s="8" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="B403" s="8" t="s">
         <v>1473</v>
       </c>
@@ -13671,7 +13674,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="404" spans="2:7" s="8" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="404" spans="2:7" s="8" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="B404" s="8" t="s">
         <v>1474</v>
       </c>
@@ -13689,7 +13692,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="405" spans="2:7" s="8" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="405" spans="2:7" s="8" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B405" s="8" t="s">
         <v>1475</v>
       </c>
@@ -13707,7 +13710,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="406" spans="2:7" s="8" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="406" spans="2:7" s="8" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="B406" s="8" t="s">
         <v>1476</v>
       </c>
@@ -13725,7 +13728,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="407" spans="2:7" s="8" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="407" spans="2:7" s="8" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="B407" s="8" t="s">
         <v>1477</v>
       </c>
@@ -13743,7 +13746,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="408" spans="2:7" s="8" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="408" spans="2:7" s="8" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B408" s="8" t="s">
         <v>1478</v>
       </c>
@@ -13761,7 +13764,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="409" spans="2:7" s="8" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="409" spans="2:7" s="8" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="B409" s="8" t="s">
         <v>1479</v>
       </c>
@@ -13779,7 +13782,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="410" spans="2:7" s="8" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="410" spans="2:7" s="8" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="B410" s="8" t="s">
         <v>1480</v>
       </c>
@@ -13797,7 +13800,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="411" spans="2:7" s="8" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="411" spans="2:7" s="8" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B411" s="8" t="s">
         <v>1481</v>
       </c>
@@ -13815,7 +13818,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="412" spans="2:7" s="8" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="412" spans="2:7" s="8" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="B412" s="8" t="s">
         <v>1482</v>
       </c>
@@ -13833,7 +13836,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="413" spans="2:7" s="8" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="413" spans="2:7" s="8" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="B413" s="8" t="s">
         <v>1483</v>
       </c>
@@ -13851,7 +13854,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="414" spans="2:7" s="8" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="414" spans="2:7" s="8" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B414" s="8" t="s">
         <v>1484</v>
       </c>
@@ -13869,7 +13872,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="415" spans="2:7" s="8" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="415" spans="2:7" s="8" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="B415" s="8" t="s">
         <v>1485</v>
       </c>
@@ -13887,7 +13890,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="416" spans="2:7" s="8" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="416" spans="2:7" s="8" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="B416" s="8" t="s">
         <v>1486</v>
       </c>
@@ -13905,7 +13908,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="417" spans="2:7" s="8" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="417" spans="2:7" s="8" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B417" s="8" t="s">
         <v>1487</v>
       </c>
@@ -13923,7 +13926,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="418" spans="2:7" s="8" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="418" spans="2:7" s="8" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="B418" s="8" t="s">
         <v>1488</v>
       </c>
@@ -13941,7 +13944,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="419" spans="2:7" s="8" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="419" spans="2:7" s="8" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="B419" s="8" t="s">
         <v>1489</v>
       </c>
@@ -13959,7 +13962,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="420" spans="2:7" s="8" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="420" spans="2:7" s="8" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B420" s="8" t="s">
         <v>1490</v>
       </c>
@@ -13977,7 +13980,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="421" spans="2:7" s="8" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="421" spans="2:7" s="8" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="B421" s="8" t="s">
         <v>1491</v>
       </c>
@@ -13995,7 +13998,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="422" spans="2:7" s="8" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="422" spans="2:7" s="8" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="B422" s="8" t="s">
         <v>1492</v>
       </c>
@@ -14013,7 +14016,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="423" spans="2:7" s="8" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="423" spans="2:7" s="8" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B423" s="8" t="s">
         <v>1493</v>
       </c>
@@ -14031,7 +14034,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="424" spans="2:7" s="8" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="424" spans="2:7" s="8" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="B424" s="8" t="s">
         <v>1494</v>
       </c>
@@ -14049,7 +14052,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="425" spans="2:7" s="8" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="425" spans="2:7" s="8" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="B425" s="8" t="s">
         <v>1495</v>
       </c>
@@ -14067,7 +14070,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="426" spans="2:7" s="8" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="426" spans="2:7" s="8" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B426" s="8" t="s">
         <v>1496</v>
       </c>
@@ -14085,7 +14088,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="427" spans="2:7" s="8" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="427" spans="2:7" s="8" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="B427" s="8" t="s">
         <v>1497</v>
       </c>
@@ -14103,7 +14106,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="428" spans="2:7" s="8" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="428" spans="2:7" s="8" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="B428" s="8" t="s">
         <v>1498</v>
       </c>
@@ -14121,7 +14124,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="429" spans="2:7" s="8" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="429" spans="2:7" s="8" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B429" s="8" t="s">
         <v>1499</v>
       </c>
@@ -14139,7 +14142,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="430" spans="2:7" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="430" spans="2:7" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B430" s="8" t="s">
         <v>1412</v>
       </c>
@@ -14157,7 +14160,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="431" spans="2:7" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="431" spans="2:7" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B431" s="8" t="s">
         <v>1500</v>
       </c>
@@ -14175,7 +14178,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="432" spans="2:7" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="432" spans="2:7" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B432" s="8" t="s">
         <v>1501</v>
       </c>
@@ -14193,7 +14196,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="433" spans="2:7" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="433" spans="2:7" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B433" s="8" t="s">
         <v>1505</v>
       </c>
@@ -14211,7 +14214,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="434" spans="2:7" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="434" spans="2:7" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B434" s="8" t="s">
         <v>1506</v>
       </c>
@@ -14229,7 +14232,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="435" spans="2:7" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="435" spans="2:7" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B435" s="8" t="s">
         <v>1507</v>
       </c>
@@ -14247,7 +14250,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="436" spans="2:7" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="436" spans="2:7" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B436" s="8" t="s">
         <v>1508</v>
       </c>
@@ -14265,7 +14268,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="437" spans="2:7" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="437" spans="2:7" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B437" s="8" t="s">
         <v>1518</v>
       </c>
@@ -14283,7 +14286,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="438" spans="2:7" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="438" spans="2:7" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B438" s="8" t="s">
         <v>1519</v>
       </c>
@@ -14301,7 +14304,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="439" spans="2:7" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="439" spans="2:7" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B439" s="8" t="s">
         <v>1520</v>
       </c>
@@ -14319,7 +14322,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="440" spans="2:7" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="440" spans="2:7" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B440" s="8" t="s">
         <v>1509</v>
       </c>
@@ -14337,7 +14340,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="441" spans="2:7" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="441" spans="2:7" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B441" s="8" t="s">
         <v>1521</v>
       </c>
@@ -14355,7 +14358,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="442" spans="2:7" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="442" spans="2:7" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B442" s="8" t="s">
         <v>1511</v>
       </c>
@@ -14373,7 +14376,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="443" spans="2:7" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="443" spans="2:7" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B443" s="8" t="s">
         <v>1522</v>
       </c>
@@ -14391,7 +14394,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="444" spans="2:7" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="444" spans="2:7" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B444" s="8" t="s">
         <v>1510</v>
       </c>
@@ -14409,7 +14412,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="445" spans="2:7" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="445" spans="2:7" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B445" s="8" t="s">
         <v>1514</v>
       </c>
@@ -14427,7 +14430,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="446" spans="2:7" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="446" spans="2:7" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B446" s="8" t="s">
         <v>1512</v>
       </c>
@@ -14445,7 +14448,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="447" spans="2:7" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="447" spans="2:7" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B447" s="8" t="s">
         <v>1513</v>
       </c>
@@ -14463,7 +14466,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="448" spans="2:7" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="448" spans="2:7" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B448" s="8" t="s">
         <v>1523</v>
       </c>
@@ -14481,7 +14484,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="449" spans="2:7" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="449" spans="2:7" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B449" s="8" t="s">
         <v>1515</v>
       </c>
@@ -14499,7 +14502,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="450" spans="2:7" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="450" spans="2:7" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B450" s="8" t="s">
         <v>1516</v>
       </c>
@@ -14517,7 +14520,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="451" spans="2:7" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="451" spans="2:7" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B451" s="8" t="s">
         <v>1517</v>
       </c>
@@ -14535,7 +14538,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="452" spans="2:7" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="452" spans="2:7" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B452" s="8" t="s">
         <v>1524</v>
       </c>
@@ -14553,7 +14556,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="453" spans="2:7" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="453" spans="2:7" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B453" s="8" t="s">
         <v>1525</v>
       </c>
@@ -14571,7 +14574,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="454" spans="2:7" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="454" spans="2:7" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B454" s="8" t="s">
         <v>1526</v>
       </c>
@@ -14589,7 +14592,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="455" spans="2:7" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="455" spans="2:7" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B455" s="8" t="s">
         <v>1527</v>
       </c>
@@ -14607,7 +14610,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="456" spans="2:7" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="456" spans="2:7" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B456" s="8" t="s">
         <v>1528</v>
       </c>
@@ -14625,7 +14628,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="457" spans="2:7" s="8" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="457" spans="2:7" s="8" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="B457" s="8" t="s">
         <v>1545</v>
       </c>
@@ -14643,7 +14646,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="458" spans="2:7" s="8" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="458" spans="2:7" s="8" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="B458" s="8" t="s">
         <v>1546</v>
       </c>
@@ -14661,7 +14664,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="459" spans="2:7" s="8" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="459" spans="2:7" s="8" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="B459" s="8" t="s">
         <v>1547</v>
       </c>
@@ -14679,7 +14682,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="460" spans="2:7" s="8" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="460" spans="2:7" s="8" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="B460" s="8" t="s">
         <v>1548</v>
       </c>
@@ -14697,7 +14700,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="461" spans="2:7" s="8" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="461" spans="2:7" s="8" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="B461" s="8" t="s">
         <v>1549</v>
       </c>
@@ -14715,7 +14718,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="462" spans="2:7" s="8" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="462" spans="2:7" s="8" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="B462" s="8" t="s">
         <v>1550</v>
       </c>
@@ -14733,7 +14736,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="463" spans="2:7" s="8" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="463" spans="2:7" s="8" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="B463" s="8" t="s">
         <v>1551</v>
       </c>
@@ -14751,7 +14754,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="464" spans="2:7" s="8" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="464" spans="2:7" s="8" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="B464" s="8" t="s">
         <v>1552</v>
       </c>
@@ -14769,7 +14772,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="465" spans="2:7" s="8" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="465" spans="2:7" s="8" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="B465" s="8" t="s">
         <v>1553</v>
       </c>
@@ -14787,7 +14790,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="466" spans="2:7" s="8" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="466" spans="2:7" s="8" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="B466" s="8" t="s">
         <v>1554</v>
       </c>
@@ -14805,7 +14808,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="467" spans="2:7" s="8" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="467" spans="2:7" s="8" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="B467" s="8" t="s">
         <v>1555</v>
       </c>
@@ -14823,7 +14826,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="468" spans="2:7" s="8" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="468" spans="2:7" s="8" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="B468" s="8" t="s">
         <v>1556</v>
       </c>
@@ -14841,7 +14844,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="469" spans="2:7" s="8" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="469" spans="2:7" s="8" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="B469" s="8" t="s">
         <v>1557</v>
       </c>
@@ -14859,7 +14862,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="470" spans="2:7" s="8" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="470" spans="2:7" s="8" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="B470" s="8" t="s">
         <v>1558</v>
       </c>
@@ -14877,7 +14880,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="471" spans="2:7" s="8" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="471" spans="2:7" s="8" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="B471" s="8" t="s">
         <v>1559</v>
       </c>
@@ -14895,7 +14898,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="472" spans="2:7" s="8" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="472" spans="2:7" s="8" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="B472" s="8" t="s">
         <v>1560</v>
       </c>
@@ -14913,7 +14916,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="473" spans="2:7" s="8" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="473" spans="2:7" s="8" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="B473" s="8" t="s">
         <v>1561</v>
       </c>
@@ -14931,7 +14934,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="474" spans="2:7" s="8" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="474" spans="2:7" s="8" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="B474" s="8" t="s">
         <v>1562</v>
       </c>
@@ -14949,7 +14952,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="475" spans="2:7" s="8" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="475" spans="2:7" s="8" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="B475" s="8" t="s">
         <v>1563</v>
       </c>
@@ -14967,7 +14970,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="476" spans="2:7" s="8" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="476" spans="2:7" s="8" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="B476" s="8" t="s">
         <v>1564</v>
       </c>
@@ -14985,7 +14988,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="477" spans="2:7" s="8" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="477" spans="2:7" s="8" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="B477" s="8" t="s">
         <v>1565</v>
       </c>
@@ -15003,7 +15006,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="478" spans="2:7" s="8" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="478" spans="2:7" s="8" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="B478" s="8" t="s">
         <v>1566</v>
       </c>
@@ -15021,7 +15024,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="479" spans="2:7" s="8" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="479" spans="2:7" s="8" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="B479" s="8" t="s">
         <v>1567</v>
       </c>
@@ -15039,7 +15042,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="480" spans="2:7" s="8" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="480" spans="2:7" s="8" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="B480" s="8" t="s">
         <v>1568</v>
       </c>
@@ -15057,7 +15060,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="481" spans="1:7" s="8" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:7" s="8" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="B481" s="8" t="s">
         <v>1569</v>
       </c>
@@ -15075,7 +15078,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="482" spans="1:7" s="8" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:7" s="8" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="B482" s="8" t="s">
         <v>1570</v>
       </c>
@@ -15093,7 +15096,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="483" spans="1:7" s="8" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:7" s="8" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="B483" s="8" t="s">
         <v>1571</v>
       </c>
@@ -15111,7 +15114,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="484" spans="1:7" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A484" s="3" t="s">
         <v>475</v>
       </c>
@@ -15119,7 +15122,7 @@
       <c r="D484" s="6"/>
       <c r="E484" s="6"/>
     </row>
-    <row r="485" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B485" s="4" t="s">
         <v>54</v>
       </c>
@@ -15133,7 +15136,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="486" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B486" s="4" t="s">
         <v>55</v>
       </c>
@@ -15147,7 +15150,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="487" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B487" s="4" t="s">
         <v>56</v>
       </c>
@@ -15161,7 +15164,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="488" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B488" s="4" t="s">
         <v>387</v>
       </c>
@@ -15178,7 +15181,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="489" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B489" s="4" t="s">
         <v>388</v>
       </c>
@@ -15195,7 +15198,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="490" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B490" s="4" t="s">
         <v>384</v>
       </c>
@@ -15212,7 +15215,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="491" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B491" s="4" t="s">
         <v>58</v>
       </c>
@@ -15226,7 +15229,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="492" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B492" s="4" t="s">
         <v>60</v>
       </c>
@@ -15240,7 +15243,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="493" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B493" s="4" t="s">
         <v>62</v>
       </c>
@@ -15254,7 +15257,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="494" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B494" s="4" t="s">
         <v>57</v>
       </c>
@@ -15268,7 +15271,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="495" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B495" s="4" t="s">
         <v>59</v>
       </c>
@@ -15282,7 +15285,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="496" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B496" s="4" t="s">
         <v>61</v>
       </c>
@@ -15296,7 +15299,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="497" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="497" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B497" s="4" t="s">
         <v>49</v>
       </c>
@@ -15310,7 +15313,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="498" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="498" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B498" s="4" t="s">
         <v>51</v>
       </c>
@@ -15324,7 +15327,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="499" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="499" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B499" s="4" t="s">
         <v>53</v>
       </c>
@@ -15338,7 +15341,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="500" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="500" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B500" s="4" t="s">
         <v>48</v>
       </c>
@@ -15352,7 +15355,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="501" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="501" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B501" s="4" t="s">
         <v>50</v>
       </c>
@@ -15366,7 +15369,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="502" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="502" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B502" s="4" t="s">
         <v>52</v>
       </c>
@@ -15380,7 +15383,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="503" spans="2:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="503" spans="2:6" ht="72" x14ac:dyDescent="0.3">
       <c r="B503" s="4" t="s">
         <v>386</v>
       </c>
@@ -15397,7 +15400,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="504" spans="2:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="504" spans="2:6" ht="72" x14ac:dyDescent="0.3">
       <c r="B504" s="4" t="s">
         <v>385</v>
       </c>
@@ -15414,7 +15417,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="505" spans="2:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="505" spans="2:6" ht="72" x14ac:dyDescent="0.3">
       <c r="B505" s="4" t="s">
         <v>389</v>
       </c>
@@ -15431,7 +15434,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="506" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="506" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B506" s="4" t="s">
         <v>43</v>
       </c>
@@ -15445,7 +15448,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="507" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="507" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B507" s="4" t="s">
         <v>45</v>
       </c>
@@ -15459,7 +15462,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="508" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="508" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B508" s="4" t="s">
         <v>47</v>
       </c>
@@ -15473,7 +15476,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="509" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="509" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B509" s="4" t="s">
         <v>42</v>
       </c>
@@ -15487,7 +15490,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="510" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="510" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B510" s="4" t="s">
         <v>44</v>
       </c>
@@ -15501,7 +15504,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="511" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="511" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B511" s="4" t="s">
         <v>46</v>
       </c>
@@ -15515,7 +15518,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="512" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="512" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B512" s="4" t="s">
         <v>37</v>
       </c>
@@ -15529,7 +15532,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="513" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B513" s="4" t="s">
         <v>39</v>
       </c>
@@ -15543,7 +15546,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="514" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B514" s="4" t="s">
         <v>41</v>
       </c>
@@ -15557,7 +15560,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="515" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B515" s="4" t="s">
         <v>36</v>
       </c>
@@ -15571,7 +15574,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="516" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B516" s="4" t="s">
         <v>38</v>
       </c>
@@ -15585,7 +15588,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="517" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B517" s="4" t="s">
         <v>40</v>
       </c>
@@ -15599,7 +15602,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="518" spans="1:6" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A518" s="3" t="s">
         <v>476</v>
       </c>
@@ -15607,7 +15610,7 @@
       <c r="D518" s="6"/>
       <c r="E518" s="6"/>
     </row>
-    <row r="519" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B519" s="4" t="s">
         <v>67</v>
       </c>
@@ -15621,7 +15624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="520" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B520" s="4" t="s">
         <v>73</v>
       </c>
@@ -15635,7 +15638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="521" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B521" s="4" t="s">
         <v>393</v>
       </c>
@@ -15652,7 +15655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="522" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B522" s="4" t="s">
         <v>64</v>
       </c>
@@ -15666,7 +15669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="523" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B523" s="4" t="s">
         <v>70</v>
       </c>
@@ -15765,7 +15768,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="529" spans="1:7" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A529" s="3" t="s">
         <v>478</v>
       </c>
@@ -15773,7 +15776,7 @@
       <c r="D529" s="6"/>
       <c r="E529" s="6"/>
     </row>
-    <row r="530" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B530" s="4" t="s">
         <v>68</v>
       </c>
@@ -15787,7 +15790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="531" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B531" s="4" t="s">
         <v>74</v>
       </c>
@@ -15801,7 +15804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="532" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B532" s="4" t="s">
         <v>394</v>
       </c>
@@ -15818,7 +15821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="533" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B533" s="4" t="s">
         <v>65</v>
       </c>
@@ -15832,7 +15835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="534" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B534" s="4" t="s">
         <v>71</v>
       </c>
@@ -15931,7 +15934,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="540" spans="1:7" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A540" s="3" t="s">
         <v>480</v>
       </c>
@@ -15939,7 +15942,7 @@
       <c r="D540" s="6"/>
       <c r="E540" s="6"/>
     </row>
-    <row r="541" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B541" s="4" t="s">
         <v>69</v>
       </c>
@@ -15956,7 +15959,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="542" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B542" s="4" t="s">
         <v>75</v>
       </c>
@@ -15973,7 +15976,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="543" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B543" s="4" t="s">
         <v>395</v>
       </c>
@@ -15993,7 +15996,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="544" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B544" s="4" t="s">
         <v>66</v>
       </c>
@@ -16010,7 +16013,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="545" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B545" s="4" t="s">
         <v>72</v>
       </c>
@@ -16127,7 +16130,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="551" spans="1:7" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A551" s="3" t="s">
         <v>477</v>
       </c>
@@ -16594,7 +16597,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="579" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="579" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B579" s="4" t="s">
         <v>1118</v>
       </c>
@@ -16611,7 +16614,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="580" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="580" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B580" s="4" t="s">
         <v>1119</v>
       </c>
@@ -16628,7 +16631,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="581" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="581" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B581" s="4" t="s">
         <v>1120</v>
       </c>
@@ -16645,7 +16648,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="582" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="582" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B582" s="4" t="s">
         <v>1121</v>
       </c>
@@ -16662,7 +16665,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="583" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="583" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B583" s="4" t="s">
         <v>1122</v>
       </c>
@@ -16679,7 +16682,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="584" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="584" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B584" s="4" t="s">
         <v>1123</v>
       </c>
@@ -16696,7 +16699,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="585" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="585" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B585" s="4" t="s">
         <v>1124</v>
       </c>
@@ -16713,7 +16716,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="586" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="586" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B586" s="4" t="s">
         <v>1125</v>
       </c>
@@ -16730,7 +16733,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="587" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="587" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B587" s="4" t="s">
         <v>1126</v>
       </c>
@@ -16747,7 +16750,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="588" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="588" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B588" s="4" t="s">
         <v>1127</v>
       </c>
@@ -16764,7 +16767,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="589" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="589" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B589" s="4" t="s">
         <v>1128</v>
       </c>
@@ -16781,7 +16784,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="590" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="590" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B590" s="4" t="s">
         <v>1129</v>
       </c>
@@ -16798,7 +16801,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="591" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="591" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B591" s="4" t="s">
         <v>1130</v>
       </c>
@@ -16815,7 +16818,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="592" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="592" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B592" s="4" t="s">
         <v>1131</v>
       </c>
@@ -16832,7 +16835,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="593" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B593" s="4" t="s">
         <v>1132</v>
       </c>
@@ -16849,7 +16852,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="594" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B594" s="4" t="s">
         <v>1133</v>
       </c>
@@ -16866,7 +16869,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="595" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B595" s="4" t="s">
         <v>1134</v>
       </c>
@@ -16883,7 +16886,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="596" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B596" s="4" t="s">
         <v>1135</v>
       </c>
@@ -16900,7 +16903,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="597" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B597" s="4" t="s">
         <v>1136</v>
       </c>
@@ -16917,7 +16920,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="598" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B598" s="4" t="s">
         <v>1137</v>
       </c>
@@ -16934,7 +16937,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="599" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B599" s="4" t="s">
         <v>1138</v>
       </c>
@@ -16951,7 +16954,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="600" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B600" s="4" t="s">
         <v>1139</v>
       </c>
@@ -16968,7 +16971,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="601" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B601" s="4" t="s">
         <v>1140</v>
       </c>
@@ -16985,7 +16988,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="602" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B602" s="4" t="s">
         <v>1141</v>
       </c>
@@ -17002,7 +17005,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="603" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B603" s="4" t="s">
         <v>1142</v>
       </c>
@@ -17019,7 +17022,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="604" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B604" s="4" t="s">
         <v>1143</v>
       </c>
@@ -17036,7 +17039,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="605" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B605" s="4" t="s">
         <v>1144</v>
       </c>
@@ -17053,7 +17056,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="606" spans="1:7" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A606" s="3" t="s">
         <v>479</v>
       </c>
@@ -17520,7 +17523,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="634" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="634" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B634" s="4" t="s">
         <v>1145</v>
       </c>
@@ -17537,7 +17540,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="635" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="635" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B635" s="4" t="s">
         <v>1146</v>
       </c>
@@ -17554,7 +17557,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="636" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="636" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B636" s="4" t="s">
         <v>1147</v>
       </c>
@@ -17571,7 +17574,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="637" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="637" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B637" s="4" t="s">
         <v>1148</v>
       </c>
@@ -17588,7 +17591,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="638" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="638" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B638" s="4" t="s">
         <v>1149</v>
       </c>
@@ -17605,7 +17608,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="639" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="639" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B639" s="4" t="s">
         <v>1150</v>
       </c>
@@ -17622,7 +17625,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="640" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="640" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B640" s="4" t="s">
         <v>1151</v>
       </c>
@@ -17639,7 +17642,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="641" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="641" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B641" s="4" t="s">
         <v>1152</v>
       </c>
@@ -17656,7 +17659,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="642" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="642" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B642" s="4" t="s">
         <v>1153</v>
       </c>
@@ -17673,7 +17676,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="643" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="643" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B643" s="4" t="s">
         <v>1154</v>
       </c>
@@ -17690,7 +17693,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="644" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="644" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B644" s="4" t="s">
         <v>1155</v>
       </c>
@@ -17707,7 +17710,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="645" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="645" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B645" s="4" t="s">
         <v>1156</v>
       </c>
@@ -17724,7 +17727,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="646" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="646" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B646" s="4" t="s">
         <v>1157</v>
       </c>
@@ -17741,7 +17744,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="647" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="647" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B647" s="4" t="s">
         <v>1158</v>
       </c>
@@ -17758,7 +17761,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="648" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="648" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B648" s="4" t="s">
         <v>1159</v>
       </c>
@@ -17775,7 +17778,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="649" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="649" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B649" s="4" t="s">
         <v>1160</v>
       </c>
@@ -17792,7 +17795,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="650" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="650" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B650" s="4" t="s">
         <v>1161</v>
       </c>
@@ -17809,7 +17812,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="651" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="651" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B651" s="4" t="s">
         <v>1162</v>
       </c>
@@ -17826,7 +17829,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="652" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="652" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B652" s="4" t="s">
         <v>1163</v>
       </c>
@@ -17843,7 +17846,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="653" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="653" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B653" s="4" t="s">
         <v>1164</v>
       </c>
@@ -17860,7 +17863,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="654" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="654" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B654" s="4" t="s">
         <v>1165</v>
       </c>
@@ -17877,7 +17880,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="655" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="655" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B655" s="4" t="s">
         <v>1166</v>
       </c>
@@ -17894,7 +17897,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="656" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="656" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B656" s="4" t="s">
         <v>1167</v>
       </c>
@@ -17911,7 +17914,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="657" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B657" s="4" t="s">
         <v>1168</v>
       </c>
@@ -17928,7 +17931,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="658" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B658" s="4" t="s">
         <v>1169</v>
       </c>
@@ -17945,7 +17948,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="659" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B659" s="4" t="s">
         <v>1170</v>
       </c>
@@ -17962,7 +17965,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="660" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B660" s="4" t="s">
         <v>1171</v>
       </c>
@@ -17979,7 +17982,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="661" spans="1:7" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A661" s="3" t="s">
         <v>481</v>
       </c>
@@ -18446,7 +18449,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="689" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="689" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B689" s="4" t="s">
         <v>1172</v>
       </c>
@@ -18463,7 +18466,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="690" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="690" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B690" s="4" t="s">
         <v>1173</v>
       </c>
@@ -18480,7 +18483,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="691" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="691" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B691" s="4" t="s">
         <v>1174</v>
       </c>
@@ -18497,7 +18500,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="692" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="692" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B692" s="4" t="s">
         <v>1175</v>
       </c>
@@ -18514,7 +18517,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="693" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="693" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B693" s="4" t="s">
         <v>1176</v>
       </c>
@@ -18531,7 +18534,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="694" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="694" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B694" s="4" t="s">
         <v>1177</v>
       </c>
@@ -18548,7 +18551,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="695" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="695" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B695" s="4" t="s">
         <v>1178</v>
       </c>
@@ -18565,7 +18568,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="696" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="696" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B696" s="4" t="s">
         <v>1179</v>
       </c>
@@ -18582,7 +18585,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="697" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="697" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B697" s="4" t="s">
         <v>1180</v>
       </c>
@@ -18599,7 +18602,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="698" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="698" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B698" s="4" t="s">
         <v>1181</v>
       </c>
@@ -18616,7 +18619,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="699" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="699" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B699" s="4" t="s">
         <v>1182</v>
       </c>
@@ -18633,7 +18636,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="700" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="700" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B700" s="4" t="s">
         <v>1183</v>
       </c>
@@ -18650,7 +18653,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="701" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="701" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B701" s="4" t="s">
         <v>1184</v>
       </c>
@@ -18667,7 +18670,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="702" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="702" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B702" s="4" t="s">
         <v>1185</v>
       </c>
@@ -18684,7 +18687,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="703" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="703" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B703" s="4" t="s">
         <v>1186</v>
       </c>
@@ -18701,7 +18704,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="704" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="704" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B704" s="4" t="s">
         <v>1187</v>
       </c>
@@ -18718,7 +18721,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="705" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B705" s="4" t="s">
         <v>1188</v>
       </c>
@@ -18735,7 +18738,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="706" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B706" s="4" t="s">
         <v>1189</v>
       </c>
@@ -18752,7 +18755,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="707" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B707" s="4" t="s">
         <v>1190</v>
       </c>
@@ -18769,7 +18772,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="708" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B708" s="4" t="s">
         <v>1191</v>
       </c>
@@ -18786,7 +18789,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="709" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B709" s="4" t="s">
         <v>1192</v>
       </c>
@@ -18803,7 +18806,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="710" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B710" s="4" t="s">
         <v>1193</v>
       </c>
@@ -18820,7 +18823,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="711" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B711" s="4" t="s">
         <v>1194</v>
       </c>
@@ -18837,7 +18840,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="712" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B712" s="4" t="s">
         <v>1195</v>
       </c>
@@ -18854,7 +18857,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="713" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B713" s="4" t="s">
         <v>1196</v>
       </c>
@@ -18871,7 +18874,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="714" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B714" s="4" t="s">
         <v>1197</v>
       </c>
@@ -18888,7 +18891,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="715" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B715" s="4" t="s">
         <v>1198</v>
       </c>
@@ -18905,7 +18908,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="716" spans="1:7" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A716" s="3" t="s">
         <v>482</v>
       </c>
@@ -18913,7 +18916,7 @@
       <c r="D716" s="6"/>
       <c r="E716" s="6"/>
     </row>
-    <row r="717" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B717" s="4" t="s">
         <v>369</v>
       </c>
@@ -18933,7 +18936,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="718" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B718" s="4" t="s">
         <v>360</v>
       </c>
@@ -18953,7 +18956,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="719" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B719" s="4" t="s">
         <v>362</v>
       </c>
@@ -18973,7 +18976,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="720" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B720" s="4" t="s">
         <v>361</v>
       </c>
@@ -18993,7 +18996,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="721" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B721" s="4" t="s">
         <v>363</v>
       </c>
@@ -19101,7 +19104,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="727" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B727" s="4" t="s">
         <v>371</v>
       </c>
@@ -19121,7 +19124,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="728" spans="1:7" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A728" s="3" t="s">
         <v>483</v>
       </c>
@@ -19185,7 +19188,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="733" spans="1:7" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A733" s="3" t="s">
         <v>2057</v>
       </c>
@@ -19220,8 +19223,11 @@
       <c r="F735" s="4" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="736" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="G735" s="4" t="s">
+        <v>2090</v>
+      </c>
+    </row>
+    <row r="736" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B736" s="4" t="s">
         <v>13</v>
       </c>

--- a/modules-local/fast-library/src/OutListParameters.xlsx
+++ b/modules-local/fast-library/src/OutListParameters.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="300" windowWidth="15240" windowHeight="7848" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="300" windowWidth="15240" windowHeight="7848" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="8" r:id="rId1"/>
     <sheet name="ElastoDyn" sheetId="7" r:id="rId2"/>
     <sheet name="ServoDyn" sheetId="11" r:id="rId3"/>
-    <sheet name="InflowWind" sheetId="13" r:id="rId4"/>
+    <sheet name="AeroDyn 15 - draft" sheetId="18" r:id="rId4"/>
     <sheet name="Removed" sheetId="14" r:id="rId5"/>
     <sheet name="Removed - in AeroDyn later" sheetId="12" r:id="rId6"/>
     <sheet name="Removed - in InflowWind later" sheetId="16" r:id="rId7"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4407" uniqueCount="2091">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4440" uniqueCount="2131">
   <si>
     <t>Category</t>
   </si>
@@ -6320,6 +6320,126 @@
   </si>
   <si>
     <t>p%method == method_RK4</t>
+  </si>
+  <si>
+    <t>Some category</t>
+  </si>
+  <si>
+    <t>YawErr</t>
+  </si>
+  <si>
+    <t>SkewAng</t>
+  </si>
+  <si>
+    <t>SkewAz</t>
+  </si>
+  <si>
+    <t>RotAeroPwr</t>
+  </si>
+  <si>
+    <t>RotAeroThrst</t>
+  </si>
+  <si>
+    <t>RotAeroTrq</t>
+  </si>
+  <si>
+    <t>RotAeroCp</t>
+  </si>
+  <si>
+    <t>RotAeroCt</t>
+  </si>
+  <si>
+    <t>RotAeroCq</t>
+  </si>
+  <si>
+    <t>ThrCntAz</t>
+  </si>
+  <si>
+    <t>ThrCntRad</t>
+  </si>
+  <si>
+    <t>BlAxInd</t>
+  </si>
+  <si>
+    <t>BlTanInd</t>
+  </si>
+  <si>
+    <t>BlCl</t>
+  </si>
+  <si>
+    <t>BlCd</t>
+  </si>
+  <si>
+    <t>BlCm</t>
+  </si>
+  <si>
+    <t>BlAoA</t>
+  </si>
+  <si>
+    <t>TwAxInd</t>
+  </si>
+  <si>
+    <t>TwTanInd</t>
+  </si>
+  <si>
+    <t>TwCl</t>
+  </si>
+  <si>
+    <t>TwCd</t>
+  </si>
+  <si>
+    <t>TwCm</t>
+  </si>
+  <si>
+    <t>TwAoA</t>
+  </si>
+  <si>
+    <t>Tower aerodynamics</t>
+  </si>
+  <si>
+    <t>Blade aerodynamics</t>
+  </si>
+  <si>
+    <t>Azimuthal location of the center of thrust</t>
+  </si>
+  <si>
+    <t>Radial location of the center of thrust</t>
+  </si>
+  <si>
+    <t>Rotor power coefficient</t>
+  </si>
+  <si>
+    <t>thrust coefficient</t>
+  </si>
+  <si>
+    <t>torque coefficient</t>
+  </si>
+  <si>
+    <t>Rotor aerodynamic power</t>
+  </si>
+  <si>
+    <t>Rotor aerodynamic thrust</t>
+  </si>
+  <si>
+    <t>Rotor aerodynamic torque</t>
+  </si>
+  <si>
+    <t>azimuth of the skew (0 up)</t>
+  </si>
+  <si>
+    <t>inflow skew angle (includes pitch and yaw error)</t>
+  </si>
+  <si>
+    <t>Yaw error</t>
+  </si>
+  <si>
+    <t>Induction factors</t>
+  </si>
+  <si>
+    <t>Aerodynamic coefficients</t>
+  </si>
+  <si>
+    <t>Angle of attack</t>
   </si>
 </sst>
 </file>
@@ -6826,8 +6946,8 @@
     </row>
     <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="D10">
-        <f>COUNTA(InflowWind!B:B)-1</f>
-        <v>3</v>
+        <f>COUNTA(#REF!)-1</f>
+        <v>0</v>
       </c>
       <c r="E10" t="s">
         <v>2071</v>
@@ -6945,8 +7065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G889"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A727" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A685" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G736" sqref="G736"/>
     </sheetView>
   </sheetViews>
@@ -21395,7 +21515,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -21659,24 +21781,24 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="60.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="50.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="56.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -21699,87 +21821,219 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>490</v>
+        <v>2091</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
-        <v>433</v>
+        <v>2092</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7" t="s">
-        <v>1099</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>1098</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>491</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>1964</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2127</v>
+      </c>
+      <c r="E3" s="7"/>
+    </row>
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
-        <v>434</v>
+        <v>2093</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7" t="s">
-        <v>1100</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>1097</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>491</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>1964</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2126</v>
+      </c>
+      <c r="E4" s="7"/>
+    </row>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
-        <v>435</v>
+        <v>2094</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7" t="s">
-        <v>1101</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>1096</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>491</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>1964</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-    </row>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-    </row>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-    </row>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
+        <v>2125</v>
+      </c>
+      <c r="E5" s="7"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="4" t="s">
+        <v>2095</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="4" t="s">
+        <v>2096</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>2097</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>2098</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>2099</v>
+      </c>
+      <c r="D10" t="s">
+        <v>2120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>2100</v>
+      </c>
+      <c r="D11" t="s">
+        <v>2121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>2101</v>
+      </c>
+      <c r="D12" t="s">
+        <v>2117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>2102</v>
+      </c>
+      <c r="D13" t="s">
+        <v>2118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>2116</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>2103</v>
+      </c>
+      <c r="D15" t="s">
+        <v>2128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>2104</v>
+      </c>
+      <c r="D16" t="s">
+        <v>2128</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>2105</v>
+      </c>
+      <c r="D17" t="s">
+        <v>2129</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>2106</v>
+      </c>
+      <c r="D18" t="s">
+        <v>2129</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>2107</v>
+      </c>
+      <c r="D19" t="s">
+        <v>2129</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>2108</v>
+      </c>
+      <c r="D20" t="s">
+        <v>2130</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>2115</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>2109</v>
+      </c>
+      <c r="D22" t="s">
+        <v>2128</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>2110</v>
+      </c>
+      <c r="D23" t="s">
+        <v>2128</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>2111</v>
+      </c>
+      <c r="D24" t="s">
+        <v>2129</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>2112</v>
+      </c>
+      <c r="D25" t="s">
+        <v>2129</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>2113</v>
+      </c>
+      <c r="D26" t="s">
+        <v>2129</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>2114</v>
+      </c>
+      <c r="D27" t="s">
+        <v>2130</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21918,7 +22172,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="49.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22248,7 +22502,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="B3" sqref="B3:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/modules-local/fast-library/src/OutListParameters.xlsx
+++ b/modules-local/fast-library/src/OutListParameters.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="300" windowWidth="15240" windowHeight="7848" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="120" yWindow="300" windowWidth="15240" windowHeight="7848" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="8" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <sheet name="Removed - in AeroDyn later" sheetId="12" r:id="rId5"/>
     <sheet name="AeroDyn15" sheetId="20" r:id="rId6"/>
     <sheet name="Removed - in InflowWind later" sheetId="16" r:id="rId7"/>
+    <sheet name="BeamDyn" sheetId="21" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ElastoDyn!$A$1:$G$889</definedName>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7946" uniqueCount="4255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9350" uniqueCount="4733">
   <si>
     <t>Category</t>
   </si>
@@ -12812,6 +12813,1440 @@
   </si>
   <si>
     <t>Rotor aerodynamic thrust coefficient</t>
+  </si>
+  <si>
+    <t>RootFxr</t>
+  </si>
+  <si>
+    <t>Reaction Loads</t>
+  </si>
+  <si>
+    <t>RootFyr</t>
+  </si>
+  <si>
+    <t>RootFzr</t>
+  </si>
+  <si>
+    <t>r: a floating reference coordinate system fixed to the root of the moving beam; when coupled to FAST for blades, this is equivalent to the IEC blade (b) coordinate system</t>
+  </si>
+  <si>
+    <t>x-component of the root reaction force expressed in r</t>
+  </si>
+  <si>
+    <t>y-component of the root reaction force expressed in r</t>
+  </si>
+  <si>
+    <t>z-component of the root reaction force expressed in r</t>
+  </si>
+  <si>
+    <t>x-component of the root reaction moment expressed in r</t>
+  </si>
+  <si>
+    <t>y-component of the root reaction moment expressed in r</t>
+  </si>
+  <si>
+    <t>z-component of the root reaction moment expressed in r</t>
+  </si>
+  <si>
+    <t>RootMxr</t>
+  </si>
+  <si>
+    <t>RootMyr</t>
+  </si>
+  <si>
+    <t>RootMzr</t>
+  </si>
+  <si>
+    <t>Tip Motions</t>
+  </si>
+  <si>
+    <t>TipTDxr</t>
+  </si>
+  <si>
+    <t>TipTDyr</t>
+  </si>
+  <si>
+    <t>TipTDzr</t>
+  </si>
+  <si>
+    <t>TipRDxr</t>
+  </si>
+  <si>
+    <t>TipRDyr</t>
+  </si>
+  <si>
+    <t>TipRDzr</t>
+  </si>
+  <si>
+    <t>TipTVXg</t>
+  </si>
+  <si>
+    <t>TipTVYg</t>
+  </si>
+  <si>
+    <t>TipTVZg</t>
+  </si>
+  <si>
+    <t>TipRVXg</t>
+  </si>
+  <si>
+    <t>TipRVYg</t>
+  </si>
+  <si>
+    <t>TipRVZg</t>
+  </si>
+  <si>
+    <t>TipTAXg</t>
+  </si>
+  <si>
+    <t>TipTAYg</t>
+  </si>
+  <si>
+    <t>TipTAZg</t>
+  </si>
+  <si>
+    <t>TipRAXg</t>
+  </si>
+  <si>
+    <t>TipRAYg</t>
+  </si>
+  <si>
+    <t>TipRAZg</t>
+  </si>
+  <si>
+    <t>Tip translational deflection (relative to the undeflected position) expressed in r</t>
+  </si>
+  <si>
+    <t>Tip angular/rotational deflection Wiener-Milenković parameter (relative to the undeflected orientation) expressed in r</t>
+  </si>
+  <si>
+    <t>Tip translational velocities (absolute) expressed in g</t>
+  </si>
+  <si>
+    <t>Tip angular/rotational velocities (absolute) expressed in g</t>
+  </si>
+  <si>
+    <t>Tip translational accelerations (absolute) expressed in g</t>
+  </si>
+  <si>
+    <t>Tip angular/rotational accelerations (absolute) expressed in g</t>
+  </si>
+  <si>
+    <t>g: the global inertial frame coordinate system; when coupled to FAST, this is equivalent to FAST’s global inertial frame (i) coordinate system</t>
+  </si>
+  <si>
+    <t>Sectional Loads</t>
+  </si>
+  <si>
+    <t>N1Fxl</t>
+  </si>
+  <si>
+    <t>N2Fxl</t>
+  </si>
+  <si>
+    <t>N3Fxl</t>
+  </si>
+  <si>
+    <t>N4Fxl</t>
+  </si>
+  <si>
+    <t>N5Fxl</t>
+  </si>
+  <si>
+    <t>N6Fxl</t>
+  </si>
+  <si>
+    <t>N7Fxl</t>
+  </si>
+  <si>
+    <t>N8Fxl</t>
+  </si>
+  <si>
+    <t>N9Fxl</t>
+  </si>
+  <si>
+    <t>Sectional force resultants at Node 1 expressed in l</t>
+  </si>
+  <si>
+    <t>Sectional force resultants at Node 2 expressed in l</t>
+  </si>
+  <si>
+    <t>Sectional force resultants at Node 3 expressed in l</t>
+  </si>
+  <si>
+    <t>Sectional force resultants at Node 4 expressed in l</t>
+  </si>
+  <si>
+    <t>Sectional force resultants at Node 5 expressed in l</t>
+  </si>
+  <si>
+    <t>Sectional force resultants at Node 6 expressed in l</t>
+  </si>
+  <si>
+    <t>Sectional force resultants at Node 7 expressed in l</t>
+  </si>
+  <si>
+    <t>Sectional force resultants at Node 8 expressed in l</t>
+  </si>
+  <si>
+    <t>Sectional force resultants at Node 9 expressed in l</t>
+  </si>
+  <si>
+    <t>N1Fyl</t>
+  </si>
+  <si>
+    <t>N2Fyl</t>
+  </si>
+  <si>
+    <t>N3Fyl</t>
+  </si>
+  <si>
+    <t>N4Fyl</t>
+  </si>
+  <si>
+    <t>N5Fyl</t>
+  </si>
+  <si>
+    <t>N6Fyl</t>
+  </si>
+  <si>
+    <t>N7Fyl</t>
+  </si>
+  <si>
+    <t>N8Fyl</t>
+  </si>
+  <si>
+    <t>N9Fyl</t>
+  </si>
+  <si>
+    <t>N1Fzl</t>
+  </si>
+  <si>
+    <t>N2Fzl</t>
+  </si>
+  <si>
+    <t>N3Fzl</t>
+  </si>
+  <si>
+    <t>N4Fzl</t>
+  </si>
+  <si>
+    <t>N5Fzl</t>
+  </si>
+  <si>
+    <t>N6Fzl</t>
+  </si>
+  <si>
+    <t>N7Fzl</t>
+  </si>
+  <si>
+    <t>N8Fzl</t>
+  </si>
+  <si>
+    <t>N9Fzl</t>
+  </si>
+  <si>
+    <t>l: a floating coordinate system local to the deflected beam</t>
+  </si>
+  <si>
+    <t>N1Mxl</t>
+  </si>
+  <si>
+    <t>Sectional moment resultants at Node 1 expressed in l</t>
+  </si>
+  <si>
+    <t>N1Myl</t>
+  </si>
+  <si>
+    <t>N1Mzl</t>
+  </si>
+  <si>
+    <t>N2Mxl</t>
+  </si>
+  <si>
+    <t>Sectional moment resultants at Node 2 expressed in l</t>
+  </si>
+  <si>
+    <t>N2Myl</t>
+  </si>
+  <si>
+    <t>N2Mzl</t>
+  </si>
+  <si>
+    <t>N3Mxl</t>
+  </si>
+  <si>
+    <t>Sectional moment resultants at Node 3 expressed in l</t>
+  </si>
+  <si>
+    <t>N3Myl</t>
+  </si>
+  <si>
+    <t>N3Mzl</t>
+  </si>
+  <si>
+    <t>N4Mxl</t>
+  </si>
+  <si>
+    <t>Sectional moment resultants at Node 4 expressed in l</t>
+  </si>
+  <si>
+    <t>N4Myl</t>
+  </si>
+  <si>
+    <t>N4Mzl</t>
+  </si>
+  <si>
+    <t>N5Mxl</t>
+  </si>
+  <si>
+    <t>Sectional moment resultants at Node 5 expressed in l</t>
+  </si>
+  <si>
+    <t>N5Myl</t>
+  </si>
+  <si>
+    <t>N5Mzl</t>
+  </si>
+  <si>
+    <t>N6Mxl</t>
+  </si>
+  <si>
+    <t>Sectional moment resultants at Node 6 expressed in l</t>
+  </si>
+  <si>
+    <t>N6Myl</t>
+  </si>
+  <si>
+    <t>N6Mzl</t>
+  </si>
+  <si>
+    <t>N7Mxl</t>
+  </si>
+  <si>
+    <t>Sectional moment resultants at Node 7 expressed in l</t>
+  </si>
+  <si>
+    <t>N7Myl</t>
+  </si>
+  <si>
+    <t>N7Mzl</t>
+  </si>
+  <si>
+    <t>N8Mxl</t>
+  </si>
+  <si>
+    <t>Sectional moment resultants at Node 8 expressed in l</t>
+  </si>
+  <si>
+    <t>N8Myl</t>
+  </si>
+  <si>
+    <t>N8Mzl</t>
+  </si>
+  <si>
+    <t>N9Mxl</t>
+  </si>
+  <si>
+    <t>Sectional moment resultants at Node 9 expressed in l</t>
+  </si>
+  <si>
+    <t>N9Myl</t>
+  </si>
+  <si>
+    <t>N9Mzl</t>
+  </si>
+  <si>
+    <t>Sectional Motions</t>
+  </si>
+  <si>
+    <t>N1TDxr</t>
+  </si>
+  <si>
+    <t>Sectional translational deflection (relative to the undeflected position) at Node 1 expressed in r</t>
+  </si>
+  <si>
+    <t>N1TDyr</t>
+  </si>
+  <si>
+    <t>N1TDzr</t>
+  </si>
+  <si>
+    <t>N2TDxr</t>
+  </si>
+  <si>
+    <t>Sectional translational deflection (relative to the undeflected position) at Node 2 expressed in r</t>
+  </si>
+  <si>
+    <t>N2TDyr</t>
+  </si>
+  <si>
+    <t>N2TDzr</t>
+  </si>
+  <si>
+    <t>N3TDxr</t>
+  </si>
+  <si>
+    <t>Sectional translational deflection (relative to the undeflected position) at Node 3 expressed in r</t>
+  </si>
+  <si>
+    <t>N3TDyr</t>
+  </si>
+  <si>
+    <t>N3TDzr</t>
+  </si>
+  <si>
+    <t>N4TDxr</t>
+  </si>
+  <si>
+    <t>Sectional translational deflection (relative to the undeflected position) at Node 4 expressed in r</t>
+  </si>
+  <si>
+    <t>N4TDyr</t>
+  </si>
+  <si>
+    <t>N4TDzr</t>
+  </si>
+  <si>
+    <t>N5TDxr</t>
+  </si>
+  <si>
+    <t>Sectional translational deflection (relative to the undeflected position) at Node 5 expressed in r</t>
+  </si>
+  <si>
+    <t>N5TDyr</t>
+  </si>
+  <si>
+    <t>N5TDzr</t>
+  </si>
+  <si>
+    <t>N6TDxr</t>
+  </si>
+  <si>
+    <t>Sectional translational deflection (relative to the undeflected position) at Node 6 expressed in r</t>
+  </si>
+  <si>
+    <t>N6TDyr</t>
+  </si>
+  <si>
+    <t>N6TDzr</t>
+  </si>
+  <si>
+    <t>N7TDxr</t>
+  </si>
+  <si>
+    <t>Sectional translational deflection (relative to the undeflected position) at Node 7 expressed in r</t>
+  </si>
+  <si>
+    <t>N7TDyr</t>
+  </si>
+  <si>
+    <t>N7TDzr</t>
+  </si>
+  <si>
+    <t>N8TDxr</t>
+  </si>
+  <si>
+    <t>Sectional translational deflection (relative to the undeflected position) at Node 8 expressed in r</t>
+  </si>
+  <si>
+    <t>N8TDyr</t>
+  </si>
+  <si>
+    <t>N8TDzr</t>
+  </si>
+  <si>
+    <t>N9TDxr</t>
+  </si>
+  <si>
+    <t>Sectional translational deflection (relative to the undeflected position) at Node 9 expressed in r</t>
+  </si>
+  <si>
+    <t>N9TDyr</t>
+  </si>
+  <si>
+    <t>N9TDzr</t>
+  </si>
+  <si>
+    <t>N1RDxr</t>
+  </si>
+  <si>
+    <t>Sectional angular/rotational deflection Wiener-Milenkovic parameter (relative to the undeflected orientation) at Node 1 expressed in r</t>
+  </si>
+  <si>
+    <t>N1RDyr</t>
+  </si>
+  <si>
+    <t>N1RDzr</t>
+  </si>
+  <si>
+    <t>N2RDxr</t>
+  </si>
+  <si>
+    <t>Sectional angular/rotational deflection Wiener-Milenkovic parameter (relative to the undeflected orientation) at Node 2 expressed in r</t>
+  </si>
+  <si>
+    <t>N2RDyr</t>
+  </si>
+  <si>
+    <t>N2RDzr</t>
+  </si>
+  <si>
+    <t>N3RDxr</t>
+  </si>
+  <si>
+    <t>N3RDyr</t>
+  </si>
+  <si>
+    <t>N3RDzr</t>
+  </si>
+  <si>
+    <t>N4RDxr</t>
+  </si>
+  <si>
+    <t>N4RDyr</t>
+  </si>
+  <si>
+    <t>N4RDzr</t>
+  </si>
+  <si>
+    <t>N5RDxr</t>
+  </si>
+  <si>
+    <t>N5RDyr</t>
+  </si>
+  <si>
+    <t>N5RDzr</t>
+  </si>
+  <si>
+    <t>N6RDxr</t>
+  </si>
+  <si>
+    <t>N6RDyr</t>
+  </si>
+  <si>
+    <t>N6RDzr</t>
+  </si>
+  <si>
+    <t>N7RDxr</t>
+  </si>
+  <si>
+    <t>N7RDyr</t>
+  </si>
+  <si>
+    <t>N7RDzr</t>
+  </si>
+  <si>
+    <t>N8RDxr</t>
+  </si>
+  <si>
+    <t>N8RDyr</t>
+  </si>
+  <si>
+    <t>N8RDzr</t>
+  </si>
+  <si>
+    <t>N9RDxr</t>
+  </si>
+  <si>
+    <t>N9RDyr</t>
+  </si>
+  <si>
+    <t>N9RDzr</t>
+  </si>
+  <si>
+    <t>N1TVXg</t>
+  </si>
+  <si>
+    <t>Sectional translational velocities (absolute) at Node 1 expressed in g</t>
+  </si>
+  <si>
+    <t>N1TVYg</t>
+  </si>
+  <si>
+    <t>N1TVZg</t>
+  </si>
+  <si>
+    <t>N2TVXg</t>
+  </si>
+  <si>
+    <t>Sectional translational velocities (absolute) at Node 2 expressed in g</t>
+  </si>
+  <si>
+    <t>N2TVYg</t>
+  </si>
+  <si>
+    <t>N2TVZg</t>
+  </si>
+  <si>
+    <t>N3TVXg</t>
+  </si>
+  <si>
+    <t>Sectional translational velocities (absolute) at Node 3 expressed in g</t>
+  </si>
+  <si>
+    <t>N3TVYg</t>
+  </si>
+  <si>
+    <t>N3TVZg</t>
+  </si>
+  <si>
+    <t>N4TVXg</t>
+  </si>
+  <si>
+    <t>Sectional translational velocities (absolute) at Node 4 expressed in g</t>
+  </si>
+  <si>
+    <t>N4TVYg</t>
+  </si>
+  <si>
+    <t>N4TVZg</t>
+  </si>
+  <si>
+    <t>N5TVXg</t>
+  </si>
+  <si>
+    <t>Sectional translational velocities (absolute) at Node 5 expressed in g</t>
+  </si>
+  <si>
+    <t>N5TVYg</t>
+  </si>
+  <si>
+    <t>N5TVZg</t>
+  </si>
+  <si>
+    <t>N6TVXg</t>
+  </si>
+  <si>
+    <t>Sectional translational velocities (absolute) at Node 6 expressed in g</t>
+  </si>
+  <si>
+    <t>N6TVYg</t>
+  </si>
+  <si>
+    <t>N6TVZg</t>
+  </si>
+  <si>
+    <t>N7TVXg</t>
+  </si>
+  <si>
+    <t>Sectional translational velocities (absolute) at Node 7 expressed in g</t>
+  </si>
+  <si>
+    <t>N7TVYg</t>
+  </si>
+  <si>
+    <t>N7TVZg</t>
+  </si>
+  <si>
+    <t>N8TVXg</t>
+  </si>
+  <si>
+    <t>Sectional translational velocities (absolute) at Node 8 expressed in g</t>
+  </si>
+  <si>
+    <t>N8TVYg</t>
+  </si>
+  <si>
+    <t>N8TVZg</t>
+  </si>
+  <si>
+    <t>N9TVXg</t>
+  </si>
+  <si>
+    <t>Sectional translational velocities (absolute) at Node 9 expressed in g</t>
+  </si>
+  <si>
+    <t>N9TVYg</t>
+  </si>
+  <si>
+    <t>N9TVZg</t>
+  </si>
+  <si>
+    <t>Sectional angular/rotational deflection Wiener-Milenkovic parameter (relative to the undeflected orientation) at Node 3 expressed in r</t>
+  </si>
+  <si>
+    <t>Sectional angular/rotational deflection Wiener-Milenkovic parameter (relative to the undeflected orientation) at Node 4 expressed in r</t>
+  </si>
+  <si>
+    <t>Sectional angular/rotational deflection Wiener-Milenkovic parameter (relative to the undeflected orientation) at Node 5 expressed in r</t>
+  </si>
+  <si>
+    <t>Sectional angular/rotational deflection Wiener-Milenkovic parameter (relative to the undeflected orientation) at Node 6 expressed in r</t>
+  </si>
+  <si>
+    <t>Sectional angular/rotational deflection Wiener-Milenkovic parameter (relative to the undeflected orientation) at Node 7 expressed in r</t>
+  </si>
+  <si>
+    <t>Sectional angular/rotational deflection Wiener-Milenkovic parameter (relative to the undeflected orientation) at Node 8 expressed in r</t>
+  </si>
+  <si>
+    <t>Sectional angular/rotational deflection Wiener-Milenkovic parameter (relative to the undeflected orientation) at Node 9 expressed in r</t>
+  </si>
+  <si>
+    <t>N1RVXg</t>
+  </si>
+  <si>
+    <t>Sectional angular/rotational velocities (absolute) at Node 1 expressed in g</t>
+  </si>
+  <si>
+    <t>N1RVYg</t>
+  </si>
+  <si>
+    <t>N1RVZg</t>
+  </si>
+  <si>
+    <t>N2RVXg</t>
+  </si>
+  <si>
+    <t>Sectional angular/rotational velocities (absolute) at Node 2 expressed in g</t>
+  </si>
+  <si>
+    <t>N2RVYg</t>
+  </si>
+  <si>
+    <t>N2RVZg</t>
+  </si>
+  <si>
+    <t>N3RVXg</t>
+  </si>
+  <si>
+    <t>Sectional angular/rotational velocities (absolute) at Node 3 expressed in g</t>
+  </si>
+  <si>
+    <t>N3RVYg</t>
+  </si>
+  <si>
+    <t>N3RVZg</t>
+  </si>
+  <si>
+    <t>N4RVXg</t>
+  </si>
+  <si>
+    <t>Sectional angular/rotational velocities (absolute) at Node 4 expressed in g</t>
+  </si>
+  <si>
+    <t>N4RVYg</t>
+  </si>
+  <si>
+    <t>N4RVZg</t>
+  </si>
+  <si>
+    <t>N5RVXg</t>
+  </si>
+  <si>
+    <t>Sectional angular/rotational velocities (absolute) at Node 5 expressed in g</t>
+  </si>
+  <si>
+    <t>N5RVYg</t>
+  </si>
+  <si>
+    <t>N5RVZg</t>
+  </si>
+  <si>
+    <t>N6RVXg</t>
+  </si>
+  <si>
+    <t>Sectional angular/rotational velocities (absolute) at Node 6 expressed in g</t>
+  </si>
+  <si>
+    <t>N6RVYg</t>
+  </si>
+  <si>
+    <t>N6RVZg</t>
+  </si>
+  <si>
+    <t>N7RVXg</t>
+  </si>
+  <si>
+    <t>Sectional angular/rotational velocities (absolute) at Node 7 expressed in g</t>
+  </si>
+  <si>
+    <t>N7RVYg</t>
+  </si>
+  <si>
+    <t>N7RVZg</t>
+  </si>
+  <si>
+    <t>N8RVXg</t>
+  </si>
+  <si>
+    <t>Sectional angular/rotational velocities (absolute) at Node 8 expressed in g</t>
+  </si>
+  <si>
+    <t>N8RVYg</t>
+  </si>
+  <si>
+    <t>N8RVZg</t>
+  </si>
+  <si>
+    <t>N9RVXg</t>
+  </si>
+  <si>
+    <t>Sectional angular/rotational velocities (absolute) at Node 9 expressed in g</t>
+  </si>
+  <si>
+    <t>N9RVYg</t>
+  </si>
+  <si>
+    <t>N9RVZg</t>
+  </si>
+  <si>
+    <t>N1TAXg</t>
+  </si>
+  <si>
+    <t>Sectional translational accelerations (absolute) at Node 1 expressed in g</t>
+  </si>
+  <si>
+    <t>N1TAYg</t>
+  </si>
+  <si>
+    <t>N1TAZg</t>
+  </si>
+  <si>
+    <t>N2TAXg</t>
+  </si>
+  <si>
+    <t>Sectional translational accelerations (absolute) at Node 2 expressed in g</t>
+  </si>
+  <si>
+    <t>N2TAYg</t>
+  </si>
+  <si>
+    <t>N2TAZg</t>
+  </si>
+  <si>
+    <t>N3TAXg</t>
+  </si>
+  <si>
+    <t>Sectional translational accelerations (absolute) at Node 3 expressed in g</t>
+  </si>
+  <si>
+    <t>N3TAYg</t>
+  </si>
+  <si>
+    <t>N3TAZg</t>
+  </si>
+  <si>
+    <t>N4TAXg</t>
+  </si>
+  <si>
+    <t>Sectional translational accelerations (absolute) at Node 4 expressed in g</t>
+  </si>
+  <si>
+    <t>N4TAYg</t>
+  </si>
+  <si>
+    <t>N4TAZg</t>
+  </si>
+  <si>
+    <t>N5TAXg</t>
+  </si>
+  <si>
+    <t>Sectional translational accelerations (absolute) at Node 5 expressed in g</t>
+  </si>
+  <si>
+    <t>N5TAYg</t>
+  </si>
+  <si>
+    <t>N5TAZg</t>
+  </si>
+  <si>
+    <t>N6TAXg</t>
+  </si>
+  <si>
+    <t>Sectional translational accelerations (absolute) at Node 6 expressed in g</t>
+  </si>
+  <si>
+    <t>N6TAYg</t>
+  </si>
+  <si>
+    <t>N6TAZg</t>
+  </si>
+  <si>
+    <t>N7TAXg</t>
+  </si>
+  <si>
+    <t>Sectional translational accelerations (absolute) at Node 7 expressed in g</t>
+  </si>
+  <si>
+    <t>N7TAYg</t>
+  </si>
+  <si>
+    <t>N7TAZg</t>
+  </si>
+  <si>
+    <t>N8TAXg</t>
+  </si>
+  <si>
+    <t>Sectional translational accelerations (absolute) at Node 8 expressed in g</t>
+  </si>
+  <si>
+    <t>N8TAYg</t>
+  </si>
+  <si>
+    <t>N8TAZg</t>
+  </si>
+  <si>
+    <t>N9TAXg</t>
+  </si>
+  <si>
+    <t>Sectional translational accelerations (absolute) at Node 9 expressed in g</t>
+  </si>
+  <si>
+    <t>N9TAYg</t>
+  </si>
+  <si>
+    <t>N9TAZg</t>
+  </si>
+  <si>
+    <t>N1RAXg</t>
+  </si>
+  <si>
+    <t>Sectional angular/rotational accelerations (absolute) at Node 1 expressed in g</t>
+  </si>
+  <si>
+    <t>N1RAYg</t>
+  </si>
+  <si>
+    <t>N1RAZg</t>
+  </si>
+  <si>
+    <t>N2RAXg</t>
+  </si>
+  <si>
+    <t>Sectional angular/rotational accelerations (absolute) at Node 2 expressed in g</t>
+  </si>
+  <si>
+    <t>N2RAYg</t>
+  </si>
+  <si>
+    <t>N2RAZg</t>
+  </si>
+  <si>
+    <t>N3RAXg</t>
+  </si>
+  <si>
+    <t>Sectional angular/rotational accelerations (absolute) at Node 3 expressed in g</t>
+  </si>
+  <si>
+    <t>N3RAYg</t>
+  </si>
+  <si>
+    <t>N3RAZg</t>
+  </si>
+  <si>
+    <t>N4RAXg</t>
+  </si>
+  <si>
+    <t>Sectional angular/rotational accelerations (absolute) at Node 4 expressed in g</t>
+  </si>
+  <si>
+    <t>N4RAYg</t>
+  </si>
+  <si>
+    <t>N4RAZg</t>
+  </si>
+  <si>
+    <t>N5RAXg</t>
+  </si>
+  <si>
+    <t>Sectional angular/rotational accelerations (absolute) at Node 5 expressed in g</t>
+  </si>
+  <si>
+    <t>N5RAYg</t>
+  </si>
+  <si>
+    <t>N5RAZg</t>
+  </si>
+  <si>
+    <t>N6RAXg</t>
+  </si>
+  <si>
+    <t>Sectional angular/rotational accelerations (absolute) at Node 6 expressed in g</t>
+  </si>
+  <si>
+    <t>N6RAYg</t>
+  </si>
+  <si>
+    <t>N6RAZg</t>
+  </si>
+  <si>
+    <t>N7RAXg</t>
+  </si>
+  <si>
+    <t>Sectional angular/rotational accelerations (absolute) at Node 7 expressed in g</t>
+  </si>
+  <si>
+    <t>N7RAYg</t>
+  </si>
+  <si>
+    <t>N7RAZg</t>
+  </si>
+  <si>
+    <t>N8RAXg</t>
+  </si>
+  <si>
+    <t>Sectional angular/rotational accelerations (absolute) at Node 8 expressed in g</t>
+  </si>
+  <si>
+    <t>N8RAYg</t>
+  </si>
+  <si>
+    <t>N8RAZg</t>
+  </si>
+  <si>
+    <t>N9RAXg</t>
+  </si>
+  <si>
+    <t>Sectional angular/rotational accelerations (absolute) at Node 9 expressed in g</t>
+  </si>
+  <si>
+    <t>N9RAYg</t>
+  </si>
+  <si>
+    <t>N9RAZg</t>
+  </si>
+  <si>
+    <t>Applied Loads</t>
+  </si>
+  <si>
+    <t>N1PFxl</t>
+  </si>
+  <si>
+    <t>Applied point forces at Node 1 expressed in l</t>
+  </si>
+  <si>
+    <t>N1PFyl</t>
+  </si>
+  <si>
+    <t>N1PFzl</t>
+  </si>
+  <si>
+    <t>N2PFxl</t>
+  </si>
+  <si>
+    <t>Applied point forces at Node 2 expressed in l</t>
+  </si>
+  <si>
+    <t>N2PFyl</t>
+  </si>
+  <si>
+    <t>N2PFzl</t>
+  </si>
+  <si>
+    <t>N3PFxl</t>
+  </si>
+  <si>
+    <t>Applied point forces at Node 3 expressed in l</t>
+  </si>
+  <si>
+    <t>N3PFyl</t>
+  </si>
+  <si>
+    <t>N3PFzl</t>
+  </si>
+  <si>
+    <t>N4PFxl</t>
+  </si>
+  <si>
+    <t>Applied point forces at Node 4 expressed in l</t>
+  </si>
+  <si>
+    <t>N4PFyl</t>
+  </si>
+  <si>
+    <t>N4PFzl</t>
+  </si>
+  <si>
+    <t>N5PFxl</t>
+  </si>
+  <si>
+    <t>Applied point forces at Node 5 expressed in l</t>
+  </si>
+  <si>
+    <t>N5PFyl</t>
+  </si>
+  <si>
+    <t>N5PFzl</t>
+  </si>
+  <si>
+    <t>N6PFxl</t>
+  </si>
+  <si>
+    <t>Applied point forces at Node 6 expressed in l</t>
+  </si>
+  <si>
+    <t>N6PFyl</t>
+  </si>
+  <si>
+    <t>N6PFzl</t>
+  </si>
+  <si>
+    <t>N7PFxl</t>
+  </si>
+  <si>
+    <t>Applied point forces at Node 7 expressed in l</t>
+  </si>
+  <si>
+    <t>N7PFyl</t>
+  </si>
+  <si>
+    <t>N7PFzl</t>
+  </si>
+  <si>
+    <t>N8PFxl</t>
+  </si>
+  <si>
+    <t>Applied point forces at Node 8 expressed in l</t>
+  </si>
+  <si>
+    <t>N8PFyl</t>
+  </si>
+  <si>
+    <t>N8PFzl</t>
+  </si>
+  <si>
+    <t>N9PFxl</t>
+  </si>
+  <si>
+    <t>Applied point forces at Node 9 expressed in l</t>
+  </si>
+  <si>
+    <t>N9PFyl</t>
+  </si>
+  <si>
+    <t>N9PFzl</t>
+  </si>
+  <si>
+    <t>N1PMxl</t>
+  </si>
+  <si>
+    <t>Applied point moments at Node 1 expressed in l</t>
+  </si>
+  <si>
+    <t>N1PMyl</t>
+  </si>
+  <si>
+    <t>N1PMzl</t>
+  </si>
+  <si>
+    <t>N2PMxl</t>
+  </si>
+  <si>
+    <t>Applied point moments at Node 2 expressed in l</t>
+  </si>
+  <si>
+    <t>N2PMyl</t>
+  </si>
+  <si>
+    <t>N2PMzl</t>
+  </si>
+  <si>
+    <t>N3PMxl</t>
+  </si>
+  <si>
+    <t>Applied point moments at Node 3 expressed in l</t>
+  </si>
+  <si>
+    <t>N3PMyl</t>
+  </si>
+  <si>
+    <t>N3PMzl</t>
+  </si>
+  <si>
+    <t>N4PMxl</t>
+  </si>
+  <si>
+    <t>Applied point moments at Node 4 expressed in l</t>
+  </si>
+  <si>
+    <t>N4PMyl</t>
+  </si>
+  <si>
+    <t>N4PMzl</t>
+  </si>
+  <si>
+    <t>N5PMxl</t>
+  </si>
+  <si>
+    <t>Applied point moments at Node 5 expressed in l</t>
+  </si>
+  <si>
+    <t>N5PMyl</t>
+  </si>
+  <si>
+    <t>N5PMzl</t>
+  </si>
+  <si>
+    <t>N6PMxl</t>
+  </si>
+  <si>
+    <t>Applied point moments at Node 6 expressed in l</t>
+  </si>
+  <si>
+    <t>N6PMyl</t>
+  </si>
+  <si>
+    <t>N6PMzl</t>
+  </si>
+  <si>
+    <t>N7PMxl</t>
+  </si>
+  <si>
+    <t>Applied point moments at Node 7 expressed in l</t>
+  </si>
+  <si>
+    <t>N7PMyl</t>
+  </si>
+  <si>
+    <t>N7PMzl</t>
+  </si>
+  <si>
+    <t>N8PMxl</t>
+  </si>
+  <si>
+    <t>Applied point moments at Node 8 expressed in l</t>
+  </si>
+  <si>
+    <t>N8PMyl</t>
+  </si>
+  <si>
+    <t>N8PMzl</t>
+  </si>
+  <si>
+    <t>N9PMxl</t>
+  </si>
+  <si>
+    <t>Applied point moments at Node 9 expressed in l</t>
+  </si>
+  <si>
+    <t>N9PMyl</t>
+  </si>
+  <si>
+    <t>N9PMzl</t>
+  </si>
+  <si>
+    <t>N1DFxl</t>
+  </si>
+  <si>
+    <t>Applied distributed forces at Node 1 expressed in l</t>
+  </si>
+  <si>
+    <t>N1DFyl</t>
+  </si>
+  <si>
+    <t>N1DFzl</t>
+  </si>
+  <si>
+    <t>N2DFxl</t>
+  </si>
+  <si>
+    <t>Applied distributed forces at Node 2 expressed in l</t>
+  </si>
+  <si>
+    <t>N2DFyl</t>
+  </si>
+  <si>
+    <t>N2DFzl</t>
+  </si>
+  <si>
+    <t>N3DFxl</t>
+  </si>
+  <si>
+    <t>Applied distributed forces at Node 3 expressed in l</t>
+  </si>
+  <si>
+    <t>N3DFyl</t>
+  </si>
+  <si>
+    <t>N3DFzl</t>
+  </si>
+  <si>
+    <t>N4DFxl</t>
+  </si>
+  <si>
+    <t>Applied distributed forces at Node 4 expressed in l</t>
+  </si>
+  <si>
+    <t>N4DFyl</t>
+  </si>
+  <si>
+    <t>N4DFzl</t>
+  </si>
+  <si>
+    <t>N5DFxl</t>
+  </si>
+  <si>
+    <t>Applied distributed forces at Node 5 expressed in l</t>
+  </si>
+  <si>
+    <t>N5DFyl</t>
+  </si>
+  <si>
+    <t>N5DFzl</t>
+  </si>
+  <si>
+    <t>N6DFxl</t>
+  </si>
+  <si>
+    <t>Applied distributed forces at Node 6 expressed in l</t>
+  </si>
+  <si>
+    <t>N6DFyl</t>
+  </si>
+  <si>
+    <t>N6DFzl</t>
+  </si>
+  <si>
+    <t>N7DFxl</t>
+  </si>
+  <si>
+    <t>Applied distributed forces at Node 7 expressed in l</t>
+  </si>
+  <si>
+    <t>N7DFyl</t>
+  </si>
+  <si>
+    <t>N7DFzl</t>
+  </si>
+  <si>
+    <t>N8DFxl</t>
+  </si>
+  <si>
+    <t>Applied distributed forces at Node 8 expressed in l</t>
+  </si>
+  <si>
+    <t>N8DFyl</t>
+  </si>
+  <si>
+    <t>N8DFzl</t>
+  </si>
+  <si>
+    <t>N9DFxl</t>
+  </si>
+  <si>
+    <t>Applied distributed forces at Node 9 expressed in l</t>
+  </si>
+  <si>
+    <t>N9DFyl</t>
+  </si>
+  <si>
+    <t>N9DFzl</t>
+  </si>
+  <si>
+    <t>N1DMxl</t>
+  </si>
+  <si>
+    <t>Applied distributed moments at Node 1 expressed in l</t>
+  </si>
+  <si>
+    <t>N1DMyl</t>
+  </si>
+  <si>
+    <t>N1DMzl</t>
+  </si>
+  <si>
+    <t>N2DMxl</t>
+  </si>
+  <si>
+    <t>Applied distributed moments at Node 2 expressed in l</t>
+  </si>
+  <si>
+    <t>N2DMyl</t>
+  </si>
+  <si>
+    <t>N2DMzl</t>
+  </si>
+  <si>
+    <t>N3DMxl</t>
+  </si>
+  <si>
+    <t>Applied distributed moments at Node 3 expressed in l</t>
+  </si>
+  <si>
+    <t>N3DMyl</t>
+  </si>
+  <si>
+    <t>N3DMzl</t>
+  </si>
+  <si>
+    <t>N4DMxl</t>
+  </si>
+  <si>
+    <t>Applied distributed moments at Node 4 expressed in l</t>
+  </si>
+  <si>
+    <t>N4DMyl</t>
+  </si>
+  <si>
+    <t>N4DMzl</t>
+  </si>
+  <si>
+    <t>N5DMxl</t>
+  </si>
+  <si>
+    <t>Applied distributed moments at Node 5 expressed in l</t>
+  </si>
+  <si>
+    <t>N5DMyl</t>
+  </si>
+  <si>
+    <t>N5DMzl</t>
+  </si>
+  <si>
+    <t>N6DMxl</t>
+  </si>
+  <si>
+    <t>Applied distributed moments at Node 6 expressed in l</t>
+  </si>
+  <si>
+    <t>N6DMyl</t>
+  </si>
+  <si>
+    <t>N6DMzl</t>
+  </si>
+  <si>
+    <t>N7DMxl</t>
+  </si>
+  <si>
+    <t>Applied distributed moments at Node 7 expressed in l</t>
+  </si>
+  <si>
+    <t>N7DMyl</t>
+  </si>
+  <si>
+    <t>N7DMzl</t>
+  </si>
+  <si>
+    <t>N8DMxl</t>
+  </si>
+  <si>
+    <t>Applied distributed moments at Node 8 expressed in l</t>
+  </si>
+  <si>
+    <t>N8DMyl</t>
+  </si>
+  <si>
+    <t>N8DMzl</t>
+  </si>
+  <si>
+    <t>N9DMxl</t>
+  </si>
+  <si>
+    <t>Applied distributed moments at Node 9 expressed in l</t>
+  </si>
+  <si>
+    <t>N9DMyl</t>
+  </si>
+  <si>
+    <t>N9DMzl</t>
+  </si>
+  <si>
+    <t>(N-m)</t>
+  </si>
+  <si>
+    <t>(N-m/m)</t>
   </si>
 </sst>
 </file>
@@ -12883,7 +14318,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -12913,6 +14348,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -28612,7 +30050,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1080"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -41984,4 +43424,5106 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G354"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="59.33203125" style="12" customWidth="1"/>
+    <col min="5" max="5" width="77.21875" style="12" customWidth="1"/>
+    <col min="6" max="6" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>1116</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>1117</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>4256</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4" t="s">
+        <v>4255</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7" t="s">
+        <v>4260</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>4259</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>4236</v>
+      </c>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4" t="s">
+        <v>4257</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7" t="s">
+        <v>4261</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>4259</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>4236</v>
+      </c>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4" t="s">
+        <v>4258</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7" t="s">
+        <v>4262</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>4259</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>4236</v>
+      </c>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4" t="s">
+        <v>4266</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7" t="s">
+        <v>4263</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>4259</v>
+      </c>
+      <c r="F6" t="s">
+        <v>4731</v>
+      </c>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4" t="s">
+        <v>4267</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7" t="s">
+        <v>4264</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>4259</v>
+      </c>
+      <c r="F7" t="s">
+        <v>4731</v>
+      </c>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4" t="s">
+        <v>4268</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7" t="s">
+        <v>4265</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>4259</v>
+      </c>
+      <c r="F8" t="s">
+        <v>4731</v>
+      </c>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>4269</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B10" s="4" t="s">
+        <v>4270</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>4288</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>4259</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B11" s="4" t="s">
+        <v>4271</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>4288</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>4259</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B12" s="4" t="s">
+        <v>4272</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>4288</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>4259</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B13" s="4" t="s">
+        <v>4273</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>4289</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>4259</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B14" s="4" t="s">
+        <v>4274</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>4289</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>4259</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B15" s="4" t="s">
+        <v>4275</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>4289</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>4259</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B16" s="4" t="s">
+        <v>4276</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>4290</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>4294</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B17" s="4" t="s">
+        <v>4277</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>4290</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>4294</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B18" s="4" t="s">
+        <v>4278</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>4290</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>4294</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B19" s="4" t="s">
+        <v>4279</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>4291</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>4294</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B20" s="4" t="s">
+        <v>4280</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>4291</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>4294</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B21" s="4" t="s">
+        <v>4281</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>4291</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>4294</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B22" s="4" t="s">
+        <v>4282</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>4292</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>4294</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B23" s="4" t="s">
+        <v>4283</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>4292</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>4294</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B24" s="4" t="s">
+        <v>4284</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>4292</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>4294</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B25" s="4" t="s">
+        <v>4285</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>4293</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>4294</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B26" s="4" t="s">
+        <v>4286</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>4293</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>4294</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B27" s="4" t="s">
+        <v>4287</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>4293</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>4294</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>4295</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B29" s="4" t="s">
+        <v>4296</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>4305</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>4236</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>4314</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>4305</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>4236</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>4323</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>4305</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>4236</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>4297</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>4306</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>4236</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>4315</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>4306</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>4236</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>4324</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>4306</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>4236</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>4298</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>4307</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>4236</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>4316</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>4307</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>4236</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>4325</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>4307</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>4236</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>4299</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>4308</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>4236</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>4317</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>4308</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>4236</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>4326</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>4308</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>4236</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>4300</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>4309</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>4236</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>4318</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>4309</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>4236</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>4327</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>4309</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>4236</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>4301</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>4310</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>4236</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>4319</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>4310</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>4236</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>4328</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>4310</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>4236</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>4302</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>4311</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>4236</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>4320</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>4311</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>4236</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>4329</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>4311</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>4236</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>4303</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>4312</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>4236</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
+        <v>4321</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>4312</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>4236</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>4330</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>4312</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>4236</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>4304</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>4313</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>4236</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
+        <v>4322</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>4313</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>4236</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
+        <v>4331</v>
+      </c>
+      <c r="D55" s="12" t="s">
+        <v>4313</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>4236</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
+        <v>4333</v>
+      </c>
+      <c r="D56" s="12" t="s">
+        <v>4334</v>
+      </c>
+      <c r="E56" s="12" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F56" t="s">
+        <v>4731</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
+        <v>4335</v>
+      </c>
+      <c r="D57" s="12" t="s">
+        <v>4334</v>
+      </c>
+      <c r="E57" s="12" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F57" t="s">
+        <v>4731</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B58" t="s">
+        <v>4336</v>
+      </c>
+      <c r="D58" s="12" t="s">
+        <v>4334</v>
+      </c>
+      <c r="E58" s="12" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F58" t="s">
+        <v>4731</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B59" t="s">
+        <v>4337</v>
+      </c>
+      <c r="D59" s="12" t="s">
+        <v>4338</v>
+      </c>
+      <c r="E59" s="12" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F59" t="s">
+        <v>4731</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
+        <v>4339</v>
+      </c>
+      <c r="D60" s="12" t="s">
+        <v>4338</v>
+      </c>
+      <c r="E60" s="12" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F60" t="s">
+        <v>4731</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B61" t="s">
+        <v>4340</v>
+      </c>
+      <c r="D61" s="12" t="s">
+        <v>4338</v>
+      </c>
+      <c r="E61" s="12" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F61" t="s">
+        <v>4731</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B62" t="s">
+        <v>4341</v>
+      </c>
+      <c r="D62" s="12" t="s">
+        <v>4342</v>
+      </c>
+      <c r="E62" s="12" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F62" t="s">
+        <v>4731</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B63" t="s">
+        <v>4343</v>
+      </c>
+      <c r="D63" s="12" t="s">
+        <v>4342</v>
+      </c>
+      <c r="E63" s="12" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F63" t="s">
+        <v>4731</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B64" t="s">
+        <v>4344</v>
+      </c>
+      <c r="D64" s="12" t="s">
+        <v>4342</v>
+      </c>
+      <c r="E64" s="12" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F64" t="s">
+        <v>4731</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B65" t="s">
+        <v>4345</v>
+      </c>
+      <c r="D65" s="12" t="s">
+        <v>4346</v>
+      </c>
+      <c r="E65" s="12" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F65" t="s">
+        <v>4731</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B66" t="s">
+        <v>4347</v>
+      </c>
+      <c r="D66" s="12" t="s">
+        <v>4346</v>
+      </c>
+      <c r="E66" s="12" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F66" t="s">
+        <v>4731</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B67" t="s">
+        <v>4348</v>
+      </c>
+      <c r="D67" s="12" t="s">
+        <v>4346</v>
+      </c>
+      <c r="E67" s="12" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F67" t="s">
+        <v>4731</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B68" t="s">
+        <v>4349</v>
+      </c>
+      <c r="D68" s="12" t="s">
+        <v>4350</v>
+      </c>
+      <c r="E68" s="12" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F68" t="s">
+        <v>4731</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B69" t="s">
+        <v>4351</v>
+      </c>
+      <c r="D69" s="12" t="s">
+        <v>4350</v>
+      </c>
+      <c r="E69" s="12" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F69" t="s">
+        <v>4731</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B70" t="s">
+        <v>4352</v>
+      </c>
+      <c r="D70" s="12" t="s">
+        <v>4350</v>
+      </c>
+      <c r="E70" s="12" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F70" t="s">
+        <v>4731</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B71" t="s">
+        <v>4353</v>
+      </c>
+      <c r="D71" s="12" t="s">
+        <v>4354</v>
+      </c>
+      <c r="E71" s="12" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F71" t="s">
+        <v>4731</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B72" t="s">
+        <v>4355</v>
+      </c>
+      <c r="D72" s="12" t="s">
+        <v>4354</v>
+      </c>
+      <c r="E72" s="12" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F72" t="s">
+        <v>4731</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B73" t="s">
+        <v>4356</v>
+      </c>
+      <c r="D73" s="12" t="s">
+        <v>4354</v>
+      </c>
+      <c r="E73" s="12" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F73" t="s">
+        <v>4731</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B74" t="s">
+        <v>4357</v>
+      </c>
+      <c r="D74" s="12" t="s">
+        <v>4358</v>
+      </c>
+      <c r="E74" s="12" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F74" t="s">
+        <v>4731</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B75" t="s">
+        <v>4359</v>
+      </c>
+      <c r="D75" s="12" t="s">
+        <v>4358</v>
+      </c>
+      <c r="E75" s="12" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F75" t="s">
+        <v>4731</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B76" t="s">
+        <v>4360</v>
+      </c>
+      <c r="D76" s="12" t="s">
+        <v>4358</v>
+      </c>
+      <c r="E76" s="12" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F76" t="s">
+        <v>4731</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B77" t="s">
+        <v>4361</v>
+      </c>
+      <c r="D77" s="12" t="s">
+        <v>4362</v>
+      </c>
+      <c r="E77" s="12" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F77" t="s">
+        <v>4731</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B78" t="s">
+        <v>4363</v>
+      </c>
+      <c r="D78" s="12" t="s">
+        <v>4362</v>
+      </c>
+      <c r="E78" s="12" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F78" t="s">
+        <v>4731</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B79" t="s">
+        <v>4364</v>
+      </c>
+      <c r="D79" s="12" t="s">
+        <v>4362</v>
+      </c>
+      <c r="E79" s="12" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F79" t="s">
+        <v>4731</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B80" t="s">
+        <v>4365</v>
+      </c>
+      <c r="D80" s="12" t="s">
+        <v>4366</v>
+      </c>
+      <c r="E80" s="12" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F80" t="s">
+        <v>4731</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B81" t="s">
+        <v>4367</v>
+      </c>
+      <c r="D81" s="12" t="s">
+        <v>4366</v>
+      </c>
+      <c r="E81" s="12" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F81" t="s">
+        <v>4731</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B82" t="s">
+        <v>4368</v>
+      </c>
+      <c r="D82" s="12" t="s">
+        <v>4366</v>
+      </c>
+      <c r="E82" s="12" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F82" t="s">
+        <v>4731</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83" s="3" t="s">
+        <v>4369</v>
+      </c>
+      <c r="B83" s="3"/>
+      <c r="C83" s="6"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="6"/>
+      <c r="F83" s="3"/>
+      <c r="G83" s="3"/>
+    </row>
+    <row r="84" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B84" t="s">
+        <v>4370</v>
+      </c>
+      <c r="D84" s="12" t="s">
+        <v>4371</v>
+      </c>
+      <c r="E84" s="7" t="s">
+        <v>4259</v>
+      </c>
+      <c r="F84" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B85" t="s">
+        <v>4372</v>
+      </c>
+      <c r="D85" s="12" t="s">
+        <v>4371</v>
+      </c>
+      <c r="E85" s="7" t="s">
+        <v>4259</v>
+      </c>
+      <c r="F85" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B86" t="s">
+        <v>4373</v>
+      </c>
+      <c r="D86" s="12" t="s">
+        <v>4371</v>
+      </c>
+      <c r="E86" s="7" t="s">
+        <v>4259</v>
+      </c>
+      <c r="F86" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B87" t="s">
+        <v>4374</v>
+      </c>
+      <c r="D87" s="12" t="s">
+        <v>4375</v>
+      </c>
+      <c r="E87" s="7" t="s">
+        <v>4259</v>
+      </c>
+      <c r="F87" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B88" t="s">
+        <v>4376</v>
+      </c>
+      <c r="D88" s="12" t="s">
+        <v>4375</v>
+      </c>
+      <c r="E88" s="7" t="s">
+        <v>4259</v>
+      </c>
+      <c r="F88" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B89" t="s">
+        <v>4377</v>
+      </c>
+      <c r="D89" s="12" t="s">
+        <v>4375</v>
+      </c>
+      <c r="E89" s="7" t="s">
+        <v>4259</v>
+      </c>
+      <c r="F89" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B90" t="s">
+        <v>4378</v>
+      </c>
+      <c r="D90" s="12" t="s">
+        <v>4379</v>
+      </c>
+      <c r="E90" s="7" t="s">
+        <v>4259</v>
+      </c>
+      <c r="F90" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B91" t="s">
+        <v>4380</v>
+      </c>
+      <c r="D91" s="12" t="s">
+        <v>4379</v>
+      </c>
+      <c r="E91" s="7" t="s">
+        <v>4259</v>
+      </c>
+      <c r="F91" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B92" t="s">
+        <v>4381</v>
+      </c>
+      <c r="D92" s="12" t="s">
+        <v>4379</v>
+      </c>
+      <c r="E92" s="7" t="s">
+        <v>4259</v>
+      </c>
+      <c r="F92" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B93" t="s">
+        <v>4382</v>
+      </c>
+      <c r="D93" s="12" t="s">
+        <v>4383</v>
+      </c>
+      <c r="E93" s="7" t="s">
+        <v>4259</v>
+      </c>
+      <c r="F93" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B94" t="s">
+        <v>4384</v>
+      </c>
+      <c r="D94" s="12" t="s">
+        <v>4383</v>
+      </c>
+      <c r="E94" s="7" t="s">
+        <v>4259</v>
+      </c>
+      <c r="F94" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B95" t="s">
+        <v>4385</v>
+      </c>
+      <c r="D95" s="12" t="s">
+        <v>4383</v>
+      </c>
+      <c r="E95" s="7" t="s">
+        <v>4259</v>
+      </c>
+      <c r="F95" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B96" t="s">
+        <v>4386</v>
+      </c>
+      <c r="D96" s="12" t="s">
+        <v>4387</v>
+      </c>
+      <c r="E96" s="7" t="s">
+        <v>4259</v>
+      </c>
+      <c r="F96" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="97" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B97" t="s">
+        <v>4388</v>
+      </c>
+      <c r="D97" s="12" t="s">
+        <v>4387</v>
+      </c>
+      <c r="E97" s="7" t="s">
+        <v>4259</v>
+      </c>
+      <c r="F97" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="98" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B98" t="s">
+        <v>4389</v>
+      </c>
+      <c r="D98" s="12" t="s">
+        <v>4387</v>
+      </c>
+      <c r="E98" s="7" t="s">
+        <v>4259</v>
+      </c>
+      <c r="F98" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="99" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B99" t="s">
+        <v>4390</v>
+      </c>
+      <c r="D99" s="12" t="s">
+        <v>4391</v>
+      </c>
+      <c r="E99" s="7" t="s">
+        <v>4259</v>
+      </c>
+      <c r="F99" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="100" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B100" t="s">
+        <v>4392</v>
+      </c>
+      <c r="D100" s="12" t="s">
+        <v>4391</v>
+      </c>
+      <c r="E100" s="7" t="s">
+        <v>4259</v>
+      </c>
+      <c r="F100" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="101" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B101" t="s">
+        <v>4393</v>
+      </c>
+      <c r="D101" s="12" t="s">
+        <v>4391</v>
+      </c>
+      <c r="E101" s="7" t="s">
+        <v>4259</v>
+      </c>
+      <c r="F101" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="102" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B102" t="s">
+        <v>4394</v>
+      </c>
+      <c r="D102" s="12" t="s">
+        <v>4395</v>
+      </c>
+      <c r="E102" s="7" t="s">
+        <v>4259</v>
+      </c>
+      <c r="F102" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="103" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B103" t="s">
+        <v>4396</v>
+      </c>
+      <c r="D103" s="12" t="s">
+        <v>4395</v>
+      </c>
+      <c r="E103" s="7" t="s">
+        <v>4259</v>
+      </c>
+      <c r="F103" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="104" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B104" t="s">
+        <v>4397</v>
+      </c>
+      <c r="D104" s="12" t="s">
+        <v>4395</v>
+      </c>
+      <c r="E104" s="7" t="s">
+        <v>4259</v>
+      </c>
+      <c r="F104" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="105" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B105" t="s">
+        <v>4398</v>
+      </c>
+      <c r="D105" s="12" t="s">
+        <v>4399</v>
+      </c>
+      <c r="E105" s="7" t="s">
+        <v>4259</v>
+      </c>
+      <c r="F105" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="106" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B106" t="s">
+        <v>4400</v>
+      </c>
+      <c r="D106" s="12" t="s">
+        <v>4399</v>
+      </c>
+      <c r="E106" s="7" t="s">
+        <v>4259</v>
+      </c>
+      <c r="F106" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="107" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B107" t="s">
+        <v>4401</v>
+      </c>
+      <c r="D107" s="12" t="s">
+        <v>4399</v>
+      </c>
+      <c r="E107" s="7" t="s">
+        <v>4259</v>
+      </c>
+      <c r="F107" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="108" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B108" t="s">
+        <v>4402</v>
+      </c>
+      <c r="D108" s="12" t="s">
+        <v>4403</v>
+      </c>
+      <c r="E108" s="7" t="s">
+        <v>4259</v>
+      </c>
+      <c r="F108" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="109" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B109" t="s">
+        <v>4404</v>
+      </c>
+      <c r="D109" s="12" t="s">
+        <v>4403</v>
+      </c>
+      <c r="E109" s="7" t="s">
+        <v>4259</v>
+      </c>
+      <c r="F109" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="110" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B110" t="s">
+        <v>4405</v>
+      </c>
+      <c r="D110" s="12" t="s">
+        <v>4403</v>
+      </c>
+      <c r="E110" s="7" t="s">
+        <v>4259</v>
+      </c>
+      <c r="F110" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="111" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B111" s="12" t="s">
+        <v>4406</v>
+      </c>
+      <c r="C111" s="12"/>
+      <c r="D111" s="12" t="s">
+        <v>4407</v>
+      </c>
+      <c r="E111" s="12" t="s">
+        <v>4259</v>
+      </c>
+      <c r="F111" s="12" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="112" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B112" s="12" t="s">
+        <v>4408</v>
+      </c>
+      <c r="C112" s="12"/>
+      <c r="D112" s="12" t="s">
+        <v>4407</v>
+      </c>
+      <c r="E112" s="12" t="s">
+        <v>4259</v>
+      </c>
+      <c r="F112" s="12" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="113" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B113" s="12" t="s">
+        <v>4409</v>
+      </c>
+      <c r="C113" s="12"/>
+      <c r="D113" s="12" t="s">
+        <v>4407</v>
+      </c>
+      <c r="E113" s="12" t="s">
+        <v>4259</v>
+      </c>
+      <c r="F113" s="12" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="114" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B114" s="12" t="s">
+        <v>4410</v>
+      </c>
+      <c r="C114" s="12"/>
+      <c r="D114" s="12" t="s">
+        <v>4411</v>
+      </c>
+      <c r="E114" s="12" t="s">
+        <v>4259</v>
+      </c>
+      <c r="F114" s="12" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="115" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B115" s="12" t="s">
+        <v>4412</v>
+      </c>
+      <c r="C115" s="12"/>
+      <c r="D115" s="12" t="s">
+        <v>4411</v>
+      </c>
+      <c r="E115" s="12" t="s">
+        <v>4259</v>
+      </c>
+      <c r="F115" s="12" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="116" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B116" s="12" t="s">
+        <v>4413</v>
+      </c>
+      <c r="C116" s="12"/>
+      <c r="D116" s="12" t="s">
+        <v>4411</v>
+      </c>
+      <c r="E116" s="12" t="s">
+        <v>4259</v>
+      </c>
+      <c r="F116" s="12" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="117" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B117" s="12" t="s">
+        <v>4414</v>
+      </c>
+      <c r="C117" s="12"/>
+      <c r="D117" s="12" t="s">
+        <v>4471</v>
+      </c>
+      <c r="E117" s="12" t="s">
+        <v>4259</v>
+      </c>
+      <c r="F117" s="12" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="118" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B118" s="12" t="s">
+        <v>4415</v>
+      </c>
+      <c r="C118" s="12"/>
+      <c r="D118" s="12" t="s">
+        <v>4471</v>
+      </c>
+      <c r="E118" s="12" t="s">
+        <v>4259</v>
+      </c>
+      <c r="F118" s="12" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="119" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B119" s="12" t="s">
+        <v>4416</v>
+      </c>
+      <c r="C119" s="12"/>
+      <c r="D119" s="12" t="s">
+        <v>4471</v>
+      </c>
+      <c r="E119" s="12" t="s">
+        <v>4259</v>
+      </c>
+      <c r="F119" s="12" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="120" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B120" s="12" t="s">
+        <v>4417</v>
+      </c>
+      <c r="C120" s="12"/>
+      <c r="D120" s="12" t="s">
+        <v>4472</v>
+      </c>
+      <c r="E120" s="12" t="s">
+        <v>4259</v>
+      </c>
+      <c r="F120" s="12" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="121" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B121" s="12" t="s">
+        <v>4418</v>
+      </c>
+      <c r="C121" s="12"/>
+      <c r="D121" s="12" t="s">
+        <v>4472</v>
+      </c>
+      <c r="E121" s="12" t="s">
+        <v>4259</v>
+      </c>
+      <c r="F121" s="12" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="122" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B122" s="12" t="s">
+        <v>4419</v>
+      </c>
+      <c r="C122" s="12"/>
+      <c r="D122" s="12" t="s">
+        <v>4472</v>
+      </c>
+      <c r="E122" s="12" t="s">
+        <v>4259</v>
+      </c>
+      <c r="F122" s="12" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="123" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B123" s="12" t="s">
+        <v>4420</v>
+      </c>
+      <c r="C123" s="12"/>
+      <c r="D123" s="12" t="s">
+        <v>4473</v>
+      </c>
+      <c r="E123" s="12" t="s">
+        <v>4259</v>
+      </c>
+      <c r="F123" s="12" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="124" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B124" s="12" t="s">
+        <v>4421</v>
+      </c>
+      <c r="C124" s="12"/>
+      <c r="D124" s="12" t="s">
+        <v>4473</v>
+      </c>
+      <c r="E124" s="12" t="s">
+        <v>4259</v>
+      </c>
+      <c r="F124" s="12" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="125" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B125" s="12" t="s">
+        <v>4422</v>
+      </c>
+      <c r="C125" s="12"/>
+      <c r="D125" s="12" t="s">
+        <v>4473</v>
+      </c>
+      <c r="E125" s="12" t="s">
+        <v>4259</v>
+      </c>
+      <c r="F125" s="12" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="126" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B126" s="12" t="s">
+        <v>4423</v>
+      </c>
+      <c r="C126" s="12"/>
+      <c r="D126" s="12" t="s">
+        <v>4474</v>
+      </c>
+      <c r="E126" s="12" t="s">
+        <v>4259</v>
+      </c>
+      <c r="F126" s="12" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="127" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B127" s="12" t="s">
+        <v>4424</v>
+      </c>
+      <c r="C127" s="12"/>
+      <c r="D127" s="12" t="s">
+        <v>4474</v>
+      </c>
+      <c r="E127" s="12" t="s">
+        <v>4259</v>
+      </c>
+      <c r="F127" s="12" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="128" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B128" s="12" t="s">
+        <v>4425</v>
+      </c>
+      <c r="C128" s="12"/>
+      <c r="D128" s="12" t="s">
+        <v>4474</v>
+      </c>
+      <c r="E128" s="12" t="s">
+        <v>4259</v>
+      </c>
+      <c r="F128" s="12" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="129" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B129" s="12" t="s">
+        <v>4426</v>
+      </c>
+      <c r="C129" s="12"/>
+      <c r="D129" s="12" t="s">
+        <v>4475</v>
+      </c>
+      <c r="E129" s="12" t="s">
+        <v>4259</v>
+      </c>
+      <c r="F129" s="12" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="130" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B130" s="12" t="s">
+        <v>4427</v>
+      </c>
+      <c r="C130" s="12"/>
+      <c r="D130" s="12" t="s">
+        <v>4475</v>
+      </c>
+      <c r="E130" s="12" t="s">
+        <v>4259</v>
+      </c>
+      <c r="F130" s="12" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="131" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B131" s="12" t="s">
+        <v>4428</v>
+      </c>
+      <c r="C131" s="12"/>
+      <c r="D131" s="12" t="s">
+        <v>4475</v>
+      </c>
+      <c r="E131" s="12" t="s">
+        <v>4259</v>
+      </c>
+      <c r="F131" s="12" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="132" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B132" s="12" t="s">
+        <v>4429</v>
+      </c>
+      <c r="C132" s="12"/>
+      <c r="D132" s="12" t="s">
+        <v>4476</v>
+      </c>
+      <c r="E132" s="12" t="s">
+        <v>4259</v>
+      </c>
+      <c r="F132" s="12" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="133" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B133" s="12" t="s">
+        <v>4430</v>
+      </c>
+      <c r="C133" s="12"/>
+      <c r="D133" s="12" t="s">
+        <v>4476</v>
+      </c>
+      <c r="E133" s="12" t="s">
+        <v>4259</v>
+      </c>
+      <c r="F133" s="12" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="134" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B134" s="12" t="s">
+        <v>4431</v>
+      </c>
+      <c r="C134" s="12"/>
+      <c r="D134" s="12" t="s">
+        <v>4476</v>
+      </c>
+      <c r="E134" s="12" t="s">
+        <v>4259</v>
+      </c>
+      <c r="F134" s="12" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="135" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B135" s="12" t="s">
+        <v>4432</v>
+      </c>
+      <c r="C135" s="12"/>
+      <c r="D135" s="12" t="s">
+        <v>4477</v>
+      </c>
+      <c r="E135" s="12" t="s">
+        <v>4259</v>
+      </c>
+      <c r="F135" s="12" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="136" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B136" s="12" t="s">
+        <v>4433</v>
+      </c>
+      <c r="C136" s="12"/>
+      <c r="D136" s="12" t="s">
+        <v>4477</v>
+      </c>
+      <c r="E136" s="12" t="s">
+        <v>4259</v>
+      </c>
+      <c r="F136" s="12" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="137" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B137" s="12" t="s">
+        <v>4434</v>
+      </c>
+      <c r="C137" s="12"/>
+      <c r="D137" s="12" t="s">
+        <v>4477</v>
+      </c>
+      <c r="E137" s="12" t="s">
+        <v>4259</v>
+      </c>
+      <c r="F137" s="12" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="138" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B138" t="s">
+        <v>4435</v>
+      </c>
+      <c r="D138" s="12" t="s">
+        <v>4436</v>
+      </c>
+      <c r="E138" s="7" t="s">
+        <v>4294</v>
+      </c>
+      <c r="F138" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="139" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B139" t="s">
+        <v>4437</v>
+      </c>
+      <c r="D139" s="12" t="s">
+        <v>4436</v>
+      </c>
+      <c r="E139" s="7" t="s">
+        <v>4294</v>
+      </c>
+      <c r="F139" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="140" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B140" t="s">
+        <v>4438</v>
+      </c>
+      <c r="D140" s="12" t="s">
+        <v>4436</v>
+      </c>
+      <c r="E140" s="7" t="s">
+        <v>4294</v>
+      </c>
+      <c r="F140" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="141" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B141" t="s">
+        <v>4439</v>
+      </c>
+      <c r="D141" s="12" t="s">
+        <v>4440</v>
+      </c>
+      <c r="E141" s="7" t="s">
+        <v>4294</v>
+      </c>
+      <c r="F141" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="142" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B142" t="s">
+        <v>4441</v>
+      </c>
+      <c r="D142" s="12" t="s">
+        <v>4440</v>
+      </c>
+      <c r="E142" s="7" t="s">
+        <v>4294</v>
+      </c>
+      <c r="F142" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="143" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B143" t="s">
+        <v>4442</v>
+      </c>
+      <c r="D143" s="12" t="s">
+        <v>4440</v>
+      </c>
+      <c r="E143" s="7" t="s">
+        <v>4294</v>
+      </c>
+      <c r="F143" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="144" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B144" t="s">
+        <v>4443</v>
+      </c>
+      <c r="D144" s="12" t="s">
+        <v>4444</v>
+      </c>
+      <c r="E144" s="7" t="s">
+        <v>4294</v>
+      </c>
+      <c r="F144" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="145" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B145" t="s">
+        <v>4445</v>
+      </c>
+      <c r="D145" s="12" t="s">
+        <v>4444</v>
+      </c>
+      <c r="E145" s="7" t="s">
+        <v>4294</v>
+      </c>
+      <c r="F145" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="146" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B146" t="s">
+        <v>4446</v>
+      </c>
+      <c r="D146" s="12" t="s">
+        <v>4444</v>
+      </c>
+      <c r="E146" s="7" t="s">
+        <v>4294</v>
+      </c>
+      <c r="F146" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="147" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B147" t="s">
+        <v>4447</v>
+      </c>
+      <c r="D147" s="12" t="s">
+        <v>4448</v>
+      </c>
+      <c r="E147" s="7" t="s">
+        <v>4294</v>
+      </c>
+      <c r="F147" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="148" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B148" t="s">
+        <v>4449</v>
+      </c>
+      <c r="D148" s="12" t="s">
+        <v>4448</v>
+      </c>
+      <c r="E148" s="7" t="s">
+        <v>4294</v>
+      </c>
+      <c r="F148" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="149" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B149" t="s">
+        <v>4450</v>
+      </c>
+      <c r="D149" s="12" t="s">
+        <v>4448</v>
+      </c>
+      <c r="E149" s="7" t="s">
+        <v>4294</v>
+      </c>
+      <c r="F149" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="150" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B150" t="s">
+        <v>4451</v>
+      </c>
+      <c r="D150" s="12" t="s">
+        <v>4452</v>
+      </c>
+      <c r="E150" s="7" t="s">
+        <v>4294</v>
+      </c>
+      <c r="F150" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="151" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B151" t="s">
+        <v>4453</v>
+      </c>
+      <c r="D151" s="12" t="s">
+        <v>4452</v>
+      </c>
+      <c r="E151" s="7" t="s">
+        <v>4294</v>
+      </c>
+      <c r="F151" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="152" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B152" t="s">
+        <v>4454</v>
+      </c>
+      <c r="D152" s="12" t="s">
+        <v>4452</v>
+      </c>
+      <c r="E152" s="7" t="s">
+        <v>4294</v>
+      </c>
+      <c r="F152" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="153" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B153" t="s">
+        <v>4455</v>
+      </c>
+      <c r="D153" s="12" t="s">
+        <v>4456</v>
+      </c>
+      <c r="E153" s="7" t="s">
+        <v>4294</v>
+      </c>
+      <c r="F153" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="154" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B154" t="s">
+        <v>4457</v>
+      </c>
+      <c r="D154" s="12" t="s">
+        <v>4456</v>
+      </c>
+      <c r="E154" s="7" t="s">
+        <v>4294</v>
+      </c>
+      <c r="F154" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="155" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B155" t="s">
+        <v>4458</v>
+      </c>
+      <c r="D155" s="12" t="s">
+        <v>4456</v>
+      </c>
+      <c r="E155" s="7" t="s">
+        <v>4294</v>
+      </c>
+      <c r="F155" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="156" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B156" t="s">
+        <v>4459</v>
+      </c>
+      <c r="D156" s="12" t="s">
+        <v>4460</v>
+      </c>
+      <c r="E156" s="7" t="s">
+        <v>4294</v>
+      </c>
+      <c r="F156" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="157" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B157" t="s">
+        <v>4461</v>
+      </c>
+      <c r="D157" s="12" t="s">
+        <v>4460</v>
+      </c>
+      <c r="E157" s="7" t="s">
+        <v>4294</v>
+      </c>
+      <c r="F157" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="158" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B158" t="s">
+        <v>4462</v>
+      </c>
+      <c r="D158" s="12" t="s">
+        <v>4460</v>
+      </c>
+      <c r="E158" s="7" t="s">
+        <v>4294</v>
+      </c>
+      <c r="F158" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="159" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B159" t="s">
+        <v>4463</v>
+      </c>
+      <c r="D159" s="12" t="s">
+        <v>4464</v>
+      </c>
+      <c r="E159" s="7" t="s">
+        <v>4294</v>
+      </c>
+      <c r="F159" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="160" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B160" t="s">
+        <v>4465</v>
+      </c>
+      <c r="D160" s="12" t="s">
+        <v>4464</v>
+      </c>
+      <c r="E160" s="7" t="s">
+        <v>4294</v>
+      </c>
+      <c r="F160" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="161" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B161" t="s">
+        <v>4466</v>
+      </c>
+      <c r="D161" s="12" t="s">
+        <v>4464</v>
+      </c>
+      <c r="E161" s="7" t="s">
+        <v>4294</v>
+      </c>
+      <c r="F161" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="162" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B162" t="s">
+        <v>4467</v>
+      </c>
+      <c r="D162" s="12" t="s">
+        <v>4468</v>
+      </c>
+      <c r="E162" s="7" t="s">
+        <v>4294</v>
+      </c>
+      <c r="F162" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="163" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B163" t="s">
+        <v>4469</v>
+      </c>
+      <c r="D163" s="12" t="s">
+        <v>4468</v>
+      </c>
+      <c r="E163" s="7" t="s">
+        <v>4294</v>
+      </c>
+      <c r="F163" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="164" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B164" t="s">
+        <v>4470</v>
+      </c>
+      <c r="D164" s="12" t="s">
+        <v>4468</v>
+      </c>
+      <c r="E164" s="7" t="s">
+        <v>4294</v>
+      </c>
+      <c r="F164" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="165" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B165" s="12" t="s">
+        <v>4478</v>
+      </c>
+      <c r="C165" s="12"/>
+      <c r="D165" s="12" t="s">
+        <v>4479</v>
+      </c>
+      <c r="E165" s="12" t="s">
+        <v>4294</v>
+      </c>
+      <c r="F165" s="12" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="166" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B166" s="12" t="s">
+        <v>4480</v>
+      </c>
+      <c r="C166" s="12"/>
+      <c r="D166" s="12" t="s">
+        <v>4479</v>
+      </c>
+      <c r="E166" s="12" t="s">
+        <v>4294</v>
+      </c>
+      <c r="F166" s="12" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="167" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B167" s="12" t="s">
+        <v>4481</v>
+      </c>
+      <c r="C167" s="12"/>
+      <c r="D167" s="12" t="s">
+        <v>4479</v>
+      </c>
+      <c r="E167" s="12" t="s">
+        <v>4294</v>
+      </c>
+      <c r="F167" s="12" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="168" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B168" s="12" t="s">
+        <v>4482</v>
+      </c>
+      <c r="C168" s="12"/>
+      <c r="D168" s="12" t="s">
+        <v>4483</v>
+      </c>
+      <c r="E168" s="12" t="s">
+        <v>4294</v>
+      </c>
+      <c r="F168" s="12" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="169" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B169" s="12" t="s">
+        <v>4484</v>
+      </c>
+      <c r="C169" s="12"/>
+      <c r="D169" s="12" t="s">
+        <v>4483</v>
+      </c>
+      <c r="E169" s="12" t="s">
+        <v>4294</v>
+      </c>
+      <c r="F169" s="12" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="170" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B170" s="12" t="s">
+        <v>4485</v>
+      </c>
+      <c r="C170" s="12"/>
+      <c r="D170" s="12" t="s">
+        <v>4483</v>
+      </c>
+      <c r="E170" s="12" t="s">
+        <v>4294</v>
+      </c>
+      <c r="F170" s="12" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="171" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B171" s="12" t="s">
+        <v>4486</v>
+      </c>
+      <c r="C171" s="12"/>
+      <c r="D171" s="12" t="s">
+        <v>4487</v>
+      </c>
+      <c r="E171" s="12" t="s">
+        <v>4294</v>
+      </c>
+      <c r="F171" s="12" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="172" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B172" s="12" t="s">
+        <v>4488</v>
+      </c>
+      <c r="C172" s="12"/>
+      <c r="D172" s="12" t="s">
+        <v>4487</v>
+      </c>
+      <c r="E172" s="12" t="s">
+        <v>4294</v>
+      </c>
+      <c r="F172" s="12" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="173" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B173" s="12" t="s">
+        <v>4489</v>
+      </c>
+      <c r="C173" s="12"/>
+      <c r="D173" s="12" t="s">
+        <v>4487</v>
+      </c>
+      <c r="E173" s="12" t="s">
+        <v>4294</v>
+      </c>
+      <c r="F173" s="12" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="174" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B174" s="12" t="s">
+        <v>4490</v>
+      </c>
+      <c r="C174" s="12"/>
+      <c r="D174" s="12" t="s">
+        <v>4491</v>
+      </c>
+      <c r="E174" s="12" t="s">
+        <v>4294</v>
+      </c>
+      <c r="F174" s="12" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="175" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B175" s="12" t="s">
+        <v>4492</v>
+      </c>
+      <c r="C175" s="12"/>
+      <c r="D175" s="12" t="s">
+        <v>4491</v>
+      </c>
+      <c r="E175" s="12" t="s">
+        <v>4294</v>
+      </c>
+      <c r="F175" s="12" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="176" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B176" s="12" t="s">
+        <v>4493</v>
+      </c>
+      <c r="C176" s="12"/>
+      <c r="D176" s="12" t="s">
+        <v>4491</v>
+      </c>
+      <c r="E176" s="12" t="s">
+        <v>4294</v>
+      </c>
+      <c r="F176" s="12" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="177" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B177" s="12" t="s">
+        <v>4494</v>
+      </c>
+      <c r="C177" s="12"/>
+      <c r="D177" s="12" t="s">
+        <v>4495</v>
+      </c>
+      <c r="E177" s="12" t="s">
+        <v>4294</v>
+      </c>
+      <c r="F177" s="12" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="178" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B178" s="12" t="s">
+        <v>4496</v>
+      </c>
+      <c r="C178" s="12"/>
+      <c r="D178" s="12" t="s">
+        <v>4495</v>
+      </c>
+      <c r="E178" s="12" t="s">
+        <v>4294</v>
+      </c>
+      <c r="F178" s="12" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="179" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B179" s="12" t="s">
+        <v>4497</v>
+      </c>
+      <c r="C179" s="12"/>
+      <c r="D179" s="12" t="s">
+        <v>4495</v>
+      </c>
+      <c r="E179" s="12" t="s">
+        <v>4294</v>
+      </c>
+      <c r="F179" s="12" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="180" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B180" s="12" t="s">
+        <v>4498</v>
+      </c>
+      <c r="C180" s="12"/>
+      <c r="D180" s="12" t="s">
+        <v>4499</v>
+      </c>
+      <c r="E180" s="12" t="s">
+        <v>4294</v>
+      </c>
+      <c r="F180" s="12" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="181" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B181" s="12" t="s">
+        <v>4500</v>
+      </c>
+      <c r="C181" s="12"/>
+      <c r="D181" s="12" t="s">
+        <v>4499</v>
+      </c>
+      <c r="E181" s="12" t="s">
+        <v>4294</v>
+      </c>
+      <c r="F181" s="12" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="182" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B182" s="12" t="s">
+        <v>4501</v>
+      </c>
+      <c r="C182" s="12"/>
+      <c r="D182" s="12" t="s">
+        <v>4499</v>
+      </c>
+      <c r="E182" s="12" t="s">
+        <v>4294</v>
+      </c>
+      <c r="F182" s="12" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="183" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B183" s="12" t="s">
+        <v>4502</v>
+      </c>
+      <c r="C183" s="12"/>
+      <c r="D183" s="12" t="s">
+        <v>4503</v>
+      </c>
+      <c r="E183" s="12" t="s">
+        <v>4294</v>
+      </c>
+      <c r="F183" s="12" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="184" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B184" s="12" t="s">
+        <v>4504</v>
+      </c>
+      <c r="C184" s="12"/>
+      <c r="D184" s="12" t="s">
+        <v>4503</v>
+      </c>
+      <c r="E184" s="12" t="s">
+        <v>4294</v>
+      </c>
+      <c r="F184" s="12" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="185" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B185" s="12" t="s">
+        <v>4505</v>
+      </c>
+      <c r="C185" s="12"/>
+      <c r="D185" s="12" t="s">
+        <v>4503</v>
+      </c>
+      <c r="E185" s="12" t="s">
+        <v>4294</v>
+      </c>
+      <c r="F185" s="12" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="186" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B186" s="12" t="s">
+        <v>4506</v>
+      </c>
+      <c r="C186" s="12"/>
+      <c r="D186" s="12" t="s">
+        <v>4507</v>
+      </c>
+      <c r="E186" s="12" t="s">
+        <v>4294</v>
+      </c>
+      <c r="F186" s="12" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="187" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B187" s="12" t="s">
+        <v>4508</v>
+      </c>
+      <c r="C187" s="12"/>
+      <c r="D187" s="12" t="s">
+        <v>4507</v>
+      </c>
+      <c r="E187" s="12" t="s">
+        <v>4294</v>
+      </c>
+      <c r="F187" s="12" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="188" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B188" s="12" t="s">
+        <v>4509</v>
+      </c>
+      <c r="C188" s="12"/>
+      <c r="D188" s="12" t="s">
+        <v>4507</v>
+      </c>
+      <c r="E188" s="12" t="s">
+        <v>4294</v>
+      </c>
+      <c r="F188" s="12" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="189" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B189" s="12" t="s">
+        <v>4510</v>
+      </c>
+      <c r="C189" s="12"/>
+      <c r="D189" s="12" t="s">
+        <v>4511</v>
+      </c>
+      <c r="E189" s="12" t="s">
+        <v>4294</v>
+      </c>
+      <c r="F189" s="12" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="190" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B190" s="12" t="s">
+        <v>4512</v>
+      </c>
+      <c r="C190" s="12"/>
+      <c r="D190" s="12" t="s">
+        <v>4511</v>
+      </c>
+      <c r="E190" s="12" t="s">
+        <v>4294</v>
+      </c>
+      <c r="F190" s="12" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="191" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B191" s="12" t="s">
+        <v>4513</v>
+      </c>
+      <c r="C191" s="12"/>
+      <c r="D191" s="12" t="s">
+        <v>4511</v>
+      </c>
+      <c r="E191" s="12" t="s">
+        <v>4294</v>
+      </c>
+      <c r="F191" s="12" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="192" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B192" s="12" t="s">
+        <v>4514</v>
+      </c>
+      <c r="C192" s="12"/>
+      <c r="D192" s="12" t="s">
+        <v>4515</v>
+      </c>
+      <c r="E192" s="12" t="s">
+        <v>4294</v>
+      </c>
+      <c r="F192" s="12" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="193" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B193" s="12" t="s">
+        <v>4516</v>
+      </c>
+      <c r="C193" s="12"/>
+      <c r="D193" s="12" t="s">
+        <v>4515</v>
+      </c>
+      <c r="E193" s="12" t="s">
+        <v>4294</v>
+      </c>
+      <c r="F193" s="12" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="194" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B194" s="12" t="s">
+        <v>4517</v>
+      </c>
+      <c r="C194" s="12"/>
+      <c r="D194" s="12" t="s">
+        <v>4515</v>
+      </c>
+      <c r="E194" s="12" t="s">
+        <v>4294</v>
+      </c>
+      <c r="F194" s="12" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="195" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B195" s="12" t="s">
+        <v>4518</v>
+      </c>
+      <c r="C195" s="12"/>
+      <c r="D195" s="12" t="s">
+        <v>4519</v>
+      </c>
+      <c r="E195" s="12" t="s">
+        <v>4294</v>
+      </c>
+      <c r="F195" s="12" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="196" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B196" s="12" t="s">
+        <v>4520</v>
+      </c>
+      <c r="C196" s="12"/>
+      <c r="D196" s="12" t="s">
+        <v>4519</v>
+      </c>
+      <c r="E196" s="12" t="s">
+        <v>4294</v>
+      </c>
+      <c r="F196" s="12" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="197" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B197" s="12" t="s">
+        <v>4521</v>
+      </c>
+      <c r="C197" s="12"/>
+      <c r="D197" s="12" t="s">
+        <v>4519</v>
+      </c>
+      <c r="E197" s="12" t="s">
+        <v>4294</v>
+      </c>
+      <c r="F197" s="12" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="198" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B198" s="12" t="s">
+        <v>4522</v>
+      </c>
+      <c r="C198" s="12"/>
+      <c r="D198" s="12" t="s">
+        <v>4523</v>
+      </c>
+      <c r="E198" s="12" t="s">
+        <v>4294</v>
+      </c>
+      <c r="F198" s="12" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="199" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B199" s="12" t="s">
+        <v>4524</v>
+      </c>
+      <c r="C199" s="12"/>
+      <c r="D199" s="12" t="s">
+        <v>4523</v>
+      </c>
+      <c r="E199" s="12" t="s">
+        <v>4294</v>
+      </c>
+      <c r="F199" s="12" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="200" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B200" s="12" t="s">
+        <v>4525</v>
+      </c>
+      <c r="C200" s="12"/>
+      <c r="D200" s="12" t="s">
+        <v>4523</v>
+      </c>
+      <c r="E200" s="12" t="s">
+        <v>4294</v>
+      </c>
+      <c r="F200" s="12" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="201" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B201" s="12" t="s">
+        <v>4526</v>
+      </c>
+      <c r="C201" s="12"/>
+      <c r="D201" s="12" t="s">
+        <v>4527</v>
+      </c>
+      <c r="E201" s="12" t="s">
+        <v>4294</v>
+      </c>
+      <c r="F201" s="12" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="202" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B202" s="12" t="s">
+        <v>4528</v>
+      </c>
+      <c r="C202" s="12"/>
+      <c r="D202" s="12" t="s">
+        <v>4527</v>
+      </c>
+      <c r="E202" s="12" t="s">
+        <v>4294</v>
+      </c>
+      <c r="F202" s="12" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="203" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B203" s="12" t="s">
+        <v>4529</v>
+      </c>
+      <c r="C203" s="12"/>
+      <c r="D203" s="12" t="s">
+        <v>4527</v>
+      </c>
+      <c r="E203" s="12" t="s">
+        <v>4294</v>
+      </c>
+      <c r="F203" s="12" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="204" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B204" s="12" t="s">
+        <v>4530</v>
+      </c>
+      <c r="C204" s="12"/>
+      <c r="D204" s="12" t="s">
+        <v>4531</v>
+      </c>
+      <c r="E204" s="12" t="s">
+        <v>4294</v>
+      </c>
+      <c r="F204" s="12" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="205" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B205" s="12" t="s">
+        <v>4532</v>
+      </c>
+      <c r="C205" s="12"/>
+      <c r="D205" s="12" t="s">
+        <v>4531</v>
+      </c>
+      <c r="E205" s="12" t="s">
+        <v>4294</v>
+      </c>
+      <c r="F205" s="12" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="206" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B206" s="12" t="s">
+        <v>4533</v>
+      </c>
+      <c r="C206" s="12"/>
+      <c r="D206" s="12" t="s">
+        <v>4531</v>
+      </c>
+      <c r="E206" s="12" t="s">
+        <v>4294</v>
+      </c>
+      <c r="F206" s="12" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="207" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B207" s="12" t="s">
+        <v>4534</v>
+      </c>
+      <c r="C207" s="12"/>
+      <c r="D207" s="12" t="s">
+        <v>4535</v>
+      </c>
+      <c r="E207" s="12" t="s">
+        <v>4294</v>
+      </c>
+      <c r="F207" s="12" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="208" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B208" s="12" t="s">
+        <v>4536</v>
+      </c>
+      <c r="C208" s="12"/>
+      <c r="D208" s="12" t="s">
+        <v>4535</v>
+      </c>
+      <c r="E208" s="12" t="s">
+        <v>4294</v>
+      </c>
+      <c r="F208" s="12" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="209" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B209" s="12" t="s">
+        <v>4537</v>
+      </c>
+      <c r="C209" s="12"/>
+      <c r="D209" s="12" t="s">
+        <v>4535</v>
+      </c>
+      <c r="E209" s="12" t="s">
+        <v>4294</v>
+      </c>
+      <c r="F209" s="12" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="210" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B210" s="12" t="s">
+        <v>4538</v>
+      </c>
+      <c r="C210" s="12"/>
+      <c r="D210" s="12" t="s">
+        <v>4539</v>
+      </c>
+      <c r="E210" s="12" t="s">
+        <v>4294</v>
+      </c>
+      <c r="F210" s="12" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="211" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B211" s="12" t="s">
+        <v>4540</v>
+      </c>
+      <c r="C211" s="12"/>
+      <c r="D211" s="12" t="s">
+        <v>4539</v>
+      </c>
+      <c r="E211" s="12" t="s">
+        <v>4294</v>
+      </c>
+      <c r="F211" s="12" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="212" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B212" s="12" t="s">
+        <v>4541</v>
+      </c>
+      <c r="C212" s="12"/>
+      <c r="D212" s="12" t="s">
+        <v>4539</v>
+      </c>
+      <c r="E212" s="12" t="s">
+        <v>4294</v>
+      </c>
+      <c r="F212" s="12" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="213" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B213" s="12" t="s">
+        <v>4542</v>
+      </c>
+      <c r="C213" s="12"/>
+      <c r="D213" s="12" t="s">
+        <v>4543</v>
+      </c>
+      <c r="E213" s="12" t="s">
+        <v>4294</v>
+      </c>
+      <c r="F213" s="12" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="214" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B214" s="12" t="s">
+        <v>4544</v>
+      </c>
+      <c r="C214" s="12"/>
+      <c r="D214" s="12" t="s">
+        <v>4543</v>
+      </c>
+      <c r="E214" s="12" t="s">
+        <v>4294</v>
+      </c>
+      <c r="F214" s="12" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="215" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B215" s="12" t="s">
+        <v>4545</v>
+      </c>
+      <c r="C215" s="12"/>
+      <c r="D215" s="12" t="s">
+        <v>4543</v>
+      </c>
+      <c r="E215" s="12" t="s">
+        <v>4294</v>
+      </c>
+      <c r="F215" s="12" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="216" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B216" s="12" t="s">
+        <v>4546</v>
+      </c>
+      <c r="C216" s="12"/>
+      <c r="D216" s="12" t="s">
+        <v>4547</v>
+      </c>
+      <c r="E216" s="12" t="s">
+        <v>4294</v>
+      </c>
+      <c r="F216" s="12" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="217" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B217" s="12" t="s">
+        <v>4548</v>
+      </c>
+      <c r="C217" s="12"/>
+      <c r="D217" s="12" t="s">
+        <v>4547</v>
+      </c>
+      <c r="E217" s="12" t="s">
+        <v>4294</v>
+      </c>
+      <c r="F217" s="12" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="218" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B218" s="12" t="s">
+        <v>4549</v>
+      </c>
+      <c r="C218" s="12"/>
+      <c r="D218" s="12" t="s">
+        <v>4547</v>
+      </c>
+      <c r="E218" s="12" t="s">
+        <v>4294</v>
+      </c>
+      <c r="F218" s="12" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="219" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B219" s="12" t="s">
+        <v>4550</v>
+      </c>
+      <c r="C219" s="12"/>
+      <c r="D219" s="12" t="s">
+        <v>4551</v>
+      </c>
+      <c r="E219" s="12" t="s">
+        <v>4294</v>
+      </c>
+      <c r="F219" s="12" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="220" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B220" s="12" t="s">
+        <v>4552</v>
+      </c>
+      <c r="C220" s="12"/>
+      <c r="D220" s="12" t="s">
+        <v>4551</v>
+      </c>
+      <c r="E220" s="12" t="s">
+        <v>4294</v>
+      </c>
+      <c r="F220" s="12" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="221" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B221" s="12" t="s">
+        <v>4553</v>
+      </c>
+      <c r="C221" s="12"/>
+      <c r="D221" s="12" t="s">
+        <v>4551</v>
+      </c>
+      <c r="E221" s="12" t="s">
+        <v>4294</v>
+      </c>
+      <c r="F221" s="12" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="222" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B222" s="12" t="s">
+        <v>4554</v>
+      </c>
+      <c r="C222" s="12"/>
+      <c r="D222" s="12" t="s">
+        <v>4555</v>
+      </c>
+      <c r="E222" s="12" t="s">
+        <v>4294</v>
+      </c>
+      <c r="F222" s="12" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="223" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B223" s="12" t="s">
+        <v>4556</v>
+      </c>
+      <c r="C223" s="12"/>
+      <c r="D223" s="12" t="s">
+        <v>4555</v>
+      </c>
+      <c r="E223" s="12" t="s">
+        <v>4294</v>
+      </c>
+      <c r="F223" s="12" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="224" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B224" s="12" t="s">
+        <v>4557</v>
+      </c>
+      <c r="C224" s="12"/>
+      <c r="D224" s="12" t="s">
+        <v>4555</v>
+      </c>
+      <c r="E224" s="12" t="s">
+        <v>4294</v>
+      </c>
+      <c r="F224" s="12" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="225" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B225" s="12" t="s">
+        <v>4558</v>
+      </c>
+      <c r="C225" s="12"/>
+      <c r="D225" s="12" t="s">
+        <v>4559</v>
+      </c>
+      <c r="E225" s="12" t="s">
+        <v>4294</v>
+      </c>
+      <c r="F225" s="12" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="226" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B226" s="12" t="s">
+        <v>4560</v>
+      </c>
+      <c r="C226" s="12"/>
+      <c r="D226" s="12" t="s">
+        <v>4559</v>
+      </c>
+      <c r="E226" s="12" t="s">
+        <v>4294</v>
+      </c>
+      <c r="F226" s="12" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="227" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B227" s="12" t="s">
+        <v>4561</v>
+      </c>
+      <c r="C227" s="12"/>
+      <c r="D227" s="12" t="s">
+        <v>4559</v>
+      </c>
+      <c r="E227" s="12" t="s">
+        <v>4294</v>
+      </c>
+      <c r="F227" s="12" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="228" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B228" s="12" t="s">
+        <v>4562</v>
+      </c>
+      <c r="C228" s="12"/>
+      <c r="D228" s="12" t="s">
+        <v>4563</v>
+      </c>
+      <c r="E228" s="12" t="s">
+        <v>4294</v>
+      </c>
+      <c r="F228" s="12" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="229" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B229" s="12" t="s">
+        <v>4564</v>
+      </c>
+      <c r="C229" s="12"/>
+      <c r="D229" s="12" t="s">
+        <v>4563</v>
+      </c>
+      <c r="E229" s="12" t="s">
+        <v>4294</v>
+      </c>
+      <c r="F229" s="12" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="230" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B230" s="12" t="s">
+        <v>4565</v>
+      </c>
+      <c r="C230" s="12"/>
+      <c r="D230" s="12" t="s">
+        <v>4563</v>
+      </c>
+      <c r="E230" s="12" t="s">
+        <v>4294</v>
+      </c>
+      <c r="F230" s="12" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="231" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B231" s="12" t="s">
+        <v>4566</v>
+      </c>
+      <c r="C231" s="12"/>
+      <c r="D231" s="12" t="s">
+        <v>4567</v>
+      </c>
+      <c r="E231" s="12" t="s">
+        <v>4294</v>
+      </c>
+      <c r="F231" s="12" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="232" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B232" s="12" t="s">
+        <v>4568</v>
+      </c>
+      <c r="C232" s="12"/>
+      <c r="D232" s="12" t="s">
+        <v>4567</v>
+      </c>
+      <c r="E232" s="12" t="s">
+        <v>4294</v>
+      </c>
+      <c r="F232" s="12" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="233" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B233" s="12" t="s">
+        <v>4569</v>
+      </c>
+      <c r="C233" s="12"/>
+      <c r="D233" s="12" t="s">
+        <v>4567</v>
+      </c>
+      <c r="E233" s="12" t="s">
+        <v>4294</v>
+      </c>
+      <c r="F233" s="12" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="234" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B234" s="12" t="s">
+        <v>4570</v>
+      </c>
+      <c r="C234" s="12"/>
+      <c r="D234" s="12" t="s">
+        <v>4571</v>
+      </c>
+      <c r="E234" s="12" t="s">
+        <v>4294</v>
+      </c>
+      <c r="F234" s="12" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="235" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B235" s="12" t="s">
+        <v>4572</v>
+      </c>
+      <c r="C235" s="12"/>
+      <c r="D235" s="12" t="s">
+        <v>4571</v>
+      </c>
+      <c r="E235" s="12" t="s">
+        <v>4294</v>
+      </c>
+      <c r="F235" s="12" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="236" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B236" s="12" t="s">
+        <v>4573</v>
+      </c>
+      <c r="C236" s="12"/>
+      <c r="D236" s="12" t="s">
+        <v>4571</v>
+      </c>
+      <c r="E236" s="12" t="s">
+        <v>4294</v>
+      </c>
+      <c r="F236" s="12" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="237" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B237" s="12" t="s">
+        <v>4574</v>
+      </c>
+      <c r="C237" s="12"/>
+      <c r="D237" s="12" t="s">
+        <v>4575</v>
+      </c>
+      <c r="E237" s="12" t="s">
+        <v>4294</v>
+      </c>
+      <c r="F237" s="12" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="238" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B238" s="12" t="s">
+        <v>4576</v>
+      </c>
+      <c r="C238" s="12"/>
+      <c r="D238" s="12" t="s">
+        <v>4575</v>
+      </c>
+      <c r="E238" s="12" t="s">
+        <v>4294</v>
+      </c>
+      <c r="F238" s="12" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="239" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B239" s="12" t="s">
+        <v>4577</v>
+      </c>
+      <c r="C239" s="12"/>
+      <c r="D239" s="12" t="s">
+        <v>4575</v>
+      </c>
+      <c r="E239" s="12" t="s">
+        <v>4294</v>
+      </c>
+      <c r="F239" s="12" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="240" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B240" s="12" t="s">
+        <v>4578</v>
+      </c>
+      <c r="C240" s="12"/>
+      <c r="D240" s="12" t="s">
+        <v>4579</v>
+      </c>
+      <c r="E240" s="12" t="s">
+        <v>4294</v>
+      </c>
+      <c r="F240" s="12" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B241" s="12" t="s">
+        <v>4580</v>
+      </c>
+      <c r="C241" s="12"/>
+      <c r="D241" s="12" t="s">
+        <v>4579</v>
+      </c>
+      <c r="E241" s="12" t="s">
+        <v>4294</v>
+      </c>
+      <c r="F241" s="12" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B242" s="12" t="s">
+        <v>4581</v>
+      </c>
+      <c r="C242" s="12"/>
+      <c r="D242" s="12" t="s">
+        <v>4579</v>
+      </c>
+      <c r="E242" s="12" t="s">
+        <v>4294</v>
+      </c>
+      <c r="F242" s="12" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B243" s="12" t="s">
+        <v>4582</v>
+      </c>
+      <c r="C243" s="12"/>
+      <c r="D243" s="12" t="s">
+        <v>4583</v>
+      </c>
+      <c r="E243" s="12" t="s">
+        <v>4294</v>
+      </c>
+      <c r="F243" s="12" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B244" s="12" t="s">
+        <v>4584</v>
+      </c>
+      <c r="C244" s="12"/>
+      <c r="D244" s="12" t="s">
+        <v>4583</v>
+      </c>
+      <c r="E244" s="12" t="s">
+        <v>4294</v>
+      </c>
+      <c r="F244" s="12" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B245" s="12" t="s">
+        <v>4585</v>
+      </c>
+      <c r="C245" s="12"/>
+      <c r="D245" s="12" t="s">
+        <v>4583</v>
+      </c>
+      <c r="E245" s="12" t="s">
+        <v>4294</v>
+      </c>
+      <c r="F245" s="12" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A246" s="3" t="s">
+        <v>4586</v>
+      </c>
+      <c r="B246" s="3"/>
+      <c r="C246" s="6"/>
+      <c r="D246" s="6"/>
+      <c r="E246" s="6"/>
+      <c r="F246" s="3"/>
+      <c r="G246" s="3"/>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B247" t="s">
+        <v>4587</v>
+      </c>
+      <c r="D247" s="12" t="s">
+        <v>4588</v>
+      </c>
+      <c r="E247" s="12" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F247" t="s">
+        <v>4236</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B248" t="s">
+        <v>4589</v>
+      </c>
+      <c r="D248" s="12" t="s">
+        <v>4588</v>
+      </c>
+      <c r="E248" s="12" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F248" t="s">
+        <v>4236</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B249" t="s">
+        <v>4590</v>
+      </c>
+      <c r="D249" s="12" t="s">
+        <v>4588</v>
+      </c>
+      <c r="E249" s="12" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F249" t="s">
+        <v>4236</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B250" t="s">
+        <v>4591</v>
+      </c>
+      <c r="D250" s="12" t="s">
+        <v>4592</v>
+      </c>
+      <c r="E250" s="12" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F250" t="s">
+        <v>4236</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B251" t="s">
+        <v>4593</v>
+      </c>
+      <c r="D251" s="12" t="s">
+        <v>4592</v>
+      </c>
+      <c r="E251" s="12" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F251" t="s">
+        <v>4236</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B252" t="s">
+        <v>4594</v>
+      </c>
+      <c r="D252" s="12" t="s">
+        <v>4592</v>
+      </c>
+      <c r="E252" s="12" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F252" t="s">
+        <v>4236</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B253" t="s">
+        <v>4595</v>
+      </c>
+      <c r="D253" s="12" t="s">
+        <v>4596</v>
+      </c>
+      <c r="E253" s="12" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F253" t="s">
+        <v>4236</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B254" t="s">
+        <v>4597</v>
+      </c>
+      <c r="D254" s="12" t="s">
+        <v>4596</v>
+      </c>
+      <c r="E254" s="12" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F254" t="s">
+        <v>4236</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B255" t="s">
+        <v>4598</v>
+      </c>
+      <c r="D255" s="12" t="s">
+        <v>4596</v>
+      </c>
+      <c r="E255" s="12" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F255" t="s">
+        <v>4236</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B256" t="s">
+        <v>4599</v>
+      </c>
+      <c r="D256" s="12" t="s">
+        <v>4600</v>
+      </c>
+      <c r="E256" s="12" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F256" t="s">
+        <v>4236</v>
+      </c>
+    </row>
+    <row r="257" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B257" t="s">
+        <v>4601</v>
+      </c>
+      <c r="D257" s="12" t="s">
+        <v>4600</v>
+      </c>
+      <c r="E257" s="12" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F257" t="s">
+        <v>4236</v>
+      </c>
+    </row>
+    <row r="258" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B258" t="s">
+        <v>4602</v>
+      </c>
+      <c r="D258" s="12" t="s">
+        <v>4600</v>
+      </c>
+      <c r="E258" s="12" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F258" t="s">
+        <v>4236</v>
+      </c>
+    </row>
+    <row r="259" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B259" t="s">
+        <v>4603</v>
+      </c>
+      <c r="D259" s="12" t="s">
+        <v>4604</v>
+      </c>
+      <c r="E259" s="12" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F259" t="s">
+        <v>4236</v>
+      </c>
+    </row>
+    <row r="260" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B260" t="s">
+        <v>4605</v>
+      </c>
+      <c r="D260" s="12" t="s">
+        <v>4604</v>
+      </c>
+      <c r="E260" s="12" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F260" t="s">
+        <v>4236</v>
+      </c>
+    </row>
+    <row r="261" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B261" t="s">
+        <v>4606</v>
+      </c>
+      <c r="D261" s="12" t="s">
+        <v>4604</v>
+      </c>
+      <c r="E261" s="12" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F261" t="s">
+        <v>4236</v>
+      </c>
+    </row>
+    <row r="262" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B262" t="s">
+        <v>4607</v>
+      </c>
+      <c r="D262" s="12" t="s">
+        <v>4608</v>
+      </c>
+      <c r="E262" s="12" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F262" t="s">
+        <v>4236</v>
+      </c>
+    </row>
+    <row r="263" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B263" t="s">
+        <v>4609</v>
+      </c>
+      <c r="D263" s="12" t="s">
+        <v>4608</v>
+      </c>
+      <c r="E263" s="12" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F263" t="s">
+        <v>4236</v>
+      </c>
+    </row>
+    <row r="264" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B264" t="s">
+        <v>4610</v>
+      </c>
+      <c r="D264" s="12" t="s">
+        <v>4608</v>
+      </c>
+      <c r="E264" s="12" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F264" t="s">
+        <v>4236</v>
+      </c>
+    </row>
+    <row r="265" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B265" t="s">
+        <v>4611</v>
+      </c>
+      <c r="D265" s="12" t="s">
+        <v>4612</v>
+      </c>
+      <c r="E265" s="12" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F265" t="s">
+        <v>4236</v>
+      </c>
+    </row>
+    <row r="266" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B266" t="s">
+        <v>4613</v>
+      </c>
+      <c r="D266" s="12" t="s">
+        <v>4612</v>
+      </c>
+      <c r="E266" s="12" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F266" t="s">
+        <v>4236</v>
+      </c>
+    </row>
+    <row r="267" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B267" t="s">
+        <v>4614</v>
+      </c>
+      <c r="D267" s="12" t="s">
+        <v>4612</v>
+      </c>
+      <c r="E267" s="12" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F267" t="s">
+        <v>4236</v>
+      </c>
+    </row>
+    <row r="268" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B268" t="s">
+        <v>4615</v>
+      </c>
+      <c r="D268" s="12" t="s">
+        <v>4616</v>
+      </c>
+      <c r="E268" s="12" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F268" t="s">
+        <v>4236</v>
+      </c>
+    </row>
+    <row r="269" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B269" t="s">
+        <v>4617</v>
+      </c>
+      <c r="D269" s="12" t="s">
+        <v>4616</v>
+      </c>
+      <c r="E269" s="12" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F269" t="s">
+        <v>4236</v>
+      </c>
+    </row>
+    <row r="270" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B270" t="s">
+        <v>4618</v>
+      </c>
+      <c r="D270" s="12" t="s">
+        <v>4616</v>
+      </c>
+      <c r="E270" s="12" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F270" t="s">
+        <v>4236</v>
+      </c>
+    </row>
+    <row r="271" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B271" t="s">
+        <v>4619</v>
+      </c>
+      <c r="D271" s="12" t="s">
+        <v>4620</v>
+      </c>
+      <c r="E271" s="12" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F271" t="s">
+        <v>4236</v>
+      </c>
+    </row>
+    <row r="272" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B272" t="s">
+        <v>4621</v>
+      </c>
+      <c r="D272" s="12" t="s">
+        <v>4620</v>
+      </c>
+      <c r="E272" s="12" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F272" t="s">
+        <v>4236</v>
+      </c>
+    </row>
+    <row r="273" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B273" t="s">
+        <v>4622</v>
+      </c>
+      <c r="D273" s="12" t="s">
+        <v>4620</v>
+      </c>
+      <c r="E273" s="12" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F273" t="s">
+        <v>4236</v>
+      </c>
+    </row>
+    <row r="274" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B274" t="s">
+        <v>4623</v>
+      </c>
+      <c r="D274" s="12" t="s">
+        <v>4624</v>
+      </c>
+      <c r="E274" s="12" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F274" t="s">
+        <v>4731</v>
+      </c>
+    </row>
+    <row r="275" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B275" t="s">
+        <v>4625</v>
+      </c>
+      <c r="D275" s="12" t="s">
+        <v>4624</v>
+      </c>
+      <c r="E275" s="12" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F275" t="s">
+        <v>4731</v>
+      </c>
+    </row>
+    <row r="276" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B276" t="s">
+        <v>4626</v>
+      </c>
+      <c r="D276" s="12" t="s">
+        <v>4624</v>
+      </c>
+      <c r="E276" s="12" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F276" t="s">
+        <v>4731</v>
+      </c>
+    </row>
+    <row r="277" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B277" t="s">
+        <v>4627</v>
+      </c>
+      <c r="D277" s="12" t="s">
+        <v>4628</v>
+      </c>
+      <c r="E277" s="12" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F277" t="s">
+        <v>4731</v>
+      </c>
+    </row>
+    <row r="278" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B278" t="s">
+        <v>4629</v>
+      </c>
+      <c r="D278" s="12" t="s">
+        <v>4628</v>
+      </c>
+      <c r="E278" s="12" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F278" t="s">
+        <v>4731</v>
+      </c>
+    </row>
+    <row r="279" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B279" t="s">
+        <v>4630</v>
+      </c>
+      <c r="D279" s="12" t="s">
+        <v>4628</v>
+      </c>
+      <c r="E279" s="12" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F279" t="s">
+        <v>4731</v>
+      </c>
+    </row>
+    <row r="280" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B280" t="s">
+        <v>4631</v>
+      </c>
+      <c r="D280" s="12" t="s">
+        <v>4632</v>
+      </c>
+      <c r="E280" s="12" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F280" t="s">
+        <v>4731</v>
+      </c>
+    </row>
+    <row r="281" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B281" t="s">
+        <v>4633</v>
+      </c>
+      <c r="D281" s="12" t="s">
+        <v>4632</v>
+      </c>
+      <c r="E281" s="12" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F281" t="s">
+        <v>4731</v>
+      </c>
+    </row>
+    <row r="282" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B282" t="s">
+        <v>4634</v>
+      </c>
+      <c r="D282" s="12" t="s">
+        <v>4632</v>
+      </c>
+      <c r="E282" s="12" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F282" t="s">
+        <v>4731</v>
+      </c>
+    </row>
+    <row r="283" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B283" t="s">
+        <v>4635</v>
+      </c>
+      <c r="D283" s="12" t="s">
+        <v>4636</v>
+      </c>
+      <c r="E283" s="12" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F283" t="s">
+        <v>4731</v>
+      </c>
+    </row>
+    <row r="284" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B284" t="s">
+        <v>4637</v>
+      </c>
+      <c r="D284" s="12" t="s">
+        <v>4636</v>
+      </c>
+      <c r="E284" s="12" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F284" t="s">
+        <v>4731</v>
+      </c>
+    </row>
+    <row r="285" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B285" t="s">
+        <v>4638</v>
+      </c>
+      <c r="D285" s="12" t="s">
+        <v>4636</v>
+      </c>
+      <c r="E285" s="12" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F285" t="s">
+        <v>4731</v>
+      </c>
+    </row>
+    <row r="286" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B286" t="s">
+        <v>4639</v>
+      </c>
+      <c r="D286" s="12" t="s">
+        <v>4640</v>
+      </c>
+      <c r="E286" s="12" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F286" t="s">
+        <v>4731</v>
+      </c>
+    </row>
+    <row r="287" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B287" t="s">
+        <v>4641</v>
+      </c>
+      <c r="D287" s="12" t="s">
+        <v>4640</v>
+      </c>
+      <c r="E287" s="12" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F287" t="s">
+        <v>4731</v>
+      </c>
+    </row>
+    <row r="288" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B288" t="s">
+        <v>4642</v>
+      </c>
+      <c r="D288" s="12" t="s">
+        <v>4640</v>
+      </c>
+      <c r="E288" s="12" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F288" t="s">
+        <v>4731</v>
+      </c>
+    </row>
+    <row r="289" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B289" t="s">
+        <v>4643</v>
+      </c>
+      <c r="D289" s="12" t="s">
+        <v>4644</v>
+      </c>
+      <c r="E289" s="12" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F289" t="s">
+        <v>4731</v>
+      </c>
+    </row>
+    <row r="290" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B290" t="s">
+        <v>4645</v>
+      </c>
+      <c r="D290" s="12" t="s">
+        <v>4644</v>
+      </c>
+      <c r="E290" s="12" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F290" t="s">
+        <v>4731</v>
+      </c>
+    </row>
+    <row r="291" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B291" t="s">
+        <v>4646</v>
+      </c>
+      <c r="D291" s="12" t="s">
+        <v>4644</v>
+      </c>
+      <c r="E291" s="12" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F291" t="s">
+        <v>4731</v>
+      </c>
+    </row>
+    <row r="292" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B292" t="s">
+        <v>4647</v>
+      </c>
+      <c r="D292" s="12" t="s">
+        <v>4648</v>
+      </c>
+      <c r="E292" s="12" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F292" t="s">
+        <v>4731</v>
+      </c>
+    </row>
+    <row r="293" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B293" t="s">
+        <v>4649</v>
+      </c>
+      <c r="D293" s="12" t="s">
+        <v>4648</v>
+      </c>
+      <c r="E293" s="12" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F293" t="s">
+        <v>4731</v>
+      </c>
+    </row>
+    <row r="294" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B294" t="s">
+        <v>4650</v>
+      </c>
+      <c r="D294" s="12" t="s">
+        <v>4648</v>
+      </c>
+      <c r="E294" s="12" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F294" t="s">
+        <v>4731</v>
+      </c>
+    </row>
+    <row r="295" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B295" t="s">
+        <v>4651</v>
+      </c>
+      <c r="D295" s="12" t="s">
+        <v>4652</v>
+      </c>
+      <c r="E295" s="12" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F295" t="s">
+        <v>4731</v>
+      </c>
+    </row>
+    <row r="296" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B296" t="s">
+        <v>4653</v>
+      </c>
+      <c r="D296" s="12" t="s">
+        <v>4652</v>
+      </c>
+      <c r="E296" s="12" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F296" t="s">
+        <v>4731</v>
+      </c>
+    </row>
+    <row r="297" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B297" t="s">
+        <v>4654</v>
+      </c>
+      <c r="D297" s="12" t="s">
+        <v>4652</v>
+      </c>
+      <c r="E297" s="12" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F297" t="s">
+        <v>4731</v>
+      </c>
+    </row>
+    <row r="298" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B298" t="s">
+        <v>4655</v>
+      </c>
+      <c r="D298" s="12" t="s">
+        <v>4656</v>
+      </c>
+      <c r="E298" s="12" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F298" t="s">
+        <v>4731</v>
+      </c>
+    </row>
+    <row r="299" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B299" t="s">
+        <v>4657</v>
+      </c>
+      <c r="D299" s="12" t="s">
+        <v>4656</v>
+      </c>
+      <c r="E299" s="12" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F299" t="s">
+        <v>4731</v>
+      </c>
+    </row>
+    <row r="300" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B300" t="s">
+        <v>4658</v>
+      </c>
+      <c r="D300" s="12" t="s">
+        <v>4656</v>
+      </c>
+      <c r="E300" s="12" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F300" t="s">
+        <v>4731</v>
+      </c>
+    </row>
+    <row r="301" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B301" t="s">
+        <v>4659</v>
+      </c>
+      <c r="D301" s="12" t="s">
+        <v>4660</v>
+      </c>
+      <c r="E301" s="12" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F301" t="s">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="302" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B302" t="s">
+        <v>4661</v>
+      </c>
+      <c r="D302" s="12" t="s">
+        <v>4660</v>
+      </c>
+      <c r="E302" s="12" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F302" t="s">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="303" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B303" t="s">
+        <v>4662</v>
+      </c>
+      <c r="D303" s="12" t="s">
+        <v>4660</v>
+      </c>
+      <c r="E303" s="12" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F303" t="s">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="304" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B304" t="s">
+        <v>4663</v>
+      </c>
+      <c r="D304" s="12" t="s">
+        <v>4664</v>
+      </c>
+      <c r="E304" s="12" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F304" t="s">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="305" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B305" t="s">
+        <v>4665</v>
+      </c>
+      <c r="D305" s="12" t="s">
+        <v>4664</v>
+      </c>
+      <c r="E305" s="12" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F305" t="s">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="306" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B306" t="s">
+        <v>4666</v>
+      </c>
+      <c r="D306" s="12" t="s">
+        <v>4664</v>
+      </c>
+      <c r="E306" s="12" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F306" t="s">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="307" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B307" t="s">
+        <v>4667</v>
+      </c>
+      <c r="D307" s="12" t="s">
+        <v>4668</v>
+      </c>
+      <c r="E307" s="12" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F307" t="s">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="308" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B308" t="s">
+        <v>4669</v>
+      </c>
+      <c r="D308" s="12" t="s">
+        <v>4668</v>
+      </c>
+      <c r="E308" s="12" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F308" t="s">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="309" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B309" t="s">
+        <v>4670</v>
+      </c>
+      <c r="D309" s="12" t="s">
+        <v>4668</v>
+      </c>
+      <c r="E309" s="12" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F309" t="s">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="310" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B310" t="s">
+        <v>4671</v>
+      </c>
+      <c r="D310" s="12" t="s">
+        <v>4672</v>
+      </c>
+      <c r="E310" s="12" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F310" t="s">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="311" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B311" t="s">
+        <v>4673</v>
+      </c>
+      <c r="D311" s="12" t="s">
+        <v>4672</v>
+      </c>
+      <c r="E311" s="12" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F311" t="s">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="312" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B312" t="s">
+        <v>4674</v>
+      </c>
+      <c r="D312" s="12" t="s">
+        <v>4672</v>
+      </c>
+      <c r="E312" s="12" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F312" t="s">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="313" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B313" t="s">
+        <v>4675</v>
+      </c>
+      <c r="D313" s="12" t="s">
+        <v>4676</v>
+      </c>
+      <c r="E313" s="12" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F313" t="s">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="314" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B314" t="s">
+        <v>4677</v>
+      </c>
+      <c r="D314" s="12" t="s">
+        <v>4676</v>
+      </c>
+      <c r="E314" s="12" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F314" t="s">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="315" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B315" t="s">
+        <v>4678</v>
+      </c>
+      <c r="D315" s="12" t="s">
+        <v>4676</v>
+      </c>
+      <c r="E315" s="12" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F315" t="s">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="316" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B316" t="s">
+        <v>4679</v>
+      </c>
+      <c r="D316" s="12" t="s">
+        <v>4680</v>
+      </c>
+      <c r="E316" s="12" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F316" t="s">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="317" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B317" t="s">
+        <v>4681</v>
+      </c>
+      <c r="D317" s="12" t="s">
+        <v>4680</v>
+      </c>
+      <c r="E317" s="12" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F317" t="s">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="318" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B318" t="s">
+        <v>4682</v>
+      </c>
+      <c r="D318" s="12" t="s">
+        <v>4680</v>
+      </c>
+      <c r="E318" s="12" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F318" t="s">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="319" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B319" t="s">
+        <v>4683</v>
+      </c>
+      <c r="D319" s="12" t="s">
+        <v>4684</v>
+      </c>
+      <c r="E319" s="12" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F319" t="s">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="320" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B320" t="s">
+        <v>4685</v>
+      </c>
+      <c r="D320" s="12" t="s">
+        <v>4684</v>
+      </c>
+      <c r="E320" s="12" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F320" t="s">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="321" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B321" t="s">
+        <v>4686</v>
+      </c>
+      <c r="D321" s="12" t="s">
+        <v>4684</v>
+      </c>
+      <c r="E321" s="12" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F321" t="s">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="322" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B322" t="s">
+        <v>4687</v>
+      </c>
+      <c r="D322" s="12" t="s">
+        <v>4688</v>
+      </c>
+      <c r="E322" s="12" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F322" t="s">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="323" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B323" t="s">
+        <v>4689</v>
+      </c>
+      <c r="D323" s="12" t="s">
+        <v>4688</v>
+      </c>
+      <c r="E323" s="12" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F323" t="s">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="324" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B324" t="s">
+        <v>4690</v>
+      </c>
+      <c r="D324" s="12" t="s">
+        <v>4688</v>
+      </c>
+      <c r="E324" s="12" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F324" t="s">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="325" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B325" t="s">
+        <v>4691</v>
+      </c>
+      <c r="D325" s="12" t="s">
+        <v>4692</v>
+      </c>
+      <c r="E325" s="12" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F325" t="s">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="326" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B326" t="s">
+        <v>4693</v>
+      </c>
+      <c r="D326" s="12" t="s">
+        <v>4692</v>
+      </c>
+      <c r="E326" s="12" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F326" t="s">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="327" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B327" t="s">
+        <v>4694</v>
+      </c>
+      <c r="D327" s="12" t="s">
+        <v>4692</v>
+      </c>
+      <c r="E327" s="12" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F327" t="s">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="328" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B328" t="s">
+        <v>4695</v>
+      </c>
+      <c r="D328" s="12" t="s">
+        <v>4696</v>
+      </c>
+      <c r="E328" s="12" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F328" t="s">
+        <v>4732</v>
+      </c>
+    </row>
+    <row r="329" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B329" t="s">
+        <v>4697</v>
+      </c>
+      <c r="D329" s="12" t="s">
+        <v>4696</v>
+      </c>
+      <c r="E329" s="12" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F329" t="s">
+        <v>4732</v>
+      </c>
+    </row>
+    <row r="330" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B330" t="s">
+        <v>4698</v>
+      </c>
+      <c r="D330" s="12" t="s">
+        <v>4696</v>
+      </c>
+      <c r="E330" s="12" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F330" t="s">
+        <v>4732</v>
+      </c>
+    </row>
+    <row r="331" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B331" t="s">
+        <v>4699</v>
+      </c>
+      <c r="D331" s="12" t="s">
+        <v>4700</v>
+      </c>
+      <c r="E331" s="12" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F331" t="s">
+        <v>4732</v>
+      </c>
+    </row>
+    <row r="332" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B332" t="s">
+        <v>4701</v>
+      </c>
+      <c r="D332" s="12" t="s">
+        <v>4700</v>
+      </c>
+      <c r="E332" s="12" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F332" t="s">
+        <v>4732</v>
+      </c>
+    </row>
+    <row r="333" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B333" t="s">
+        <v>4702</v>
+      </c>
+      <c r="D333" s="12" t="s">
+        <v>4700</v>
+      </c>
+      <c r="E333" s="12" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F333" t="s">
+        <v>4732</v>
+      </c>
+    </row>
+    <row r="334" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B334" t="s">
+        <v>4703</v>
+      </c>
+      <c r="D334" s="12" t="s">
+        <v>4704</v>
+      </c>
+      <c r="E334" s="12" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F334" t="s">
+        <v>4732</v>
+      </c>
+    </row>
+    <row r="335" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B335" t="s">
+        <v>4705</v>
+      </c>
+      <c r="D335" s="12" t="s">
+        <v>4704</v>
+      </c>
+      <c r="E335" s="12" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F335" t="s">
+        <v>4732</v>
+      </c>
+    </row>
+    <row r="336" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B336" t="s">
+        <v>4706</v>
+      </c>
+      <c r="D336" s="12" t="s">
+        <v>4704</v>
+      </c>
+      <c r="E336" s="12" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F336" t="s">
+        <v>4732</v>
+      </c>
+    </row>
+    <row r="337" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B337" t="s">
+        <v>4707</v>
+      </c>
+      <c r="D337" s="12" t="s">
+        <v>4708</v>
+      </c>
+      <c r="E337" s="12" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F337" t="s">
+        <v>4732</v>
+      </c>
+    </row>
+    <row r="338" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B338" t="s">
+        <v>4709</v>
+      </c>
+      <c r="D338" s="12" t="s">
+        <v>4708</v>
+      </c>
+      <c r="E338" s="12" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F338" t="s">
+        <v>4732</v>
+      </c>
+    </row>
+    <row r="339" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B339" t="s">
+        <v>4710</v>
+      </c>
+      <c r="D339" s="12" t="s">
+        <v>4708</v>
+      </c>
+      <c r="E339" s="12" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F339" t="s">
+        <v>4732</v>
+      </c>
+    </row>
+    <row r="340" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B340" t="s">
+        <v>4711</v>
+      </c>
+      <c r="D340" s="12" t="s">
+        <v>4712</v>
+      </c>
+      <c r="E340" s="12" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F340" t="s">
+        <v>4732</v>
+      </c>
+    </row>
+    <row r="341" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B341" t="s">
+        <v>4713</v>
+      </c>
+      <c r="D341" s="12" t="s">
+        <v>4712</v>
+      </c>
+      <c r="E341" s="12" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F341" t="s">
+        <v>4732</v>
+      </c>
+    </row>
+    <row r="342" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B342" t="s">
+        <v>4714</v>
+      </c>
+      <c r="D342" s="12" t="s">
+        <v>4712</v>
+      </c>
+      <c r="E342" s="12" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F342" t="s">
+        <v>4732</v>
+      </c>
+    </row>
+    <row r="343" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B343" t="s">
+        <v>4715</v>
+      </c>
+      <c r="D343" s="12" t="s">
+        <v>4716</v>
+      </c>
+      <c r="E343" s="12" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F343" t="s">
+        <v>4732</v>
+      </c>
+    </row>
+    <row r="344" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B344" t="s">
+        <v>4717</v>
+      </c>
+      <c r="D344" s="12" t="s">
+        <v>4716</v>
+      </c>
+      <c r="E344" s="12" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F344" t="s">
+        <v>4732</v>
+      </c>
+    </row>
+    <row r="345" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B345" t="s">
+        <v>4718</v>
+      </c>
+      <c r="D345" s="12" t="s">
+        <v>4716</v>
+      </c>
+      <c r="E345" s="12" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F345" t="s">
+        <v>4732</v>
+      </c>
+    </row>
+    <row r="346" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B346" t="s">
+        <v>4719</v>
+      </c>
+      <c r="D346" s="12" t="s">
+        <v>4720</v>
+      </c>
+      <c r="E346" s="12" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F346" t="s">
+        <v>4732</v>
+      </c>
+    </row>
+    <row r="347" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B347" t="s">
+        <v>4721</v>
+      </c>
+      <c r="D347" s="12" t="s">
+        <v>4720</v>
+      </c>
+      <c r="E347" s="12" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F347" t="s">
+        <v>4732</v>
+      </c>
+    </row>
+    <row r="348" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B348" t="s">
+        <v>4722</v>
+      </c>
+      <c r="D348" s="12" t="s">
+        <v>4720</v>
+      </c>
+      <c r="E348" s="12" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F348" t="s">
+        <v>4732</v>
+      </c>
+    </row>
+    <row r="349" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B349" t="s">
+        <v>4723</v>
+      </c>
+      <c r="D349" s="12" t="s">
+        <v>4724</v>
+      </c>
+      <c r="E349" s="12" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F349" t="s">
+        <v>4732</v>
+      </c>
+    </row>
+    <row r="350" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B350" t="s">
+        <v>4725</v>
+      </c>
+      <c r="D350" s="12" t="s">
+        <v>4724</v>
+      </c>
+      <c r="E350" s="12" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F350" t="s">
+        <v>4732</v>
+      </c>
+    </row>
+    <row r="351" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B351" t="s">
+        <v>4726</v>
+      </c>
+      <c r="D351" s="12" t="s">
+        <v>4724</v>
+      </c>
+      <c r="E351" s="12" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F351" t="s">
+        <v>4732</v>
+      </c>
+    </row>
+    <row r="352" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B352" t="s">
+        <v>4727</v>
+      </c>
+      <c r="D352" s="12" t="s">
+        <v>4728</v>
+      </c>
+      <c r="E352" s="12" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F352" t="s">
+        <v>4732</v>
+      </c>
+    </row>
+    <row r="353" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B353" t="s">
+        <v>4729</v>
+      </c>
+      <c r="D353" s="12" t="s">
+        <v>4728</v>
+      </c>
+      <c r="E353" s="12" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F353" t="s">
+        <v>4732</v>
+      </c>
+    </row>
+    <row r="354" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B354" t="s">
+        <v>4730</v>
+      </c>
+      <c r="D354" s="12" t="s">
+        <v>4728</v>
+      </c>
+      <c r="E354" s="12" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F354" t="s">
+        <v>4732</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="B29:F55">
+    <sortCondition ref="B29:B55"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/modules-local/fast-library/src/OutListParameters.xlsx
+++ b/modules-local/fast-library/src/OutListParameters.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="360" windowWidth="11928" windowHeight="5364" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="420" windowWidth="11928" windowHeight="5304" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="8" r:id="rId1"/>
@@ -14776,12 +14776,12 @@
         <v>2073</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
         <v>507</v>
       </c>
@@ -14789,7 +14789,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>508</v>
       </c>
@@ -14797,7 +14797,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>510</v>
       </c>
@@ -14805,7 +14805,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>513</v>
       </c>
@@ -14875,7 +14875,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G889"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
@@ -15061,7 +15061,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="B12" s="4" t="s">
         <v>378</v>
       </c>
@@ -29325,7 +29325,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G354"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -34428,7 +34430,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G17"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -34582,7 +34584,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>2065</v>
       </c>
@@ -34610,7 +34612,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>2075</v>
       </c>
@@ -34618,7 +34620,7 @@
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
     </row>
-    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>2080</v>
       </c>
@@ -34635,7 +34637,7 @@
         <v>2086</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>2081</v>
       </c>
@@ -34652,7 +34654,7 @@
         <v>2086</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>2082</v>
       </c>
@@ -34669,7 +34671,7 @@
         <v>2086</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>2083</v>
       </c>

--- a/modules-local/fast-library/src/OutListParameters.xlsx
+++ b/modules-local/fast-library/src/OutListParameters.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9350" uniqueCount="4733">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9363" uniqueCount="4742">
   <si>
     <t>Category</t>
   </si>
@@ -14247,6 +14247,33 @@
   </si>
   <si>
     <t>(N-m/m)</t>
+  </si>
+  <si>
+    <t>Pitch Actuator</t>
+  </si>
+  <si>
+    <t>PAngInp</t>
+  </si>
+  <si>
+    <t>Pitch angle input</t>
+  </si>
+  <si>
+    <t>PAngAct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actual pitch angle </t>
+  </si>
+  <si>
+    <t>PRatAct</t>
+  </si>
+  <si>
+    <t>PAccAct</t>
+  </si>
+  <si>
+    <t>Actual pitch rate</t>
+  </si>
+  <si>
+    <t>Actual pitch acceleration</t>
   </si>
 </sst>
 </file>
@@ -29323,10 +29350,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G354"/>
+  <dimension ref="A1:G359"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A325" workbookViewId="0">
+      <selection activeCell="E355" sqref="E355"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -34388,7 +34415,7 @@
         <v>4732</v>
       </c>
     </row>
-    <row r="353" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B353" t="s">
         <v>4729</v>
       </c>
@@ -34402,7 +34429,7 @@
         <v>4732</v>
       </c>
     </row>
-    <row r="354" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B354" t="s">
         <v>4730</v>
       </c>
@@ -34414,6 +34441,62 @@
       </c>
       <c r="F354" t="s">
         <v>4732</v>
+      </c>
+    </row>
+    <row r="355" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A355" s="3" t="s">
+        <v>4733</v>
+      </c>
+      <c r="B355" s="3"/>
+      <c r="C355" s="6"/>
+      <c r="D355" s="6"/>
+      <c r="E355" s="6"/>
+      <c r="F355" s="3"/>
+      <c r="G355" s="3"/>
+    </row>
+    <row r="356" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B356" s="4" t="s">
+        <v>4734</v>
+      </c>
+      <c r="D356" s="7" t="s">
+        <v>4735</v>
+      </c>
+      <c r="E356" s="7"/>
+      <c r="F356" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="357" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B357" t="s">
+        <v>4736</v>
+      </c>
+      <c r="D357" s="12" t="s">
+        <v>4737</v>
+      </c>
+      <c r="F357" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="358" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B358" t="s">
+        <v>4738</v>
+      </c>
+      <c r="D358" s="12" t="s">
+        <v>4740</v>
+      </c>
+      <c r="F358" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="359" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B359" t="s">
+        <v>4739</v>
+      </c>
+      <c r="D359" s="12" t="s">
+        <v>4741</v>
+      </c>
+      <c r="F359" t="s">
+        <v>494</v>
       </c>
     </row>
   </sheetData>

--- a/modules-local/fast-library/src/OutListParameters.xlsx
+++ b/modules-local/fast-library/src/OutListParameters.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="420" windowWidth="11928" windowHeight="5304"/>
+    <workbookView xWindow="120" yWindow="420" windowWidth="11928" windowHeight="5304" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="8" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9360" uniqueCount="4739">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9381" uniqueCount="4750">
   <si>
     <t>Category</t>
   </si>
@@ -14242,6 +14242,39 @@
   </si>
   <si>
     <t>Note that several outputs from FAST v7.2 are not yet implemented/available in FAST v8.12. See the worksheets labeled ("Removed")</t>
+  </si>
+  <si>
+    <t>Tower Tuned Mass Damper (TMD)</t>
+  </si>
+  <si>
+    <t>TTMD_XQ</t>
+  </si>
+  <si>
+    <t>TTMD_XQD</t>
+  </si>
+  <si>
+    <t>TTMD_YQ</t>
+  </si>
+  <si>
+    <t>TTMD_YQD</t>
+  </si>
+  <si>
+    <t>Tower X TMD position (displacement)</t>
+  </si>
+  <si>
+    <t>Tower X TMD velocity</t>
+  </si>
+  <si>
+    <t>Tower Y TMD position (displacement)</t>
+  </si>
+  <si>
+    <t>Tower Y TMD velocity</t>
+  </si>
+  <si>
+    <t>Relative to tower</t>
+  </si>
+  <si>
+    <t>.not. p%CompTTMD</t>
   </si>
 </sst>
 </file>
@@ -14691,7 +14724,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
@@ -14734,7 +14767,7 @@
     <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="D9">
         <f>COUNTA(ServoDyn!B:B)-1</f>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
         <v>2066</v>
@@ -34461,10 +34494,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -34705,7 +34738,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>2078</v>
       </c>
@@ -34720,6 +34753,82 @@
       </c>
       <c r="G17" t="s">
         <v>2081</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>4739</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>4740</v>
+      </c>
+      <c r="D19" t="s">
+        <v>4744</v>
+      </c>
+      <c r="E19" t="s">
+        <v>2079</v>
+      </c>
+      <c r="F19" t="s">
+        <v>261</v>
+      </c>
+      <c r="G19" t="s">
+        <v>4749</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>4741</v>
+      </c>
+      <c r="D20" t="s">
+        <v>4745</v>
+      </c>
+      <c r="E20" t="s">
+        <v>4748</v>
+      </c>
+      <c r="F20" t="s">
+        <v>491</v>
+      </c>
+      <c r="G20" t="s">
+        <v>4749</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>4742</v>
+      </c>
+      <c r="D21" t="s">
+        <v>4746</v>
+      </c>
+      <c r="E21" t="s">
+        <v>2079</v>
+      </c>
+      <c r="F21" t="s">
+        <v>261</v>
+      </c>
+      <c r="G21" t="s">
+        <v>4749</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>4743</v>
+      </c>
+      <c r="D22" t="s">
+        <v>4747</v>
+      </c>
+      <c r="E22" t="s">
+        <v>4748</v>
+      </c>
+      <c r="F22" t="s">
+        <v>491</v>
+      </c>
+      <c r="G22" t="s">
+        <v>4749</v>
       </c>
     </row>
   </sheetData>
@@ -35038,7 +35147,7 @@
         <v>2054</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="s">
         <v>352</v>
       </c>
@@ -35061,7 +35170,7 @@
         <v>2054</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>515</v>
       </c>
@@ -35069,7 +35178,7 @@
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
     </row>
-    <row r="13" spans="1:8" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B13" s="4" t="s">
         <v>242</v>
       </c>
